--- a/gutter-jr.xlsx
+++ b/gutter-jr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28820" windowHeight="20460" tabRatio="991" activeTab="13"/>
+    <workbookView xWindow="19080" yWindow="460" windowWidth="14520" windowHeight="20460" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="60">
   <si>
     <t>Dag1</t>
   </si>
@@ -274,61 +274,73 @@
     <t>Tour de Synnfjell Sammenlagt - Gutter 17-20</t>
   </si>
   <si>
-    <t>Rune Hermundstad Grobakken</t>
+    <t>Dragerengen, Ivar</t>
   </si>
   <si>
-    <t>Morten Ramstad</t>
+    <t>Eriksen, Christian Opsahl</t>
   </si>
   <si>
-    <t>Christian Opsahl Eriksen</t>
+    <t>Granvold, Simen</t>
   </si>
   <si>
-    <t>Nils Henrik Kvale</t>
+    <t>Grobakken, Rune Hermundstad</t>
   </si>
   <si>
-    <t>Arngrim Sørumshagen</t>
+    <t>Haugnes, Mathias Bjerregård</t>
   </si>
   <si>
-    <t>Mathias Bjerregård Haugnes</t>
+    <t>Kvale, Nils Henrik</t>
   </si>
   <si>
-    <t>Bendik Lae Steinsrud</t>
+    <t>Lindmoen, Petter</t>
   </si>
   <si>
-    <t>Eirik Seegård</t>
+    <t>Ramstad, Morten</t>
   </si>
   <si>
-    <t>Markus Moen Riste</t>
+    <t>Riste, Markus Moen</t>
   </si>
   <si>
-    <t>Petter Lindmoen</t>
+    <t>Seegard, Eirik</t>
   </si>
   <si>
-    <t>Simen Granvold</t>
+    <t>Steinsrud, Bendik Lae</t>
   </si>
   <si>
-    <t>Ivar Dragerengen</t>
+    <t>Sørumshagen, Arngrim</t>
   </si>
   <si>
-    <t>Kristoffer Seegaard</t>
+    <t>Bossum, Andreas</t>
   </si>
   <si>
-    <t>Vidar Brenna</t>
+    <t>Brenna, Vidar</t>
   </si>
   <si>
-    <t>Marius Viken Vesterås</t>
+    <t>Flugstad, Fredrik Fuglerud</t>
   </si>
   <si>
-    <t>Thomas Stangjordet</t>
+    <t>Moseby, Håvard</t>
   </si>
   <si>
-    <t>Håvard Moseby</t>
+    <t>Seegaard, Kristoffer</t>
   </si>
   <si>
-    <t>Fredrik Fuglerud Flugstad</t>
+    <t>Stangjordet, Thomas</t>
   </si>
   <si>
-    <t>Andreas Bossum</t>
+    <t>Vesterås, Marius Viken</t>
+  </si>
+  <si>
+    <t>Evensen, Ansgar</t>
+  </si>
+  <si>
+    <t>Karsrud, Kristoffer Alm</t>
+  </si>
+  <si>
+    <t>Nyhagen, Håkon</t>
+  </si>
+  <si>
+    <t>Stensvold, Trym</t>
   </si>
 </sst>
 </file>
@@ -931,8 +943,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1551,33 +1563,35 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="B16" s="25"/>
       <c r="C16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D16" s="11" t="str">
         <f>IF(A16="","", IFERROR(VLOOKUP(C16,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G16" s="11" t="str">
         <f>IF(A16="","",IFERROR(VLOOKUP(F16,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J16" s="12" t="str">
         <f>IF(A16="","",IFERROR(VLOOKUP(I16,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K16" s="26" t="str">
         <f t="shared" si="3"/>
@@ -1585,41 +1599,43 @@
       </c>
       <c r="L16" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M16" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="B17" s="25"/>
       <c r="C17" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D17" s="11" t="str">
         <f>IF(A17="","", IFERROR(VLOOKUP(C17,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G17" s="11" t="str">
         <f>IF(A17="","",IFERROR(VLOOKUP(F17,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J17" s="12" t="str">
         <f>IF(A17="","",IFERROR(VLOOKUP(I17,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K17" s="26" t="str">
         <f t="shared" si="3"/>
@@ -1627,41 +1643,43 @@
       </c>
       <c r="L17" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M17" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
+      <c r="A18" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="B18" s="25"/>
       <c r="C18" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D18" s="11" t="str">
         <f>IF(A18="","", IFERROR(VLOOKUP(C18,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G18" s="11" t="str">
         <f>IF(A18="","",IFERROR(VLOOKUP(F18,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J18" s="12" t="str">
         <f>IF(A18="","",IFERROR(VLOOKUP(I18,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K18" s="26" t="str">
         <f t="shared" si="3"/>
@@ -1669,41 +1687,43 @@
       </c>
       <c r="L18" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M18" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+      <c r="A19" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="B19" s="25"/>
       <c r="C19" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D19" s="11" t="str">
         <f>IF(A19="","", IFERROR(VLOOKUP(C19,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G19" s="11" t="str">
         <f>IF(A19="","",IFERROR(VLOOKUP(F19,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J19" s="12" t="str">
         <f>IF(A19="","",IFERROR(VLOOKUP(I19,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K19" s="26" t="str">
         <f t="shared" si="3"/>
@@ -1711,11 +1731,11 @@
       </c>
       <c r="L19" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M19" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -12908,7 +12928,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="str">
         <f>IF('K2'!A7="", "",'K2'!A7)</f>
-        <v>Thomas Stangjordet</v>
+        <v>Moseby, Håvard</v>
       </c>
       <c r="B6" s="19" t="str">
         <f>IF('K2'!B7="", "",'K2'!B7)</f>
@@ -12978,7 +12998,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Rune Hermundstad Grobakken</v>
+        <v>Dragerengen, Ivar</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>IF('K1'!B4="", "",'K1'!B4)</f>
@@ -13048,7 +13068,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v>Arngrim Sørumshagen</v>
+        <v>Haugnes, Mathias Bjerregård</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>IF('K1'!B8="", "",'K1'!B8)</f>
@@ -13118,7 +13138,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
-        <v>Mathias Bjerregård Haugnes</v>
+        <v>Kvale, Nils Henrik</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>IF('K1'!B9="", "",'K1'!B9)</f>
@@ -13188,7 +13208,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
-        <v>Bendik Lae Steinsrud</v>
+        <v>Lindmoen, Petter</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>IF('K1'!B10="", "",'K1'!B10)</f>
@@ -13258,7 +13278,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="str">
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
-        <v>Eirik Seegård</v>
+        <v>Ramstad, Morten</v>
       </c>
       <c r="B11" s="19" t="str">
         <f>IF('K1'!B11="", "",'K1'!B11)</f>
@@ -13328,7 +13348,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="str">
         <f>IF('K1'!A12="", "",'K1'!A12)</f>
-        <v>Markus Moen Riste</v>
+        <v>Riste, Markus Moen</v>
       </c>
       <c r="B12" s="19" t="str">
         <f>IF('K1'!B12="", "",'K1'!B12)</f>
@@ -13398,7 +13418,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="str">
         <f>IF('K1'!A13="", "",'K1'!A13)</f>
-        <v>Petter Lindmoen</v>
+        <v>Seegard, Eirik</v>
       </c>
       <c r="B13" s="19" t="str">
         <f>IF('K1'!B13="", "",'K1'!B13)</f>
@@ -13468,7 +13488,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="str">
         <f>IF('K1'!A14="", "",'K1'!A14)</f>
-        <v>Simen Granvold</v>
+        <v>Steinsrud, Bendik Lae</v>
       </c>
       <c r="B14" s="19" t="str">
         <f>IF('K1'!B14="", "",'K1'!B14)</f>
@@ -13538,7 +13558,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="str">
         <f>IF('K1'!A15="", "",'K1'!A15)</f>
-        <v>Ivar Dragerengen</v>
+        <v>Sørumshagen, Arngrim</v>
       </c>
       <c r="B15" s="19" t="str">
         <f>IF('K1'!B15="", "",'K1'!B15)</f>
@@ -13608,7 +13628,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="str">
         <f>IF('K1'!A16="", "",'K1'!A16)</f>
-        <v/>
+        <v>Evensen, Ansgar</v>
       </c>
       <c r="B16" s="19" t="str">
         <f>IF('K1'!B16="", "",'K1'!B16)</f>
@@ -13620,11 +13640,11 @@
       </c>
       <c r="D16" s="23" t="str">
         <f>IF(A16="","",IFERROR(VLOOKUP(E16,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E16" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F16" s="19" t="str">
         <f>IF('K1'!E16="", "", 'K1'!E16)</f>
@@ -13636,11 +13656,11 @@
       </c>
       <c r="H16" s="23" t="str">
         <f>IF(A16="","",IFERROR(VLOOKUP(I16,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I16" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J16" s="19" t="str">
         <f>IF('K1'!H16="", "", 'K1'!H16)</f>
@@ -13652,11 +13672,11 @@
       </c>
       <c r="L16" s="23" t="str">
         <f>IF(A16="","",IFERROR(VLOOKUP(M16,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M16" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N16" s="27" t="str">
         <f>IF('K1'!K16="", "", 'K1'!K16)</f>
@@ -13668,17 +13688,17 @@
       </c>
       <c r="P16" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q16" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="str">
         <f>IF('K1'!A17="", "",'K1'!A17)</f>
-        <v/>
+        <v>Karsrud, Kristoffer Alm</v>
       </c>
       <c r="B17" s="19" t="str">
         <f>IF('K1'!B17="", "",'K1'!B17)</f>
@@ -13690,11 +13710,11 @@
       </c>
       <c r="D17" s="23" t="str">
         <f>IF(A17="","",IFERROR(VLOOKUP(E17,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E17" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F17" s="19" t="str">
         <f>IF('K1'!E17="", "", 'K1'!E17)</f>
@@ -13706,11 +13726,11 @@
       </c>
       <c r="H17" s="23" t="str">
         <f>IF(A17="","",IFERROR(VLOOKUP(I17,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I17" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J17" s="19" t="str">
         <f>IF('K1'!H17="", "", 'K1'!H17)</f>
@@ -13722,11 +13742,11 @@
       </c>
       <c r="L17" s="23" t="str">
         <f>IF(A17="","",IFERROR(VLOOKUP(M17,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M17" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N17" s="27" t="str">
         <f>IF('K1'!K17="", "", 'K1'!K17)</f>
@@ -13738,17 +13758,17 @@
       </c>
       <c r="P17" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q17" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="str">
         <f>IF('K1'!A18="", "",'K1'!A18)</f>
-        <v/>
+        <v>Nyhagen, Håkon</v>
       </c>
       <c r="B18" s="19" t="str">
         <f>IF('K1'!B18="", "",'K1'!B18)</f>
@@ -13760,11 +13780,11 @@
       </c>
       <c r="D18" s="23" t="str">
         <f>IF(A18="","",IFERROR(VLOOKUP(E18,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E18" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F18" s="19" t="str">
         <f>IF('K1'!E18="", "", 'K1'!E18)</f>
@@ -13776,11 +13796,11 @@
       </c>
       <c r="H18" s="23" t="str">
         <f>IF(A18="","",IFERROR(VLOOKUP(I18,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I18" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J18" s="19" t="str">
         <f>IF('K1'!H18="", "", 'K1'!H18)</f>
@@ -13792,11 +13812,11 @@
       </c>
       <c r="L18" s="23" t="str">
         <f>IF(A18="","",IFERROR(VLOOKUP(M18,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M18" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N18" s="27" t="str">
         <f>IF('K1'!K18="", "", 'K1'!K18)</f>
@@ -13808,17 +13828,17 @@
       </c>
       <c r="P18" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q18" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="str">
         <f>IF('K1'!A19="", "",'K1'!A19)</f>
-        <v/>
+        <v>Stensvold, Trym</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>IF('K1'!B19="", "",'K1'!B19)</f>
@@ -13830,11 +13850,11 @@
       </c>
       <c r="D19" s="23" t="str">
         <f>IF(A19="","",IFERROR(VLOOKUP(E19,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E19" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F19" s="19" t="str">
         <f>IF('K1'!E19="", "", 'K1'!E19)</f>
@@ -13846,11 +13866,11 @@
       </c>
       <c r="H19" s="23" t="str">
         <f>IF(A19="","",IFERROR(VLOOKUP(I19,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I19" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J19" s="19" t="str">
         <f>IF('K1'!H19="", "", 'K1'!H19)</f>
@@ -13862,11 +13882,11 @@
       </c>
       <c r="L19" s="23" t="str">
         <f>IF(A19="","",IFERROR(VLOOKUP(M19,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M19" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N19" s="27" t="str">
         <f>IF('K1'!K19="", "", 'K1'!K19)</f>
@@ -13878,11 +13898,11 @@
       </c>
       <c r="P19" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q19" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -19838,7 +19858,7 @@
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v>Kristoffer Seegaard</v>
+        <v>Bossum, Andreas</v>
       </c>
       <c r="B105" s="19" t="str">
         <f>IF('K2'!B4="", "",'K2'!B4)</f>
@@ -19908,7 +19928,7 @@
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Morten Ramstad</v>
+        <v>Eriksen, Christian Opsahl</v>
       </c>
       <c r="B106" s="19" t="str">
         <f>IF('K1'!B5="", "",'K1'!B5)</f>
@@ -19978,7 +19998,7 @@
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="str">
         <f>IF('K2'!A6="", "",'K2'!A6)</f>
-        <v>Marius Viken Vesterås</v>
+        <v>Flugstad, Fredrik Fuglerud</v>
       </c>
       <c r="B107" s="19" t="str">
         <f>IF('K2'!B6="", "",'K2'!B6)</f>
@@ -20048,7 +20068,7 @@
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="str">
         <f>IF('K2'!A8="", "",'K2'!A8)</f>
-        <v>Håvard Moseby</v>
+        <v>Seegaard, Kristoffer</v>
       </c>
       <c r="B108" s="19" t="str">
         <f>IF('K2'!B8="", "",'K2'!B8)</f>
@@ -20118,7 +20138,7 @@
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="str">
         <f>IF('K2'!A9="", "",'K2'!A9)</f>
-        <v>Fredrik Fuglerud Flugstad</v>
+        <v>Stangjordet, Thomas</v>
       </c>
       <c r="B109" s="19" t="str">
         <f>IF('K2'!B9="", "",'K2'!B9)</f>
@@ -20188,7 +20208,7 @@
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="str">
         <f>IF('K2'!A10="", "",'K2'!A10)</f>
-        <v>Andreas Bossum</v>
+        <v>Vesterås, Marius Viken</v>
       </c>
       <c r="B110" s="19" t="str">
         <f>IF('K2'!B10="", "",'K2'!B10)</f>
@@ -26768,7 +26788,7 @@
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" s="15" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v>Vidar Brenna</v>
+        <v>Brenna, Vidar</v>
       </c>
       <c r="B204" s="19" t="str">
         <f>IF('K2'!B5="", "",'K2'!B5)</f>
@@ -26838,7 +26858,7 @@
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" s="15" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Nils Henrik Kvale</v>
+        <v>Grobakken, Rune Hermundstad</v>
       </c>
       <c r="B205" s="19" t="str">
         <f>IF('K1'!B7="", "",'K1'!B7)</f>
@@ -26908,7 +26928,7 @@
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Christian Opsahl Eriksen</v>
+        <v>Granvold, Simen</v>
       </c>
       <c r="B206" s="19" t="str">
         <f>IF('K1'!B6="", "",'K1'!B6)</f>
@@ -33794,7 +33814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -33910,7 +33930,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!A7)</f>
-        <v>Rune Hermundstad Grobakken</v>
+        <v>Dragerengen, Ivar</v>
       </c>
       <c r="B6" s="41" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!P7)</f>
@@ -33934,7 +33954,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF(D1D2D3!A6="", "",D1D2D3!A6)</f>
-        <v>Thomas Stangjordet</v>
+        <v>Moseby, Håvard</v>
       </c>
       <c r="B7" s="41" t="str">
         <f>IF(D1D2D3!A6="", "",D1D2D3!P6)</f>
@@ -33958,7 +33978,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF(D1D2D3!A8="", "",D1D2D3!A8)</f>
-        <v>Arngrim Sørumshagen</v>
+        <v>Haugnes, Mathias Bjerregård</v>
       </c>
       <c r="B8" s="41" t="str">
         <f>IF(D1D2D3!A8="", "",D1D2D3!P8)</f>
@@ -33982,7 +34002,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF(D1D2D3!A9="", "",D1D2D3!A9)</f>
-        <v>Mathias Bjerregård Haugnes</v>
+        <v>Kvale, Nils Henrik</v>
       </c>
       <c r="B9" s="41" t="str">
         <f>IF(D1D2D3!A9="", "",D1D2D3!P9)</f>
@@ -34006,7 +34026,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF(D1D2D3!A10="", "",D1D2D3!A10)</f>
-        <v>Bendik Lae Steinsrud</v>
+        <v>Lindmoen, Petter</v>
       </c>
       <c r="B10" s="41" t="str">
         <f>IF(D1D2D3!A10="", "",D1D2D3!P10)</f>
@@ -34030,7 +34050,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF(D1D2D3!A11="", "",D1D2D3!A11)</f>
-        <v>Eirik Seegård</v>
+        <v>Ramstad, Morten</v>
       </c>
       <c r="B11" s="41" t="str">
         <f>IF(D1D2D3!A11="", "",D1D2D3!P11)</f>
@@ -34054,7 +34074,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF(D1D2D3!A12="", "",D1D2D3!A12)</f>
-        <v>Markus Moen Riste</v>
+        <v>Riste, Markus Moen</v>
       </c>
       <c r="B12" s="41" t="str">
         <f>IF(D1D2D3!A12="", "",D1D2D3!P12)</f>
@@ -34078,7 +34098,7 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF(D1D2D3!A13="", "",D1D2D3!A13)</f>
-        <v>Petter Lindmoen</v>
+        <v>Seegard, Eirik</v>
       </c>
       <c r="B13" s="41" t="str">
         <f>IF(D1D2D3!A13="", "",D1D2D3!P13)</f>
@@ -34102,7 +34122,7 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="str">
         <f>IF(D1D2D3!A14="", "",D1D2D3!A14)</f>
-        <v>Simen Granvold</v>
+        <v>Steinsrud, Bendik Lae</v>
       </c>
       <c r="B14" s="41" t="str">
         <f>IF(D1D2D3!A14="", "",D1D2D3!P14)</f>
@@ -34126,7 +34146,7 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="str">
         <f>IF(D1D2D3!A15="", "",D1D2D3!A15)</f>
-        <v>Ivar Dragerengen</v>
+        <v>Sørumshagen, Arngrim</v>
       </c>
       <c r="B15" s="41" t="str">
         <f>IF(D1D2D3!A15="", "",D1D2D3!P15)</f>
@@ -34150,15 +34170,15 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="str">
         <f>IF(D1D2D3!A16="", "",D1D2D3!A16)</f>
-        <v/>
+        <v>Evensen, Ansgar</v>
       </c>
       <c r="B16" s="41" t="str">
         <f>IF(D1D2D3!A16="", "",D1D2D3!P16)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C16" s="37" t="str">
         <f>IF(D1D2D3!A16="", "",D1D2D3!Q16)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="25"/>
@@ -34174,15 +34194,15 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="str">
         <f>IF(D1D2D3!A17="", "",D1D2D3!A17)</f>
-        <v/>
+        <v>Karsrud, Kristoffer Alm</v>
       </c>
       <c r="B17" s="41" t="str">
         <f>IF(D1D2D3!A17="", "",D1D2D3!P17)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C17" s="37" t="str">
         <f>IF(D1D2D3!A17="", "",D1D2D3!Q17)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="25"/>
@@ -34198,15 +34218,15 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="str">
         <f>IF(D1D2D3!A18="", "",D1D2D3!A18)</f>
-        <v/>
+        <v>Nyhagen, Håkon</v>
       </c>
       <c r="B18" s="41" t="str">
         <f>IF(D1D2D3!A18="", "",D1D2D3!P18)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C18" s="37" t="str">
         <f>IF(D1D2D3!A18="", "",D1D2D3!Q18)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="25"/>
@@ -34222,15 +34242,15 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="str">
         <f>IF(D1D2D3!A19="", "",D1D2D3!A19)</f>
-        <v/>
+        <v>Stensvold, Trym</v>
       </c>
       <c r="B19" s="41" t="str">
         <f>IF(D1D2D3!A19="", "",D1D2D3!P19)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C19" s="37" t="str">
         <f>IF(D1D2D3!A19="", "",D1D2D3!Q19)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="25"/>
@@ -36257,7 +36277,7 @@
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="39" t="str">
         <f>IF(D1D2D3!A105="", "",D1D2D3!A105)</f>
-        <v>Kristoffer Seegaard</v>
+        <v>Bossum, Andreas</v>
       </c>
       <c r="B105" s="41" t="str">
         <f>IF(D1D2D3!A105="", "",D1D2D3!P105)</f>
@@ -36271,7 +36291,7 @@
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="39" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!A106)</f>
-        <v>Morten Ramstad</v>
+        <v>Eriksen, Christian Opsahl</v>
       </c>
       <c r="B106" s="41" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!P106)</f>
@@ -36285,7 +36305,7 @@
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="39" t="str">
         <f>IF(D1D2D3!A107="", "",D1D2D3!A107)</f>
-        <v>Marius Viken Vesterås</v>
+        <v>Flugstad, Fredrik Fuglerud</v>
       </c>
       <c r="B107" s="41" t="str">
         <f>IF(D1D2D3!A107="", "",D1D2D3!P107)</f>
@@ -36299,7 +36319,7 @@
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="39" t="str">
         <f>IF(D1D2D3!A108="", "",D1D2D3!A108)</f>
-        <v>Håvard Moseby</v>
+        <v>Seegaard, Kristoffer</v>
       </c>
       <c r="B108" s="41" t="str">
         <f>IF(D1D2D3!A108="", "",D1D2D3!P108)</f>
@@ -36313,7 +36333,7 @@
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="39" t="str">
         <f>IF(D1D2D3!A109="", "",D1D2D3!A109)</f>
-        <v>Fredrik Fuglerud Flugstad</v>
+        <v>Stangjordet, Thomas</v>
       </c>
       <c r="B109" s="41" t="str">
         <f>IF(D1D2D3!A109="", "",D1D2D3!P109)</f>
@@ -36327,7 +36347,7 @@
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="39" t="str">
         <f>IF(D1D2D3!A110="", "",D1D2D3!A110)</f>
-        <v>Andreas Bossum</v>
+        <v>Vesterås, Marius Viken</v>
       </c>
       <c r="B110" s="41" t="str">
         <f>IF(D1D2D3!A110="", "",D1D2D3!P110)</f>
@@ -37643,7 +37663,7 @@
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="39" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!A205)</f>
-        <v>Nils Henrik Kvale</v>
+        <v>Grobakken, Rune Hermundstad</v>
       </c>
       <c r="B204" s="41" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!P205)</f>
@@ -37657,7 +37677,7 @@
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="39" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!A206)</f>
-        <v>Christian Opsahl Eriksen</v>
+        <v>Granvold, Simen</v>
       </c>
       <c r="B205" s="41" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!P206)</f>
@@ -39029,7 +39049,7 @@
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="39" t="str">
         <f>IF(D1D2D3!A204="", "",D1D2D3!A204)</f>
-        <v>Vidar Brenna</v>
+        <v>Brenna, Vidar</v>
       </c>
       <c r="B303" s="41" t="str">
         <f>IF(D1D2D3!A204="", "",D1D2D3!P204)</f>
@@ -39834,7 +39854,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48541,7 +48561,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Rune Hermundstad Grobakken</v>
+        <v>Dragerengen, Ivar</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!B4)</f>
@@ -48565,7 +48585,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Morten Ramstad</v>
+        <v>Eriksen, Christian Opsahl</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!B5)</f>
@@ -48589,7 +48609,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Christian Opsahl Eriksen</v>
+        <v>Granvold, Simen</v>
       </c>
       <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!B6)</f>
@@ -48613,7 +48633,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Nils Henrik Kvale</v>
+        <v>Grobakken, Rune Hermundstad</v>
       </c>
       <c r="B7" s="36">
         <f>IF('K1'!A7="", "",'K1'!B7)</f>
@@ -48637,7 +48657,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v>Arngrim Sørumshagen</v>
+        <v>Haugnes, Mathias Bjerregård</v>
       </c>
       <c r="B8" s="36">
         <f>IF('K1'!A8="", "",'K1'!B8)</f>
@@ -48661,7 +48681,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
-        <v>Mathias Bjerregård Haugnes</v>
+        <v>Kvale, Nils Henrik</v>
       </c>
       <c r="B9" s="36">
         <f>IF('K1'!A9="", "",'K1'!B9)</f>
@@ -48685,7 +48705,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
-        <v>Bendik Lae Steinsrud</v>
+        <v>Lindmoen, Petter</v>
       </c>
       <c r="B10" s="36">
         <f>IF('K1'!A10="", "",'K1'!B10)</f>
@@ -48709,7 +48729,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
-        <v>Eirik Seegård</v>
+        <v>Ramstad, Morten</v>
       </c>
       <c r="B11" s="36">
         <f>IF('K1'!A11="", "",'K1'!B11)</f>
@@ -48733,7 +48753,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF('K1'!A12="", "",'K1'!A12)</f>
-        <v>Markus Moen Riste</v>
+        <v>Riste, Markus Moen</v>
       </c>
       <c r="B12" s="36">
         <f>IF('K1'!A12="", "",'K1'!B12)</f>
@@ -48757,7 +48777,7 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF('K1'!A13="", "",'K1'!A13)</f>
-        <v>Petter Lindmoen</v>
+        <v>Seegard, Eirik</v>
       </c>
       <c r="B13" s="36">
         <f>IF('K1'!A13="", "",'K1'!B13)</f>
@@ -48781,7 +48801,7 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="str">
         <f>IF('K1'!A14="", "",'K1'!A14)</f>
-        <v>Simen Granvold</v>
+        <v>Steinsrud, Bendik Lae</v>
       </c>
       <c r="B14" s="36">
         <f>IF('K1'!A14="", "",'K1'!B14)</f>
@@ -48805,7 +48825,7 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="str">
         <f>IF('K1'!A15="", "",'K1'!A15)</f>
-        <v>Ivar Dragerengen</v>
+        <v>Sørumshagen, Arngrim</v>
       </c>
       <c r="B15" s="36">
         <f>IF('K1'!A15="", "",'K1'!B15)</f>
@@ -48829,15 +48849,15 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="str">
         <f>IF('K1'!A16="", "",'K1'!A16)</f>
-        <v/>
-      </c>
-      <c r="B16" s="36" t="str">
+        <v>Evensen, Ansgar</v>
+      </c>
+      <c r="B16" s="36">
         <f>IF('K1'!A16="", "",'K1'!B16)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C16" s="37" t="str">
         <f>IF('K1'!A16="", "",'K1'!C16)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="36"/>
@@ -48853,15 +48873,15 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="str">
         <f>IF('K1'!A17="", "",'K1'!A17)</f>
-        <v/>
-      </c>
-      <c r="B17" s="36" t="str">
+        <v>Karsrud, Kristoffer Alm</v>
+      </c>
+      <c r="B17" s="36">
         <f>IF('K1'!A17="", "",'K1'!B17)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C17" s="37" t="str">
         <f>IF('K1'!A17="", "",'K1'!C17)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="36"/>
@@ -48877,15 +48897,15 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="str">
         <f>IF('K1'!A18="", "",'K1'!A18)</f>
-        <v/>
-      </c>
-      <c r="B18" s="36" t="str">
+        <v>Nyhagen, Håkon</v>
+      </c>
+      <c r="B18" s="36">
         <f>IF('K1'!A18="", "",'K1'!B18)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C18" s="37" t="str">
         <f>IF('K1'!A18="", "",'K1'!C18)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="36"/>
@@ -48901,15 +48921,15 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="str">
         <f>IF('K1'!A19="", "",'K1'!A19)</f>
-        <v/>
-      </c>
-      <c r="B19" s="36" t="str">
+        <v>Stensvold, Trym</v>
+      </c>
+      <c r="B19" s="36">
         <f>IF('K1'!A19="", "",'K1'!B19)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C19" s="37" t="str">
         <f>IF('K1'!A19="", "",'K1'!C19)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="36"/>
@@ -51000,7 +51020,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Rune Hermundstad Grobakken</v>
+        <v>Dragerengen, Ivar</v>
       </c>
       <c r="B4" s="25">
         <f>IF('K1'!A4="", "",'K1'!E4)</f>
@@ -51024,7 +51044,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Morten Ramstad</v>
+        <v>Eriksen, Christian Opsahl</v>
       </c>
       <c r="B5" s="25">
         <f>IF('K1'!A5="", "",'K1'!E5)</f>
@@ -51048,7 +51068,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Christian Opsahl Eriksen</v>
+        <v>Granvold, Simen</v>
       </c>
       <c r="B6" s="25">
         <f>IF('K1'!A6="", "",'K1'!E6)</f>
@@ -51072,7 +51092,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Nils Henrik Kvale</v>
+        <v>Grobakken, Rune Hermundstad</v>
       </c>
       <c r="B7" s="25">
         <f>IF('K1'!A7="", "",'K1'!E7)</f>
@@ -51096,7 +51116,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v>Arngrim Sørumshagen</v>
+        <v>Haugnes, Mathias Bjerregård</v>
       </c>
       <c r="B8" s="25">
         <f>IF('K1'!A8="", "",'K1'!E8)</f>
@@ -51120,7 +51140,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
-        <v>Mathias Bjerregård Haugnes</v>
+        <v>Kvale, Nils Henrik</v>
       </c>
       <c r="B9" s="25">
         <f>IF('K1'!A9="", "",'K1'!E9)</f>
@@ -51144,7 +51164,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
-        <v>Bendik Lae Steinsrud</v>
+        <v>Lindmoen, Petter</v>
       </c>
       <c r="B10" s="25">
         <f>IF('K1'!A10="", "",'K1'!E10)</f>
@@ -51168,7 +51188,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="str">
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
-        <v>Eirik Seegård</v>
+        <v>Ramstad, Morten</v>
       </c>
       <c r="B11" s="25">
         <f>IF('K1'!A11="", "",'K1'!E11)</f>
@@ -51192,7 +51212,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="str">
         <f>IF('K1'!A12="", "",'K1'!A12)</f>
-        <v>Markus Moen Riste</v>
+        <v>Riste, Markus Moen</v>
       </c>
       <c r="B12" s="25">
         <f>IF('K1'!A12="", "",'K1'!E12)</f>
@@ -51216,7 +51236,7 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="str">
         <f>IF('K1'!A13="", "",'K1'!A13)</f>
-        <v>Petter Lindmoen</v>
+        <v>Seegard, Eirik</v>
       </c>
       <c r="B13" s="25">
         <f>IF('K1'!A13="", "",'K1'!E13)</f>
@@ -51240,7 +51260,7 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="str">
         <f>IF('K1'!A14="", "",'K1'!A14)</f>
-        <v>Simen Granvold</v>
+        <v>Steinsrud, Bendik Lae</v>
       </c>
       <c r="B14" s="25">
         <f>IF('K1'!A14="", "",'K1'!E14)</f>
@@ -51264,7 +51284,7 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="str">
         <f>IF('K1'!A15="", "",'K1'!A15)</f>
-        <v>Ivar Dragerengen</v>
+        <v>Sørumshagen, Arngrim</v>
       </c>
       <c r="B15" s="25">
         <f>IF('K1'!A15="", "",'K1'!E15)</f>
@@ -51288,15 +51308,15 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="str">
         <f>IF('K1'!A16="", "",'K1'!A16)</f>
-        <v/>
-      </c>
-      <c r="B16" s="25" t="str">
+        <v>Evensen, Ansgar</v>
+      </c>
+      <c r="B16" s="25">
         <f>IF('K1'!A16="", "",'K1'!E16)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C16" s="37" t="str">
         <f>IF('K1'!A16="", "",'K1'!F16)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="25"/>
@@ -51312,15 +51332,15 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="str">
         <f>IF('K1'!A17="", "",'K1'!A17)</f>
-        <v/>
-      </c>
-      <c r="B17" s="25" t="str">
+        <v>Karsrud, Kristoffer Alm</v>
+      </c>
+      <c r="B17" s="25">
         <f>IF('K1'!A17="", "",'K1'!E17)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C17" s="37" t="str">
         <f>IF('K1'!A17="", "",'K1'!F17)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="25"/>
@@ -51336,15 +51356,15 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="str">
         <f>IF('K1'!A18="", "",'K1'!A18)</f>
-        <v/>
-      </c>
-      <c r="B18" s="25" t="str">
+        <v>Nyhagen, Håkon</v>
+      </c>
+      <c r="B18" s="25">
         <f>IF('K1'!A18="", "",'K1'!E18)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C18" s="37" t="str">
         <f>IF('K1'!A18="", "",'K1'!F18)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="25"/>
@@ -51360,15 +51380,15 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="str">
         <f>IF('K1'!A19="", "",'K1'!A19)</f>
-        <v/>
-      </c>
-      <c r="B19" s="25" t="str">
+        <v>Stensvold, Trym</v>
+      </c>
+      <c r="B19" s="25">
         <f>IF('K1'!A19="", "",'K1'!E19)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C19" s="37" t="str">
         <f>IF('K1'!A19="", "",'K1'!F19)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="25"/>
@@ -53461,7 +53481,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Rune Hermundstad Grobakken</v>
+        <v>Dragerengen, Ivar</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!H4)</f>
@@ -53485,7 +53505,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Morten Ramstad</v>
+        <v>Eriksen, Christian Opsahl</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!H5)</f>
@@ -53509,7 +53529,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Christian Opsahl Eriksen</v>
+        <v>Granvold, Simen</v>
       </c>
       <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!H6)</f>
@@ -53533,7 +53553,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Nils Henrik Kvale</v>
+        <v>Grobakken, Rune Hermundstad</v>
       </c>
       <c r="B7" s="36">
         <f>IF('K1'!A7="", "",'K1'!H7)</f>
@@ -53557,7 +53577,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v>Arngrim Sørumshagen</v>
+        <v>Haugnes, Mathias Bjerregård</v>
       </c>
       <c r="B8" s="36">
         <f>IF('K1'!A8="", "",'K1'!H8)</f>
@@ -53581,7 +53601,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
-        <v>Mathias Bjerregård Haugnes</v>
+        <v>Kvale, Nils Henrik</v>
       </c>
       <c r="B9" s="36">
         <f>IF('K1'!A9="", "",'K1'!H9)</f>
@@ -53605,7 +53625,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
-        <v>Bendik Lae Steinsrud</v>
+        <v>Lindmoen, Petter</v>
       </c>
       <c r="B10" s="36">
         <f>IF('K1'!A10="", "",'K1'!H10)</f>
@@ -53629,7 +53649,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
-        <v>Eirik Seegård</v>
+        <v>Ramstad, Morten</v>
       </c>
       <c r="B11" s="36">
         <f>IF('K1'!A11="", "",'K1'!H11)</f>
@@ -53653,7 +53673,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF('K1'!A12="", "",'K1'!A12)</f>
-        <v>Markus Moen Riste</v>
+        <v>Riste, Markus Moen</v>
       </c>
       <c r="B12" s="36">
         <f>IF('K1'!A12="", "",'K1'!H12)</f>
@@ -53677,7 +53697,7 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF('K1'!A13="", "",'K1'!A13)</f>
-        <v>Petter Lindmoen</v>
+        <v>Seegard, Eirik</v>
       </c>
       <c r="B13" s="36">
         <f>IF('K1'!A13="", "",'K1'!H13)</f>
@@ -53701,7 +53721,7 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="str">
         <f>IF('K1'!A14="", "",'K1'!A14)</f>
-        <v>Simen Granvold</v>
+        <v>Steinsrud, Bendik Lae</v>
       </c>
       <c r="B14" s="36">
         <f>IF('K1'!A14="", "",'K1'!H14)</f>
@@ -53725,7 +53745,7 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="str">
         <f>IF('K1'!A15="", "",'K1'!A15)</f>
-        <v>Ivar Dragerengen</v>
+        <v>Sørumshagen, Arngrim</v>
       </c>
       <c r="B15" s="36">
         <f>IF('K1'!A15="", "",'K1'!H15)</f>
@@ -53749,15 +53769,15 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="str">
         <f>IF('K1'!A16="", "",'K1'!A16)</f>
-        <v/>
-      </c>
-      <c r="B16" s="36" t="str">
+        <v>Evensen, Ansgar</v>
+      </c>
+      <c r="B16" s="36">
         <f>IF('K1'!A16="", "",'K1'!H16)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C16" s="37" t="str">
         <f>IF('K1'!A16="", "",'K1'!I16)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="25"/>
@@ -53773,15 +53793,15 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="str">
         <f>IF('K1'!A17="", "",'K1'!A17)</f>
-        <v/>
-      </c>
-      <c r="B17" s="36" t="str">
+        <v>Karsrud, Kristoffer Alm</v>
+      </c>
+      <c r="B17" s="36">
         <f>IF('K1'!A17="", "",'K1'!H17)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C17" s="37" t="str">
         <f>IF('K1'!A17="", "",'K1'!I17)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="25"/>
@@ -53797,15 +53817,15 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="str">
         <f>IF('K1'!A18="", "",'K1'!A18)</f>
-        <v/>
-      </c>
-      <c r="B18" s="36" t="str">
+        <v>Nyhagen, Håkon</v>
+      </c>
+      <c r="B18" s="36">
         <f>IF('K1'!A18="", "",'K1'!H18)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C18" s="37" t="str">
         <f>IF('K1'!A18="", "",'K1'!I18)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="25"/>
@@ -53821,15 +53841,15 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="str">
         <f>IF('K1'!A19="", "",'K1'!A19)</f>
-        <v/>
-      </c>
-      <c r="B19" s="36" t="str">
+        <v>Stensvold, Trym</v>
+      </c>
+      <c r="B19" s="36">
         <f>IF('K1'!A19="", "",'K1'!H19)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C19" s="37" t="str">
         <f>IF('K1'!A19="", "",'K1'!I19)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="25"/>
@@ -55920,7 +55940,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v>Kristoffer Seegaard</v>
+        <v>Bossum, Andreas</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K2'!A4="", "",'K2'!B4)</f>
@@ -55944,7 +55964,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v>Vidar Brenna</v>
+        <v>Brenna, Vidar</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K2'!A5="", "",'K2'!B5)</f>
@@ -55968,7 +55988,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K2'!A6="", "",'K2'!A6)</f>
-        <v>Marius Viken Vesterås</v>
+        <v>Flugstad, Fredrik Fuglerud</v>
       </c>
       <c r="B6" s="36">
         <f>IF('K2'!A6="", "",'K2'!B6)</f>
@@ -55992,7 +56012,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K2'!A7="", "",'K2'!A7)</f>
-        <v>Thomas Stangjordet</v>
+        <v>Moseby, Håvard</v>
       </c>
       <c r="B7" s="36">
         <f>IF('K2'!A7="", "",'K2'!B7)</f>
@@ -56016,7 +56036,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K2'!A8="", "",'K2'!A8)</f>
-        <v>Håvard Moseby</v>
+        <v>Seegaard, Kristoffer</v>
       </c>
       <c r="B8" s="36">
         <f>IF('K2'!A8="", "",'K2'!B8)</f>
@@ -56040,7 +56060,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K2'!A9="", "",'K2'!A9)</f>
-        <v>Fredrik Fuglerud Flugstad</v>
+        <v>Stangjordet, Thomas</v>
       </c>
       <c r="B9" s="36">
         <f>IF('K2'!A9="", "",'K2'!B9)</f>
@@ -56064,7 +56084,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K2'!A10="", "",'K2'!A10)</f>
-        <v>Andreas Bossum</v>
+        <v>Vesterås, Marius Viken</v>
       </c>
       <c r="B10" s="36">
         <f>IF('K2'!A10="", "",'K2'!B10)</f>
@@ -58379,7 +58399,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v>Kristoffer Seegaard</v>
+        <v>Bossum, Andreas</v>
       </c>
       <c r="B4" s="25">
         <f>IF('K2'!A4="", "",'K2'!E4)</f>
@@ -58403,7 +58423,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v>Vidar Brenna</v>
+        <v>Brenna, Vidar</v>
       </c>
       <c r="B5" s="25">
         <f>IF('K2'!A5="", "",'K2'!E5)</f>
@@ -58427,7 +58447,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="str">
         <f>IF('K2'!A6="", "",'K2'!A6)</f>
-        <v>Marius Viken Vesterås</v>
+        <v>Flugstad, Fredrik Fuglerud</v>
       </c>
       <c r="B6" s="25">
         <f>IF('K2'!A6="", "",'K2'!E6)</f>
@@ -58451,7 +58471,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="str">
         <f>IF('K2'!A7="", "",'K2'!A7)</f>
-        <v>Thomas Stangjordet</v>
+        <v>Moseby, Håvard</v>
       </c>
       <c r="B7" s="25">
         <f>IF('K2'!A7="", "",'K2'!E7)</f>
@@ -58475,7 +58495,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="str">
         <f>IF('K2'!A8="", "",'K2'!A8)</f>
-        <v>Håvard Moseby</v>
+        <v>Seegaard, Kristoffer</v>
       </c>
       <c r="B8" s="25">
         <f>IF('K2'!A8="", "",'K2'!E8)</f>
@@ -58499,7 +58519,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="str">
         <f>IF('K2'!A9="", "",'K2'!A9)</f>
-        <v>Fredrik Fuglerud Flugstad</v>
+        <v>Stangjordet, Thomas</v>
       </c>
       <c r="B9" s="25">
         <f>IF('K2'!A9="", "",'K2'!E9)</f>
@@ -58523,7 +58543,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="str">
         <f>IF('K2'!A10="", "",'K2'!A10)</f>
-        <v>Andreas Bossum</v>
+        <v>Vesterås, Marius Viken</v>
       </c>
       <c r="B10" s="25">
         <f>IF('K2'!A10="", "",'K2'!E10)</f>
@@ -60840,7 +60860,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v>Kristoffer Seegaard</v>
+        <v>Bossum, Andreas</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K2'!A4="", "",'K2'!H4)</f>
@@ -60864,7 +60884,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v>Vidar Brenna</v>
+        <v>Brenna, Vidar</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K2'!A5="", "",'K2'!H5)</f>
@@ -60888,7 +60908,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K2'!A6="", "",'K2'!A6)</f>
-        <v>Marius Viken Vesterås</v>
+        <v>Flugstad, Fredrik Fuglerud</v>
       </c>
       <c r="B6" s="36">
         <f>IF('K2'!A6="", "",'K2'!H6)</f>
@@ -60912,7 +60932,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K2'!A7="", "",'K2'!A7)</f>
-        <v>Thomas Stangjordet</v>
+        <v>Moseby, Håvard</v>
       </c>
       <c r="B7" s="36">
         <f>IF('K2'!A7="", "",'K2'!H7)</f>
@@ -60936,7 +60956,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K2'!A8="", "",'K2'!A8)</f>
-        <v>Håvard Moseby</v>
+        <v>Seegaard, Kristoffer</v>
       </c>
       <c r="B8" s="36">
         <f>IF('K2'!A8="", "",'K2'!H8)</f>
@@ -60960,7 +60980,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K2'!A9="", "",'K2'!A9)</f>
-        <v>Fredrik Fuglerud Flugstad</v>
+        <v>Stangjordet, Thomas</v>
       </c>
       <c r="B9" s="36">
         <f>IF('K2'!A9="", "",'K2'!H9)</f>
@@ -60984,7 +61004,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K2'!A10="", "",'K2'!A10)</f>
-        <v>Andreas Bossum</v>
+        <v>Vesterås, Marius Viken</v>
       </c>
       <c r="B10" s="36">
         <f>IF('K2'!A10="", "",'K2'!H10)</f>

--- a/gutter-jr.xlsx
+++ b/gutter-jr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="460" windowWidth="14520" windowHeight="20460" tabRatio="991"/>
+    <workbookView xWindow="1520" yWindow="460" windowWidth="32080" windowHeight="19400" tabRatio="991" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
   <si>
     <t>Dag1</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>Stensvold, Trym</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>Jacobsen, Kristian</t>
   </si>
 </sst>
 </file>
@@ -943,8 +949,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1038,14 +1044,16 @@
       <c r="A4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="10" t="str">
+      <c r="B4" s="25">
+        <v>8.6689814814814806E-3</v>
+      </c>
+      <c r="C4" s="10">
         <f>IF(A4="","",IFERROR(RANK(B4,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D4" s="11" t="str">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11">
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>40</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="10" t="str">
@@ -1065,9 +1073,9 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K4" s="26" t="str">
+      <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v/>
+        <v>8.6689814814814806E-3</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -1082,14 +1090,16 @@
       <c r="A5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="10" t="str">
+      <c r="B5" s="25">
+        <v>8.1249999999999985E-3</v>
+      </c>
+      <c r="C5" s="10">
         <f t="shared" ref="C5:C68" si="0">IF(A5="","",IFERROR(RANK(B5,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D5" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11">
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="10" t="str">
@@ -1109,9 +1119,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K5" s="26" t="str">
+      <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v/>
+        <v>8.1249999999999985E-3</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -1126,14 +1136,16 @@
       <c r="A6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="10" t="str">
+      <c r="B6" s="25">
+        <v>8.4722222222222213E-3</v>
+      </c>
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D6" s="11" t="str">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11">
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="10" t="str">
@@ -1153,9 +1165,9 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K6" s="26" t="str">
+      <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8.4722222222222213E-3</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1170,14 +1182,16 @@
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="10" t="str">
+      <c r="B7" s="25">
+        <v>8.9814814814814809E-3</v>
+      </c>
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D7" s="11" t="str">
+        <v>9</v>
+      </c>
+      <c r="D7" s="11">
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>29</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="10" t="str">
@@ -1197,9 +1211,9 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K7" s="26" t="str">
+      <c r="K7" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8.9814814814814809E-3</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1214,14 +1228,16 @@
       <c r="A8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="10" t="str">
+      <c r="B8" s="25">
+        <v>8.5532407407407415E-3</v>
+      </c>
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D8" s="11" t="str">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11">
         <f>IF(A8="","", IFERROR(VLOOKUP(C8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>45</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="10" t="str">
@@ -1241,9 +1257,9 @@
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K8" s="26" t="str">
+      <c r="K8" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8.5532407407407415E-3</v>
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1258,14 +1274,16 @@
       <c r="A9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="10" t="str">
+      <c r="B9" s="25">
+        <v>1.0439814814814813E-2</v>
+      </c>
+      <c r="C9" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D9" s="11" t="str">
+        <v>12</v>
+      </c>
+      <c r="D9" s="11">
         <f>IF(A9="","", IFERROR(VLOOKUP(C9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>22</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="10" t="str">
@@ -1285,9 +1303,9 @@
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K9" s="26" t="str">
+      <c r="K9" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.0439814814814813E-2</v>
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1302,14 +1320,16 @@
       <c r="A10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="10" t="str">
+      <c r="B10" s="25">
+        <v>1.0266203703703703E-2</v>
+      </c>
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D10" s="11" t="str">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11">
         <f>IF(A10="","", IFERROR(VLOOKUP(C10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>24</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="10" t="str">
@@ -1329,9 +1349,9 @@
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K10" s="26" t="str">
+      <c r="K10" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.0266203703703703E-2</v>
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1346,14 +1366,16 @@
       <c r="A11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="10" t="str">
+      <c r="B11" s="25">
+        <v>8.8773148148148153E-3</v>
+      </c>
+      <c r="C11" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D11" s="11" t="str">
+        <v>8</v>
+      </c>
+      <c r="D11" s="11">
         <f>IF(A11="","", IFERROR(VLOOKUP(C11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>32</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="10" t="str">
@@ -1373,9 +1395,9 @@
         <f>IF(A11="","",IFERROR(VLOOKUP(I11,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K11" s="26" t="str">
+      <c r="K11" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8.8773148148148153E-3</v>
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1390,14 +1412,16 @@
       <c r="A12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="10" t="str">
+      <c r="B12" s="25">
+        <v>9.0393518518518522E-3</v>
+      </c>
+      <c r="C12" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D12" s="11" t="str">
+        <v>10</v>
+      </c>
+      <c r="D12" s="11">
         <f>IF(A12="","", IFERROR(VLOOKUP(C12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>26</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="10" t="str">
@@ -1417,9 +1441,9 @@
         <f>IF(A12="","",IFERROR(VLOOKUP(I12,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K12" s="26" t="str">
+      <c r="K12" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>9.0393518518518522E-3</v>
       </c>
       <c r="L12" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1434,14 +1458,16 @@
       <c r="A13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="10" t="str">
+      <c r="B13" s="25">
+        <v>8.5416666666666679E-3</v>
+      </c>
+      <c r="C13" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D13" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="D13" s="11">
         <f>IF(A13="","", IFERROR(VLOOKUP(C13,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="10" t="str">
@@ -1461,9 +1487,9 @@
         <f>IF(A13="","",IFERROR(VLOOKUP(I13,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K13" s="26" t="str">
+      <c r="K13" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8.5416666666666679E-3</v>
       </c>
       <c r="L13" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1478,14 +1504,16 @@
       <c r="A14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="10" t="str">
+      <c r="B14" s="25">
+        <v>8.7037037037037031E-3</v>
+      </c>
+      <c r="C14" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D14" s="11" t="str">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11">
         <f>IF(A14="","", IFERROR(VLOOKUP(C14,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>36</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="10" t="str">
@@ -1505,9 +1533,9 @@
         <f>IF(A14="","",IFERROR(VLOOKUP(I14,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K14" s="26" t="str">
+      <c r="K14" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8.7037037037037031E-3</v>
       </c>
       <c r="L14" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1522,14 +1550,16 @@
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="10" t="str">
+      <c r="B15" s="25">
+        <v>8.0671296296296307E-3</v>
+      </c>
+      <c r="C15" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D15" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11">
         <f>IF(A15="","", IFERROR(VLOOKUP(C15,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="10" t="str">
@@ -1549,9 +1579,9 @@
         <f>IF(A15="","",IFERROR(VLOOKUP(I15,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K15" s="26" t="str">
+      <c r="K15" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8.0671296296296307E-3</v>
       </c>
       <c r="L15" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1566,7 +1596,9 @@
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="C16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -1595,7 +1627,7 @@
       </c>
       <c r="K16" s="26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="L16" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1610,7 +1642,9 @@
       <c r="A17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="C17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -1639,7 +1673,7 @@
       </c>
       <c r="K17" s="26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="L17" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1654,7 +1688,9 @@
       <c r="A18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="C18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -1683,7 +1719,7 @@
       </c>
       <c r="K18" s="26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="L18" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1698,7 +1734,9 @@
       <c r="A19" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="C19" s="10" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -1727,7 +1765,7 @@
       </c>
       <c r="K19" s="26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="L19" s="10" t="str">
         <f t="shared" si="4"/>
@@ -12666,7 +12704,7 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S304"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -12930,21 +12968,21 @@
         <f>IF('K2'!A7="", "",'K2'!A7)</f>
         <v>Moseby, Håvard</v>
       </c>
-      <c r="B6" s="19" t="str">
+      <c r="B6" s="19">
         <f>IF('K2'!B7="", "",'K2'!B7)</f>
-        <v/>
-      </c>
-      <c r="C6" s="20" t="str">
+        <v>7.4884259259259262E-3</v>
+      </c>
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D6" s="23" t="str">
+        <v>7.4884259259259262E-3</v>
+      </c>
+      <c r="D6" s="23">
         <f>IF(A6="","",IFERROR(VLOOKUP(E6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E6" s="23" t="str">
+        <v>100</v>
+      </c>
+      <c r="E6" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="F6" s="19" t="str">
         <f>IF('K2'!E7="", "", 'K2'!E7)</f>
@@ -12978,13 +13016,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N6" s="27" t="str">
+      <c r="N6" s="27">
         <f>IF('K2'!K7="", "", 'K2'!K7)</f>
-        <v/>
-      </c>
-      <c r="O6" s="28" t="str">
+        <v>7.4884259259259262E-3</v>
+      </c>
+      <c r="O6" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>7.4884259259259262E-3</v>
       </c>
       <c r="P6" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13000,21 +13038,21 @@
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
         <v>Dragerengen, Ivar</v>
       </c>
-      <c r="B7" s="19" t="str">
+      <c r="B7" s="19">
         <f>IF('K1'!B4="", "",'K1'!B4)</f>
-        <v/>
-      </c>
-      <c r="C7" s="20" t="str">
+        <v>8.6689814814814806E-3</v>
+      </c>
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D7" s="23" t="str">
+        <v>8.6689814814814806E-3</v>
+      </c>
+      <c r="D7" s="23">
         <f>IF(A7="","",IFERROR(VLOOKUP(E7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E7" s="23" t="str">
+        <v>20</v>
+      </c>
+      <c r="E7" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>13</v>
       </c>
       <c r="F7" s="19" t="str">
         <f>IF('K1'!E4="", "", 'K1'!E4)</f>
@@ -13048,13 +13086,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N7" s="27" t="str">
+      <c r="N7" s="27">
         <f>IF('K1'!K4="", "", 'K1'!K4)</f>
-        <v/>
-      </c>
-      <c r="O7" s="28" t="str">
+        <v>8.6689814814814806E-3</v>
+      </c>
+      <c r="O7" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>8.6689814814814806E-3</v>
       </c>
       <c r="P7" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13070,21 +13108,21 @@
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
         <v>Haugnes, Mathias Bjerregård</v>
       </c>
-      <c r="B8" s="19" t="str">
+      <c r="B8" s="19">
         <f>IF('K1'!B8="", "",'K1'!B8)</f>
-        <v/>
-      </c>
-      <c r="C8" s="20" t="str">
+        <v>8.5532407407407415E-3</v>
+      </c>
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D8" s="23" t="str">
+        <v>8.5532407407407415E-3</v>
+      </c>
+      <c r="D8" s="23">
         <f>IF(A8="","",IFERROR(VLOOKUP(E8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E8" s="23" t="str">
+        <v>22</v>
+      </c>
+      <c r="E8" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>12</v>
       </c>
       <c r="F8" s="19" t="str">
         <f>IF('K1'!E8="", "", 'K1'!E8)</f>
@@ -13118,13 +13156,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N8" s="27" t="str">
+      <c r="N8" s="27">
         <f>IF('K1'!K8="", "", 'K1'!K8)</f>
-        <v/>
-      </c>
-      <c r="O8" s="28" t="str">
+        <v>8.5532407407407415E-3</v>
+      </c>
+      <c r="O8" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>8.5532407407407415E-3</v>
       </c>
       <c r="P8" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13140,21 +13178,21 @@
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
         <v>Kvale, Nils Henrik</v>
       </c>
-      <c r="B9" s="19" t="str">
+      <c r="B9" s="19">
         <f>IF('K1'!B9="", "",'K1'!B9)</f>
-        <v/>
-      </c>
-      <c r="C9" s="20" t="str">
+        <v>1.0439814814814813E-2</v>
+      </c>
+      <c r="C9" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D9" s="23" t="str">
+        <v>1.0439814814814813E-2</v>
+      </c>
+      <c r="D9" s="23">
         <f>IF(A9="","",IFERROR(VLOOKUP(E9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E9" s="23" t="str">
+        <v>11</v>
+      </c>
+      <c r="E9" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>20</v>
       </c>
       <c r="F9" s="19" t="str">
         <f>IF('K1'!E9="", "", 'K1'!E9)</f>
@@ -13188,13 +13226,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N9" s="27" t="str">
+      <c r="N9" s="27">
         <f>IF('K1'!K9="", "", 'K1'!K9)</f>
-        <v/>
-      </c>
-      <c r="O9" s="28" t="str">
+        <v>1.0439814814814813E-2</v>
+      </c>
+      <c r="O9" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1.0439814814814813E-2</v>
       </c>
       <c r="P9" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13210,21 +13248,21 @@
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
         <v>Lindmoen, Petter</v>
       </c>
-      <c r="B10" s="19" t="str">
+      <c r="B10" s="19">
         <f>IF('K1'!B10="", "",'K1'!B10)</f>
-        <v/>
-      </c>
-      <c r="C10" s="20" t="str">
+        <v>1.0266203703703703E-2</v>
+      </c>
+      <c r="C10" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D10" s="23" t="str">
+        <v>1.0266203703703703E-2</v>
+      </c>
+      <c r="D10" s="23">
         <f>IF(A10="","",IFERROR(VLOOKUP(E10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E10" s="23" t="str">
+        <v>12</v>
+      </c>
+      <c r="E10" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>19</v>
       </c>
       <c r="F10" s="19" t="str">
         <f>IF('K1'!E10="", "", 'K1'!E10)</f>
@@ -13258,13 +13296,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N10" s="27" t="str">
+      <c r="N10" s="27">
         <f>IF('K1'!K10="", "", 'K1'!K10)</f>
-        <v/>
-      </c>
-      <c r="O10" s="28" t="str">
+        <v>1.0266203703703703E-2</v>
+      </c>
+      <c r="O10" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1.0266203703703703E-2</v>
       </c>
       <c r="P10" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13280,21 +13318,21 @@
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
         <v>Ramstad, Morten</v>
       </c>
-      <c r="B11" s="19" t="str">
+      <c r="B11" s="19">
         <f>IF('K1'!B11="", "",'K1'!B11)</f>
-        <v/>
-      </c>
-      <c r="C11" s="20" t="str">
+        <v>8.8773148148148153E-3</v>
+      </c>
+      <c r="C11" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D11" s="23" t="str">
+        <v>8.8773148148148153E-3</v>
+      </c>
+      <c r="D11" s="23">
         <f>IF(A11="","",IFERROR(VLOOKUP(E11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E11" s="23" t="str">
+        <v>16</v>
+      </c>
+      <c r="E11" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>15</v>
       </c>
       <c r="F11" s="19" t="str">
         <f>IF('K1'!E11="", "", 'K1'!E11)</f>
@@ -13328,13 +13366,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N11" s="27" t="str">
+      <c r="N11" s="27">
         <f>IF('K1'!K11="", "", 'K1'!K11)</f>
-        <v/>
-      </c>
-      <c r="O11" s="28" t="str">
+        <v>8.8773148148148153E-3</v>
+      </c>
+      <c r="O11" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>8.8773148148148153E-3</v>
       </c>
       <c r="P11" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13350,21 +13388,21 @@
         <f>IF('K1'!A12="", "",'K1'!A12)</f>
         <v>Riste, Markus Moen</v>
       </c>
-      <c r="B12" s="19" t="str">
+      <c r="B12" s="19">
         <f>IF('K1'!B12="", "",'K1'!B12)</f>
-        <v/>
-      </c>
-      <c r="C12" s="20" t="str">
+        <v>9.0393518518518522E-3</v>
+      </c>
+      <c r="C12" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D12" s="23" t="str">
+        <v>9.0393518518518522E-3</v>
+      </c>
+      <c r="D12" s="23">
         <f>IF(A12="","",IFERROR(VLOOKUP(E12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E12" s="23" t="str">
+        <v>14</v>
+      </c>
+      <c r="E12" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>17</v>
       </c>
       <c r="F12" s="19" t="str">
         <f>IF('K1'!E12="", "", 'K1'!E12)</f>
@@ -13398,13 +13436,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N12" s="27" t="str">
+      <c r="N12" s="27">
         <f>IF('K1'!K12="", "", 'K1'!K12)</f>
-        <v/>
-      </c>
-      <c r="O12" s="28" t="str">
+        <v>9.0393518518518522E-3</v>
+      </c>
+      <c r="O12" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>9.0393518518518522E-3</v>
       </c>
       <c r="P12" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13420,21 +13458,21 @@
         <f>IF('K1'!A13="", "",'K1'!A13)</f>
         <v>Seegard, Eirik</v>
       </c>
-      <c r="B13" s="19" t="str">
+      <c r="B13" s="19">
         <f>IF('K1'!B13="", "",'K1'!B13)</f>
-        <v/>
-      </c>
-      <c r="C13" s="20" t="str">
+        <v>8.5416666666666679E-3</v>
+      </c>
+      <c r="C13" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D13" s="23" t="str">
+        <v>8.5416666666666679E-3</v>
+      </c>
+      <c r="D13" s="23">
         <f>IF(A13="","",IFERROR(VLOOKUP(E13,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E13" s="23" t="str">
+        <v>24</v>
+      </c>
+      <c r="E13" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>11</v>
       </c>
       <c r="F13" s="19" t="str">
         <f>IF('K1'!E13="", "", 'K1'!E13)</f>
@@ -13468,13 +13506,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N13" s="27" t="str">
+      <c r="N13" s="27">
         <f>IF('K1'!K13="", "", 'K1'!K13)</f>
-        <v/>
-      </c>
-      <c r="O13" s="28" t="str">
+        <v>8.5416666666666679E-3</v>
+      </c>
+      <c r="O13" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>8.5416666666666679E-3</v>
       </c>
       <c r="P13" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13490,21 +13528,21 @@
         <f>IF('K1'!A14="", "",'K1'!A14)</f>
         <v>Steinsrud, Bendik Lae</v>
       </c>
-      <c r="B14" s="19" t="str">
+      <c r="B14" s="19">
         <f>IF('K1'!B14="", "",'K1'!B14)</f>
-        <v/>
-      </c>
-      <c r="C14" s="20" t="str">
+        <v>8.7037037037037031E-3</v>
+      </c>
+      <c r="C14" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D14" s="23" t="str">
+        <v>8.7037037037037031E-3</v>
+      </c>
+      <c r="D14" s="23">
         <f>IF(A14="","",IFERROR(VLOOKUP(E14,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E14" s="23" t="str">
+        <v>18</v>
+      </c>
+      <c r="E14" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>14</v>
       </c>
       <c r="F14" s="19" t="str">
         <f>IF('K1'!E14="", "", 'K1'!E14)</f>
@@ -13538,13 +13576,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N14" s="27" t="str">
+      <c r="N14" s="27">
         <f>IF('K1'!K14="", "", 'K1'!K14)</f>
-        <v/>
-      </c>
-      <c r="O14" s="28" t="str">
+        <v>8.7037037037037031E-3</v>
+      </c>
+      <c r="O14" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>8.7037037037037031E-3</v>
       </c>
       <c r="P14" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13560,21 +13598,21 @@
         <f>IF('K1'!A15="", "",'K1'!A15)</f>
         <v>Sørumshagen, Arngrim</v>
       </c>
-      <c r="B15" s="19" t="str">
+      <c r="B15" s="19">
         <f>IF('K1'!B15="", "",'K1'!B15)</f>
-        <v/>
-      </c>
-      <c r="C15" s="20" t="str">
+        <v>8.0671296296296307E-3</v>
+      </c>
+      <c r="C15" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D15" s="23" t="str">
+        <v>8.0671296296296307E-3</v>
+      </c>
+      <c r="D15" s="23">
         <f>IF(A15="","",IFERROR(VLOOKUP(E15,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E15" s="23" t="str">
+        <v>50</v>
+      </c>
+      <c r="E15" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="F15" s="19" t="str">
         <f>IF('K1'!E15="", "", 'K1'!E15)</f>
@@ -13608,13 +13646,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N15" s="27" t="str">
+      <c r="N15" s="27">
         <f>IF('K1'!K15="", "", 'K1'!K15)</f>
-        <v/>
-      </c>
-      <c r="O15" s="28" t="str">
+        <v>8.0671296296296307E-3</v>
+      </c>
+      <c r="O15" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>8.0671296296296307E-3</v>
       </c>
       <c r="P15" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13632,11 +13670,11 @@
       </c>
       <c r="B16" s="19" t="str">
         <f>IF('K1'!B16="", "",'K1'!B16)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="D16" s="23" t="str">
         <f>IF(A16="","",IFERROR(VLOOKUP(E16,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13680,11 +13718,11 @@
       </c>
       <c r="N16" s="27" t="str">
         <f>IF('K1'!K16="", "", 'K1'!K16)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="O16" s="28" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="P16" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13702,11 +13740,11 @@
       </c>
       <c r="B17" s="19" t="str">
         <f>IF('K1'!B17="", "",'K1'!B17)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="D17" s="23" t="str">
         <f>IF(A17="","",IFERROR(VLOOKUP(E17,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13750,11 +13788,11 @@
       </c>
       <c r="N17" s="27" t="str">
         <f>IF('K1'!K17="", "", 'K1'!K17)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="O17" s="28" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="P17" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13772,11 +13810,11 @@
       </c>
       <c r="B18" s="19" t="str">
         <f>IF('K1'!B18="", "",'K1'!B18)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="D18" s="23" t="str">
         <f>IF(A18="","",IFERROR(VLOOKUP(E18,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13820,11 +13858,11 @@
       </c>
       <c r="N18" s="27" t="str">
         <f>IF('K1'!K18="", "", 'K1'!K18)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="O18" s="28" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="P18" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13842,11 +13880,11 @@
       </c>
       <c r="B19" s="19" t="str">
         <f>IF('K1'!B19="", "",'K1'!B19)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="D19" s="23" t="str">
         <f>IF(A19="","",IFERROR(VLOOKUP(E19,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13890,11 +13928,11 @@
       </c>
       <c r="N19" s="27" t="str">
         <f>IF('K1'!K19="", "", 'K1'!K19)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="O19" s="28" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="P19" s="23" t="str">
         <f t="shared" si="8"/>
@@ -19860,21 +19898,21 @@
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
         <v>Bossum, Andreas</v>
       </c>
-      <c r="B105" s="19" t="str">
+      <c r="B105" s="19">
         <f>IF('K2'!B4="", "",'K2'!B4)</f>
-        <v/>
-      </c>
-      <c r="C105" s="20" t="str">
+        <v>8.1712962962962963E-3</v>
+      </c>
+      <c r="C105" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D105" s="23" t="str">
+        <v>8.1712962962962963E-3</v>
+      </c>
+      <c r="D105" s="23">
         <f>IF(A105="","",IFERROR(VLOOKUP(E105,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E105" s="23" t="str">
+        <v>40</v>
+      </c>
+      <c r="E105" s="23">
         <f t="shared" si="10"/>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="F105" s="19" t="str">
         <f>IF('K2'!E4="", "", 'K2'!E4)</f>
@@ -19908,13 +19946,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N105" s="27" t="str">
+      <c r="N105" s="27">
         <f>IF('K2'!K4="", "", 'K2'!K4)</f>
-        <v/>
-      </c>
-      <c r="O105" s="28" t="str">
+        <v>8.1712962962962963E-3</v>
+      </c>
+      <c r="O105" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>8.1712962962962963E-3</v>
       </c>
       <c r="P105" s="23" t="str">
         <f t="shared" si="17"/>
@@ -19930,21 +19968,21 @@
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
         <v>Eriksen, Christian Opsahl</v>
       </c>
-      <c r="B106" s="19" t="str">
+      <c r="B106" s="19">
         <f>IF('K1'!B5="", "",'K1'!B5)</f>
-        <v/>
-      </c>
-      <c r="C106" s="20" t="str">
+        <v>8.1249999999999985E-3</v>
+      </c>
+      <c r="C106" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D106" s="23" t="str">
+        <v>8.1249999999999985E-3</v>
+      </c>
+      <c r="D106" s="23">
         <f>IF(A106="","",IFERROR(VLOOKUP(E106,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E106" s="23" t="str">
+        <v>45</v>
+      </c>
+      <c r="E106" s="23">
         <f t="shared" si="10"/>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="F106" s="19" t="str">
         <f>IF('K1'!E5="", "", 'K1'!E5)</f>
@@ -19978,13 +20016,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N106" s="27" t="str">
+      <c r="N106" s="27">
         <f>IF('K1'!K5="", "", 'K1'!K5)</f>
-        <v/>
-      </c>
-      <c r="O106" s="28" t="str">
+        <v>8.1249999999999985E-3</v>
+      </c>
+      <c r="O106" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>8.1249999999999985E-3</v>
       </c>
       <c r="P106" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20000,21 +20038,21 @@
         <f>IF('K2'!A6="", "",'K2'!A6)</f>
         <v>Flugstad, Fredrik Fuglerud</v>
       </c>
-      <c r="B107" s="19" t="str">
+      <c r="B107" s="19">
         <f>IF('K2'!B6="", "",'K2'!B6)</f>
-        <v/>
-      </c>
-      <c r="C107" s="20" t="str">
+        <v>7.9745370370370369E-3</v>
+      </c>
+      <c r="C107" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D107" s="23" t="str">
+        <v>7.9745370370370369E-3</v>
+      </c>
+      <c r="D107" s="23">
         <f>IF(A107="","",IFERROR(VLOOKUP(E107,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E107" s="23" t="str">
+        <v>80</v>
+      </c>
+      <c r="E107" s="23">
         <f t="shared" si="10"/>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="F107" s="19" t="str">
         <f>IF('K2'!E6="", "", 'K2'!E6)</f>
@@ -20048,13 +20086,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N107" s="27" t="str">
+      <c r="N107" s="27">
         <f>IF('K2'!K6="", "", 'K2'!K6)</f>
-        <v/>
-      </c>
-      <c r="O107" s="28" t="str">
+        <v>7.9745370370370369E-3</v>
+      </c>
+      <c r="O107" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>7.9745370370370369E-3</v>
       </c>
       <c r="P107" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20070,21 +20108,21 @@
         <f>IF('K2'!A8="", "",'K2'!A8)</f>
         <v>Seegaard, Kristoffer</v>
       </c>
-      <c r="B108" s="19" t="str">
+      <c r="B108" s="19">
         <f>IF('K2'!B8="", "",'K2'!B8)</f>
-        <v/>
-      </c>
-      <c r="C108" s="20" t="str">
+        <v>8.1712962962962963E-3</v>
+      </c>
+      <c r="C108" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D108" s="23" t="str">
+        <v>8.1712962962962963E-3</v>
+      </c>
+      <c r="D108" s="23">
         <f>IF(A108="","",IFERROR(VLOOKUP(E108,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E108" s="23" t="str">
+        <v>40</v>
+      </c>
+      <c r="E108" s="23">
         <f t="shared" si="10"/>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="F108" s="19" t="str">
         <f>IF('K2'!E8="", "", 'K2'!E8)</f>
@@ -20118,13 +20156,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N108" s="27" t="str">
+      <c r="N108" s="27">
         <f>IF('K2'!K8="", "", 'K2'!K8)</f>
-        <v/>
-      </c>
-      <c r="O108" s="28" t="str">
+        <v>8.1712962962962963E-3</v>
+      </c>
+      <c r="O108" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>8.1712962962962963E-3</v>
       </c>
       <c r="P108" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20140,21 +20178,21 @@
         <f>IF('K2'!A9="", "",'K2'!A9)</f>
         <v>Stangjordet, Thomas</v>
       </c>
-      <c r="B109" s="19" t="str">
+      <c r="B109" s="19">
         <f>IF('K2'!B9="", "",'K2'!B9)</f>
-        <v/>
-      </c>
-      <c r="C109" s="20" t="str">
+        <v>8.0555555555555554E-3</v>
+      </c>
+      <c r="C109" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D109" s="23" t="str">
+        <v>8.0555555555555554E-3</v>
+      </c>
+      <c r="D109" s="23">
         <f>IF(A109="","",IFERROR(VLOOKUP(E109,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E109" s="23" t="str">
+        <v>60</v>
+      </c>
+      <c r="E109" s="23">
         <f t="shared" si="10"/>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="F109" s="19" t="str">
         <f>IF('K2'!E9="", "", 'K2'!E9)</f>
@@ -20188,13 +20226,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N109" s="27" t="str">
+      <c r="N109" s="27">
         <f>IF('K2'!K9="", "", 'K2'!K9)</f>
-        <v/>
-      </c>
-      <c r="O109" s="28" t="str">
+        <v>8.0555555555555554E-3</v>
+      </c>
+      <c r="O109" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>8.0555555555555554E-3</v>
       </c>
       <c r="P109" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20210,21 +20248,21 @@
         <f>IF('K2'!A10="", "",'K2'!A10)</f>
         <v>Vesterås, Marius Viken</v>
       </c>
-      <c r="B110" s="19" t="str">
+      <c r="B110" s="19">
         <f>IF('K2'!B10="", "",'K2'!B10)</f>
-        <v/>
-      </c>
-      <c r="C110" s="20" t="str">
+        <v>8.2060185185185187E-3</v>
+      </c>
+      <c r="C110" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D110" s="23" t="str">
+        <v>8.2060185185185187E-3</v>
+      </c>
+      <c r="D110" s="23">
         <f>IF(A110="","",IFERROR(VLOOKUP(E110,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E110" s="23" t="str">
+        <v>32</v>
+      </c>
+      <c r="E110" s="23">
         <f t="shared" si="10"/>
-        <v>-</v>
+        <v>8</v>
       </c>
       <c r="F110" s="19" t="str">
         <f>IF('K2'!E10="", "", 'K2'!E10)</f>
@@ -20258,13 +20296,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N110" s="27" t="str">
+      <c r="N110" s="27">
         <f>IF('K2'!K10="", "", 'K2'!K10)</f>
-        <v/>
-      </c>
-      <c r="O110" s="28" t="str">
+        <v>8.2060185185185187E-3</v>
+      </c>
+      <c r="O110" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>8.2060185185185187E-3</v>
       </c>
       <c r="P110" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20278,23 +20316,23 @@
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="str">
         <f>IF('K2'!A11="", "",'K2'!A11)</f>
-        <v/>
-      </c>
-      <c r="B111" s="19" t="str">
+        <v>Jacobsen, Kristian</v>
+      </c>
+      <c r="B111" s="19">
         <f>IF('K2'!B11="", "",'K2'!B11)</f>
-        <v/>
-      </c>
-      <c r="C111" s="20" t="str">
+        <v>8.2407407407407412E-3</v>
+      </c>
+      <c r="C111" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D111" s="23" t="str">
+        <v>8.2407407407407412E-3</v>
+      </c>
+      <c r="D111" s="23">
         <f>IF(A111="","",IFERROR(VLOOKUP(E111,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="E111" s="23" t="str">
+        <v>29</v>
+      </c>
+      <c r="E111" s="23">
         <f t="shared" si="10"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="F111" s="19" t="str">
         <f>IF('K2'!E11="", "", 'K2'!E11)</f>
@@ -20306,11 +20344,11 @@
       </c>
       <c r="H111" s="23" t="str">
         <f>IF(A111="","",IFERROR(VLOOKUP(I111,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I111" s="23" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J111" s="19" t="str">
         <f>IF('K2'!H11="", "", 'K2'!H11)</f>
@@ -20322,27 +20360,27 @@
       </c>
       <c r="L111" s="23" t="str">
         <f>IF(A111="","",IFERROR(VLOOKUP(M111,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M111" s="23" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="N111" s="27" t="str">
+        <v>-</v>
+      </c>
+      <c r="N111" s="27">
         <f>IF('K2'!K11="", "", 'K2'!K11)</f>
-        <v/>
-      </c>
-      <c r="O111" s="28" t="str">
+        <v>8.2407407407407412E-3</v>
+      </c>
+      <c r="O111" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>8.2407407407407412E-3</v>
       </c>
       <c r="P111" s="23" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q111" s="23" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
@@ -26790,21 +26828,21 @@
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
         <v>Brenna, Vidar</v>
       </c>
-      <c r="B204" s="19" t="str">
+      <c r="B204" s="19">
         <f>IF('K2'!B5="", "",'K2'!B5)</f>
-        <v/>
-      </c>
-      <c r="C204" s="20" t="str">
+        <v>9.0972222222222218E-3</v>
+      </c>
+      <c r="C204" s="20">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="D204" s="23" t="str">
+        <v>9.0972222222222218E-3</v>
+      </c>
+      <c r="D204" s="23">
         <f>IF(A204="","",IFERROR(VLOOKUP(E204,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E204" s="23" t="str">
+        <v>13</v>
+      </c>
+      <c r="E204" s="23">
         <f t="shared" si="28"/>
-        <v>-</v>
+        <v>18</v>
       </c>
       <c r="F204" s="19" t="str">
         <f>IF('K2'!E5="", "", 'K2'!E5)</f>
@@ -26838,13 +26876,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N204" s="27" t="str">
+      <c r="N204" s="27">
         <f>IF('K2'!K5="", "", 'K2'!K5)</f>
-        <v/>
-      </c>
-      <c r="O204" s="28" t="str">
+        <v>9.0972222222222218E-3</v>
+      </c>
+      <c r="O204" s="28">
         <f t="shared" si="33"/>
-        <v/>
+        <v>9.0972222222222218E-3</v>
       </c>
       <c r="P204" s="23" t="str">
         <f t="shared" si="35"/>
@@ -26860,21 +26898,21 @@
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
         <v>Grobakken, Rune Hermundstad</v>
       </c>
-      <c r="B205" s="19" t="str">
+      <c r="B205" s="19">
         <f>IF('K1'!B7="", "",'K1'!B7)</f>
-        <v/>
-      </c>
-      <c r="C205" s="20" t="str">
+        <v>8.9814814814814809E-3</v>
+      </c>
+      <c r="C205" s="20">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="D205" s="23" t="str">
+        <v>8.9814814814814809E-3</v>
+      </c>
+      <c r="D205" s="23">
         <f>IF(A205="","",IFERROR(VLOOKUP(E205,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E205" s="23" t="str">
+        <v>15</v>
+      </c>
+      <c r="E205" s="23">
         <f t="shared" si="28"/>
-        <v>-</v>
+        <v>16</v>
       </c>
       <c r="F205" s="19" t="str">
         <f>IF('K1'!E7="", "", 'K1'!E7)</f>
@@ -26908,13 +26946,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N205" s="27" t="str">
+      <c r="N205" s="27">
         <f>IF('K1'!K7="", "", 'K1'!K7)</f>
-        <v/>
-      </c>
-      <c r="O205" s="28" t="str">
+        <v>8.9814814814814809E-3</v>
+      </c>
+      <c r="O205" s="28">
         <f t="shared" si="33"/>
-        <v/>
+        <v>8.9814814814814809E-3</v>
       </c>
       <c r="P205" s="23" t="str">
         <f t="shared" si="35"/>
@@ -26930,21 +26968,21 @@
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
         <v>Granvold, Simen</v>
       </c>
-      <c r="B206" s="19" t="str">
+      <c r="B206" s="19">
         <f>IF('K1'!B6="", "",'K1'!B6)</f>
-        <v/>
-      </c>
-      <c r="C206" s="20" t="str">
+        <v>8.4722222222222213E-3</v>
+      </c>
+      <c r="C206" s="20">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="D206" s="23" t="str">
+        <v>8.4722222222222213E-3</v>
+      </c>
+      <c r="D206" s="23">
         <f>IF(A206="","",IFERROR(VLOOKUP(E206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E206" s="23" t="str">
+        <v>26</v>
+      </c>
+      <c r="E206" s="23">
         <f t="shared" si="28"/>
-        <v>-</v>
+        <v>10</v>
       </c>
       <c r="F206" s="19" t="str">
         <f>IF('K1'!E6="", "", 'K1'!E6)</f>
@@ -26978,13 +27016,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N206" s="27" t="str">
+      <c r="N206" s="27">
         <f>IF('K1'!K6="", "", 'K1'!K6)</f>
-        <v/>
-      </c>
-      <c r="O206" s="28" t="str">
+        <v>8.4722222222222213E-3</v>
+      </c>
+      <c r="O206" s="28">
         <f t="shared" si="33"/>
-        <v/>
+        <v>8.4722222222222213E-3</v>
       </c>
       <c r="P206" s="23" t="str">
         <f t="shared" si="35"/>
@@ -36361,15 +36399,15 @@
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="39" t="str">
         <f>IF(D1D2D3!A111="", "",D1D2D3!A111)</f>
-        <v/>
+        <v>Jacobsen, Kristian</v>
       </c>
       <c r="B111" s="41" t="str">
         <f>IF(D1D2D3!A111="", "",D1D2D3!P111)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C111" s="37" t="str">
         <f>IF(D1D2D3!A111="", "",D1D2D3!Q111)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -39854,7 +39892,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39949,14 +39987,16 @@
       <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="10" t="str">
+      <c r="B4" s="25">
+        <v>8.1712962962962963E-3</v>
+      </c>
+      <c r="C4" s="10">
         <f>IF(A4="","",IFERROR(RANK(B4,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D4" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11">
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="10" t="str">
@@ -39976,9 +40016,9 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K4" s="26" t="str">
+      <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v/>
+        <v>8.1712962962962963E-3</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -39993,14 +40033,16 @@
       <c r="A5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="10" t="str">
+      <c r="B5" s="25">
+        <v>9.0972222222222218E-3</v>
+      </c>
+      <c r="C5" s="10">
         <f t="shared" ref="C5:C68" si="0">IF(A5="","",IFERROR(RANK(B5,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D5" s="11" t="str">
+        <v>8</v>
+      </c>
+      <c r="D5" s="11">
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>32</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="10" t="str">
@@ -40020,9 +40062,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K5" s="26" t="str">
+      <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v/>
+        <v>9.0972222222222218E-3</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -40037,14 +40079,16 @@
       <c r="A6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="10" t="str">
+      <c r="B6" s="25">
+        <v>7.9745370370370369E-3</v>
+      </c>
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D6" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11">
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="10" t="str">
@@ -40064,9 +40108,9 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K6" s="26" t="str">
+      <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>7.9745370370370369E-3</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40081,14 +40125,16 @@
       <c r="A7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="10" t="str">
+      <c r="B7" s="25">
+        <v>7.4884259259259262E-3</v>
+      </c>
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D7" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="10" t="str">
@@ -40108,9 +40154,9 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K7" s="26" t="str">
+      <c r="K7" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>7.4884259259259262E-3</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40125,14 +40171,16 @@
       <c r="A8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="10" t="str">
+      <c r="B8" s="25">
+        <v>8.1712962962962963E-3</v>
+      </c>
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D8" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11">
         <f>IF(A8="","", IFERROR(VLOOKUP(C8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="10" t="str">
@@ -40152,9 +40200,9 @@
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K8" s="26" t="str">
+      <c r="K8" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8.1712962962962963E-3</v>
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40169,14 +40217,16 @@
       <c r="A9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="10" t="str">
+      <c r="B9" s="25">
+        <v>8.0555555555555554E-3</v>
+      </c>
+      <c r="C9" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D9" s="11" t="str">
+        <v>3</v>
+      </c>
+      <c r="D9" s="11">
         <f>IF(A9="","", IFERROR(VLOOKUP(C9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="10" t="str">
@@ -40196,9 +40246,9 @@
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K9" s="26" t="str">
+      <c r="K9" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8.0555555555555554E-3</v>
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40213,14 +40263,16 @@
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="10" t="str">
+      <c r="B10" s="25">
+        <v>8.2060185185185187E-3</v>
+      </c>
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D10" s="11" t="str">
+        <v>6</v>
+      </c>
+      <c r="D10" s="11">
         <f>IF(A10="","", IFERROR(VLOOKUP(C10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>40</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="10" t="str">
@@ -40240,9 +40292,9 @@
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K10" s="26" t="str">
+      <c r="K10" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8.2060185185185187E-3</v>
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40254,45 +40306,49 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="10" t="str">
+      <c r="A11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="25">
+        <v>8.2407407407407412E-3</v>
+      </c>
+      <c r="C11" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D11" s="11" t="str">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11">
         <f>IF(A11="","", IFERROR(VLOOKUP(C11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>36</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G11" s="11" t="str">
         <f>IF(A11="","",IFERROR(VLOOKUP(F11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J11" s="12" t="str">
         <f>IF(A11="","",IFERROR(VLOOKUP(I11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="K11" s="26" t="str">
+        <v>-</v>
+      </c>
+      <c r="K11" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8.2407407407407412E-3</v>
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M11" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -48565,11 +48621,11 @@
       </c>
       <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!B4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>8.6689814814814806E-3</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K1'!A4="", "",'K1'!C4)</f>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -48589,11 +48645,11 @@
       </c>
       <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!B5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>8.1249999999999985E-3</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K1'!A5="", "",'K1'!C5)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -48613,11 +48669,11 @@
       </c>
       <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!B6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>8.4722222222222213E-3</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K1'!A6="", "",'K1'!C6)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -48637,11 +48693,11 @@
       </c>
       <c r="B7" s="36">
         <f>IF('K1'!A7="", "",'K1'!B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="str">
+        <v>8.9814814814814809E-3</v>
+      </c>
+      <c r="C7" s="37">
         <f>IF('K1'!A7="", "",'K1'!C7)</f>
-        <v>-</v>
+        <v>9</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
@@ -48661,11 +48717,11 @@
       </c>
       <c r="B8" s="36">
         <f>IF('K1'!A8="", "",'K1'!B8)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="37" t="str">
+        <v>8.5532407407407415E-3</v>
+      </c>
+      <c r="C8" s="37">
         <f>IF('K1'!A8="", "",'K1'!C8)</f>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
@@ -48685,11 +48741,11 @@
       </c>
       <c r="B9" s="36">
         <f>IF('K1'!A9="", "",'K1'!B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="37" t="str">
+        <v>1.0439814814814813E-2</v>
+      </c>
+      <c r="C9" s="37">
         <f>IF('K1'!A9="", "",'K1'!C9)</f>
-        <v>-</v>
+        <v>12</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
@@ -48709,11 +48765,11 @@
       </c>
       <c r="B10" s="36">
         <f>IF('K1'!A10="", "",'K1'!B10)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="37" t="str">
+        <v>1.0266203703703703E-2</v>
+      </c>
+      <c r="C10" s="37">
         <f>IF('K1'!A10="", "",'K1'!C10)</f>
-        <v>-</v>
+        <v>11</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="36"/>
@@ -48733,11 +48789,11 @@
       </c>
       <c r="B11" s="36">
         <f>IF('K1'!A11="", "",'K1'!B11)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="37" t="str">
+        <v>8.8773148148148153E-3</v>
+      </c>
+      <c r="C11" s="37">
         <f>IF('K1'!A11="", "",'K1'!C11)</f>
-        <v>-</v>
+        <v>8</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="36"/>
@@ -48757,11 +48813,11 @@
       </c>
       <c r="B12" s="36">
         <f>IF('K1'!A12="", "",'K1'!B12)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="37" t="str">
+        <v>9.0393518518518522E-3</v>
+      </c>
+      <c r="C12" s="37">
         <f>IF('K1'!A12="", "",'K1'!C12)</f>
-        <v>-</v>
+        <v>10</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="36"/>
@@ -48781,11 +48837,11 @@
       </c>
       <c r="B13" s="36">
         <f>IF('K1'!A13="", "",'K1'!B13)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="37" t="str">
+        <v>8.5416666666666679E-3</v>
+      </c>
+      <c r="C13" s="37">
         <f>IF('K1'!A13="", "",'K1'!C13)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="36"/>
@@ -48805,11 +48861,11 @@
       </c>
       <c r="B14" s="36">
         <f>IF('K1'!A14="", "",'K1'!B14)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="37" t="str">
+        <v>8.7037037037037031E-3</v>
+      </c>
+      <c r="C14" s="37">
         <f>IF('K1'!A14="", "",'K1'!C14)</f>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="36"/>
@@ -48829,11 +48885,11 @@
       </c>
       <c r="B15" s="36">
         <f>IF('K1'!A15="", "",'K1'!B15)</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="37" t="str">
+        <v>8.0671296296296307E-3</v>
+      </c>
+      <c r="C15" s="37">
         <f>IF('K1'!A15="", "",'K1'!C15)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="36"/>
@@ -48851,9 +48907,9 @@
         <f>IF('K1'!A16="", "",'K1'!A16)</f>
         <v>Evensen, Ansgar</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="36" t="str">
         <f>IF('K1'!A16="", "",'K1'!B16)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C16" s="37" t="str">
         <f>IF('K1'!A16="", "",'K1'!C16)</f>
@@ -48875,9 +48931,9 @@
         <f>IF('K1'!A17="", "",'K1'!A17)</f>
         <v>Karsrud, Kristoffer Alm</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="36" t="str">
         <f>IF('K1'!A17="", "",'K1'!B17)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C17" s="37" t="str">
         <f>IF('K1'!A17="", "",'K1'!C17)</f>
@@ -48899,9 +48955,9 @@
         <f>IF('K1'!A18="", "",'K1'!A18)</f>
         <v>Nyhagen, Håkon</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="36" t="str">
         <f>IF('K1'!A18="", "",'K1'!B18)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C18" s="37" t="str">
         <f>IF('K1'!A18="", "",'K1'!C18)</f>
@@ -48923,9 +48979,9 @@
         <f>IF('K1'!A19="", "",'K1'!A19)</f>
         <v>Stensvold, Trym</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="36" t="str">
         <f>IF('K1'!A19="", "",'K1'!B19)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C19" s="37" t="str">
         <f>IF('K1'!A19="", "",'K1'!C19)</f>
@@ -55944,11 +56000,11 @@
       </c>
       <c r="B4" s="36">
         <f>IF('K2'!A4="", "",'K2'!B4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>8.1712962962962963E-3</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K2'!A4="", "",'K2'!C4)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -55968,11 +56024,11 @@
       </c>
       <c r="B5" s="36">
         <f>IF('K2'!A5="", "",'K2'!B5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>9.0972222222222218E-3</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K2'!A5="", "",'K2'!C5)</f>
-        <v>-</v>
+        <v>8</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -55992,11 +56048,11 @@
       </c>
       <c r="B6" s="36">
         <f>IF('K2'!A6="", "",'K2'!B6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>7.9745370370370369E-3</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K2'!A6="", "",'K2'!C6)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -56016,11 +56072,11 @@
       </c>
       <c r="B7" s="36">
         <f>IF('K2'!A7="", "",'K2'!B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="str">
+        <v>7.4884259259259262E-3</v>
+      </c>
+      <c r="C7" s="37">
         <f>IF('K2'!A7="", "",'K2'!C7)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
@@ -56040,11 +56096,11 @@
       </c>
       <c r="B8" s="36">
         <f>IF('K2'!A8="", "",'K2'!B8)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="37" t="str">
+        <v>8.1712962962962963E-3</v>
+      </c>
+      <c r="C8" s="37">
         <f>IF('K2'!A8="", "",'K2'!C8)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
@@ -56064,11 +56120,11 @@
       </c>
       <c r="B9" s="36">
         <f>IF('K2'!A9="", "",'K2'!B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="37" t="str">
+        <v>8.0555555555555554E-3</v>
+      </c>
+      <c r="C9" s="37">
         <f>IF('K2'!A9="", "",'K2'!C9)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
@@ -56088,11 +56144,11 @@
       </c>
       <c r="B10" s="36">
         <f>IF('K2'!A10="", "",'K2'!B10)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="37" t="str">
+        <v>8.2060185185185187E-3</v>
+      </c>
+      <c r="C10" s="37">
         <f>IF('K2'!A10="", "",'K2'!C10)</f>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="36"/>
@@ -56108,15 +56164,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K2'!A11="", "",'K2'!A11)</f>
-        <v/>
-      </c>
-      <c r="B11" s="36" t="str">
+        <v>Jacobsen, Kristian</v>
+      </c>
+      <c r="B11" s="36">
         <f>IF('K2'!A11="", "",'K2'!B11)</f>
-        <v/>
-      </c>
-      <c r="C11" s="37" t="str">
+        <v>8.2407407407407412E-3</v>
+      </c>
+      <c r="C11" s="37">
         <f>IF('K2'!A11="", "",'K2'!C11)</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="36"/>
@@ -58567,15 +58623,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="str">
         <f>IF('K2'!A11="", "",'K2'!A11)</f>
-        <v/>
-      </c>
-      <c r="B11" s="25" t="str">
+        <v>Jacobsen, Kristian</v>
+      </c>
+      <c r="B11" s="25">
         <f>IF('K2'!A11="", "",'K2'!E11)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF('K2'!A11="", "",'K2'!F11)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="25"/>
@@ -61028,15 +61084,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K2'!A11="", "",'K2'!A11)</f>
-        <v/>
-      </c>
-      <c r="B11" s="36" t="str">
+        <v>Jacobsen, Kristian</v>
+      </c>
+      <c r="B11" s="36">
         <f>IF('K2'!A11="", "",'K2'!H11)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF('K2'!A11="", "",'K2'!I11)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="25"/>

--- a/gutter-jr.xlsx
+++ b/gutter-jr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="460" windowWidth="32080" windowHeight="19400" tabRatio="991" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -949,8 +949,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1049,11 +1049,11 @@
       </c>
       <c r="C4" s="10">
         <f>IF(A4="","",IFERROR(RANK(B4,$B$4:$B$300,1),"-"))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="11">
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="10" t="str">
@@ -1183,15 +1183,15 @@
         <v>40</v>
       </c>
       <c r="B7" s="25">
-        <v>8.9814814814814809E-3</v>
+        <v>8.6342592592592599E-3</v>
       </c>
       <c r="C7" s="10">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="11">
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="10" t="str">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="K7" s="26">
         <f t="shared" si="3"/>
-        <v>8.9814814814814809E-3</v>
+        <v>8.6342592592592599E-3</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1371,11 +1371,11 @@
       </c>
       <c r="C11" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="11">
         <f>IF(A11="","", IFERROR(VLOOKUP(C11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="10" t="str">
@@ -1509,11 +1509,11 @@
       </c>
       <c r="C14" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="11">
         <f>IF(A14="","", IFERROR(VLOOKUP(C14,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="10" t="str">
@@ -12704,7 +12704,7 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -13048,11 +13048,11 @@
       </c>
       <c r="D7" s="23">
         <f>IF(A7="","",IFERROR(VLOOKUP(E7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="23">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="19" t="str">
         <f>IF('K1'!E4="", "", 'K1'!E4)</f>
@@ -13328,11 +13328,11 @@
       </c>
       <c r="D11" s="23">
         <f>IF(A11="","",IFERROR(VLOOKUP(E11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="23">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="19" t="str">
         <f>IF('K1'!E11="", "", 'K1'!E11)</f>
@@ -13538,11 +13538,11 @@
       </c>
       <c r="D14" s="23">
         <f>IF(A14="","",IFERROR(VLOOKUP(E14,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14" s="23">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="19" t="str">
         <f>IF('K1'!E14="", "", 'K1'!E14)</f>
@@ -26900,19 +26900,19 @@
       </c>
       <c r="B205" s="19">
         <f>IF('K1'!B7="", "",'K1'!B7)</f>
-        <v>8.9814814814814809E-3</v>
+        <v>8.6342592592592599E-3</v>
       </c>
       <c r="C205" s="20">
         <f t="shared" si="27"/>
-        <v>8.9814814814814809E-3</v>
+        <v>8.6342592592592599E-3</v>
       </c>
       <c r="D205" s="23">
         <f>IF(A205="","",IFERROR(VLOOKUP(E205,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E205" s="23">
         <f t="shared" si="28"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F205" s="19" t="str">
         <f>IF('K1'!E7="", "", 'K1'!E7)</f>
@@ -26948,11 +26948,11 @@
       </c>
       <c r="N205" s="27">
         <f>IF('K1'!K7="", "", 'K1'!K7)</f>
-        <v>8.9814814814814809E-3</v>
+        <v>8.6342592592592599E-3</v>
       </c>
       <c r="O205" s="28">
         <f t="shared" si="33"/>
-        <v>8.9814814814814809E-3</v>
+        <v>8.6342592592592599E-3</v>
       </c>
       <c r="P205" s="23" t="str">
         <f t="shared" si="35"/>
@@ -48625,7 +48625,7 @@
       </c>
       <c r="C4" s="37">
         <f>IF('K1'!A4="", "",'K1'!C4)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -48693,11 +48693,11 @@
       </c>
       <c r="B7" s="36">
         <f>IF('K1'!A7="", "",'K1'!B7)</f>
-        <v>8.9814814814814809E-3</v>
+        <v>8.6342592592592599E-3</v>
       </c>
       <c r="C7" s="37">
         <f>IF('K1'!A7="", "",'K1'!C7)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
@@ -48793,7 +48793,7 @@
       </c>
       <c r="C11" s="37">
         <f>IF('K1'!A11="", "",'K1'!C11)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="36"/>
@@ -48865,7 +48865,7 @@
       </c>
       <c r="C14" s="37">
         <f>IF('K1'!A14="", "",'K1'!C14)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="36"/>

--- a/gutter-jr.xlsx
+++ b/gutter-jr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="991"/>
+    <workbookView xWindow="2560" yWindow="880" windowWidth="29380" windowHeight="19860" tabRatio="991" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="63">
   <si>
     <t>Dag1</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>Jacobsen, Kristian</t>
+  </si>
+  <si>
+    <t>DNF</t>
   </si>
 </sst>
 </file>
@@ -949,8 +952,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1055,14 +1058,16 @@
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>36</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="10" t="str">
+      <c r="E4" s="25">
+        <v>3.6516203703703703E-2</v>
+      </c>
+      <c r="F4" s="10">
         <f>IF(A4="", "", IFERROR(RANK(E4,$E$4:$E$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="G4" s="11" t="str">
+        <v>11</v>
+      </c>
+      <c r="G4" s="11">
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>24</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="10" t="str">
@@ -1075,7 +1080,7 @@
       </c>
       <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v>8.6689814814814806E-3</v>
+        <v>4.5185185185185182E-2</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -1101,14 +1106,16 @@
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="10" t="str">
+      <c r="E5" s="25">
+        <v>3.078703703703704E-2</v>
+      </c>
+      <c r="F5" s="10">
         <f t="shared" ref="F5:F68" si="1">IF(A5="", "", IFERROR(RANK(E5,$E$4:$E$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="G5" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11">
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="10" t="str">
@@ -1121,7 +1128,7 @@
       </c>
       <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v>8.1249999999999985E-3</v>
+        <v>3.8912037037037037E-2</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -1147,7 +1154,9 @@
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>60</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="25" t="s">
+        <v>62</v>
+      </c>
       <c r="F6" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1165,9 +1174,9 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>8.4722222222222213E-3</v>
+        <v>-</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1193,7 +1202,9 @@
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>40</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="F7" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1211,9 +1222,9 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>8.6342592592592599E-3</v>
+        <v>-</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1239,14 +1250,16 @@
         <f>IF(A8="","", IFERROR(VLOOKUP(C8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>45</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="10" t="str">
+      <c r="E8" s="25">
+        <v>3.1296296296296301E-2</v>
+      </c>
+      <c r="F8" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G8" s="11" t="str">
+        <v>6</v>
+      </c>
+      <c r="G8" s="11">
         <f>IF(A8="","",IFERROR(VLOOKUP(F8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>40</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="10" t="str">
@@ -1259,7 +1272,7 @@
       </c>
       <c r="K8" s="26">
         <f t="shared" si="3"/>
-        <v>8.5532407407407415E-3</v>
+        <v>3.9849537037037044E-2</v>
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1285,14 +1298,16 @@
         <f>IF(A9="","", IFERROR(VLOOKUP(C9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>22</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="10" t="str">
+      <c r="E9" s="25">
+        <v>3.3611111111111112E-2</v>
+      </c>
+      <c r="F9" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G9" s="11" t="str">
+        <v>9</v>
+      </c>
+      <c r="G9" s="11">
         <f>IF(A9="","",IFERROR(VLOOKUP(F9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>29</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="10" t="str">
@@ -1305,7 +1320,7 @@
       </c>
       <c r="K9" s="26">
         <f t="shared" si="3"/>
-        <v>1.0439814814814813E-2</v>
+        <v>4.4050925925925924E-2</v>
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1331,14 +1346,16 @@
         <f>IF(A10="","", IFERROR(VLOOKUP(C10,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>24</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="10" t="str">
+      <c r="E10" s="25">
+        <v>3.8460648148148147E-2</v>
+      </c>
+      <c r="F10" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G10" s="11" t="str">
+        <v>12</v>
+      </c>
+      <c r="G10" s="11">
         <f>IF(A10="","",IFERROR(VLOOKUP(F10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>22</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="10" t="str">
@@ -1351,7 +1368,7 @@
       </c>
       <c r="K10" s="26">
         <f t="shared" si="3"/>
-        <v>1.0266203703703703E-2</v>
+        <v>4.8726851851851848E-2</v>
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1377,14 +1394,16 @@
         <f>IF(A11="","", IFERROR(VLOOKUP(C11,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>29</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="10" t="str">
+      <c r="E11" s="25">
+        <v>3.3437500000000002E-2</v>
+      </c>
+      <c r="F11" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G11" s="11" t="str">
+        <v>8</v>
+      </c>
+      <c r="G11" s="11">
         <f>IF(A11="","",IFERROR(VLOOKUP(F11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>32</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="10" t="str">
@@ -1397,7 +1416,7 @@
       </c>
       <c r="K11" s="26">
         <f t="shared" si="3"/>
-        <v>8.8773148148148153E-3</v>
+        <v>4.2314814814814819E-2</v>
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1423,14 +1442,16 @@
         <f>IF(A12="","", IFERROR(VLOOKUP(C12,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>26</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="10" t="str">
+      <c r="E12" s="25">
+        <v>2.9699074074074072E-2</v>
+      </c>
+      <c r="F12" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G12" s="11" t="str">
+        <v>3</v>
+      </c>
+      <c r="G12" s="11">
         <f>IF(A12="","",IFERROR(VLOOKUP(F12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="10" t="str">
@@ -1443,7 +1464,7 @@
       </c>
       <c r="K12" s="26">
         <f t="shared" si="3"/>
-        <v>9.0393518518518522E-3</v>
+        <v>3.8738425925925926E-2</v>
       </c>
       <c r="L12" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1469,7 +1490,9 @@
         <f>IF(A13="","", IFERROR(VLOOKUP(C13,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>50</v>
       </c>
-      <c r="E13" s="25"/>
+      <c r="E13" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="F13" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1487,9 +1510,9 @@
         <f>IF(A13="","",IFERROR(VLOOKUP(I13,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>8.5416666666666679E-3</v>
+        <v>-</v>
       </c>
       <c r="L13" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1515,14 +1538,16 @@
         <f>IF(A14="","", IFERROR(VLOOKUP(C14,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>32</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="10" t="str">
+      <c r="E14" s="25">
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="F14" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G14" s="11" t="str">
+        <v>10</v>
+      </c>
+      <c r="G14" s="11">
         <f>IF(A14="","",IFERROR(VLOOKUP(F14,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>26</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="10" t="str">
@@ -1535,7 +1560,7 @@
       </c>
       <c r="K14" s="26">
         <f t="shared" si="3"/>
-        <v>8.7037037037037031E-3</v>
+        <v>4.3703703703703703E-2</v>
       </c>
       <c r="L14" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1561,14 +1586,16 @@
         <f>IF(A15="","", IFERROR(VLOOKUP(C15,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="10" t="str">
+      <c r="E15" s="25">
+        <v>3.0972222222222224E-2</v>
+      </c>
+      <c r="F15" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G15" s="11" t="str">
+        <v>5</v>
+      </c>
+      <c r="G15" s="11">
         <f>IF(A15="","",IFERROR(VLOOKUP(F15,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>45</v>
       </c>
       <c r="H15" s="25"/>
       <c r="I15" s="10" t="str">
@@ -1581,7 +1608,7 @@
       </c>
       <c r="K15" s="26">
         <f t="shared" si="3"/>
-        <v>8.0671296296296307E-3</v>
+        <v>3.9039351851851853E-2</v>
       </c>
       <c r="L15" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1607,14 +1634,16 @@
         <f>IF(A16="","", IFERROR(VLOOKUP(C16,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="10" t="str">
+      <c r="E16" s="25">
+        <v>2.8900462962962961E-2</v>
+      </c>
+      <c r="F16" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G16" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11">
         <f>IF(A16="","",IFERROR(VLOOKUP(F16,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="10" t="str">
@@ -1653,14 +1682,16 @@
         <f>IF(A17="","", IFERROR(VLOOKUP(C17,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="10" t="str">
+      <c r="E17" s="25">
+        <v>2.9131944444444446E-2</v>
+      </c>
+      <c r="F17" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G17" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="G17" s="11">
         <f>IF(A17="","",IFERROR(VLOOKUP(F17,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="10" t="str">
@@ -1699,14 +1730,16 @@
         <f>IF(A18="","", IFERROR(VLOOKUP(C18,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="10" t="str">
+      <c r="E18" s="25">
+        <v>3.2384259259259258E-2</v>
+      </c>
+      <c r="F18" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G18" s="11" t="str">
+        <v>7</v>
+      </c>
+      <c r="G18" s="11">
         <f>IF(A18="","",IFERROR(VLOOKUP(F18,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>36</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="10" t="str">
@@ -1745,7 +1778,9 @@
         <f>IF(A19="","", IFERROR(VLOOKUP(C19,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="E19" s="25"/>
+      <c r="E19" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="F19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -12704,7 +12739,7 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S304"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -12984,21 +13019,21 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F6" s="19" t="str">
+      <c r="F6" s="19">
         <f>IF('K2'!E7="", "", 'K2'!E7)</f>
-        <v/>
-      </c>
-      <c r="G6" s="21" t="str">
+        <v>2.7291666666666662E-2</v>
+      </c>
+      <c r="G6" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H6" s="23" t="str">
+        <v>2.7291666666666662E-2</v>
+      </c>
+      <c r="H6" s="23">
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I6" s="23" t="str">
+        <v>100</v>
+      </c>
+      <c r="I6" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="J6" s="19" t="str">
         <f>IF('K2'!H7="", "", 'K2'!H7)</f>
@@ -13018,11 +13053,11 @@
       </c>
       <c r="N6" s="27">
         <f>IF('K2'!K7="", "", 'K2'!K7)</f>
-        <v>7.4884259259259262E-3</v>
+        <v>3.4780092592592585E-2</v>
       </c>
       <c r="O6" s="28">
         <f t="shared" si="6"/>
-        <v>7.4884259259259262E-3</v>
+        <v>3.4780092592592585E-2</v>
       </c>
       <c r="P6" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13054,21 +13089,21 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="F7" s="19" t="str">
+      <c r="F7" s="19">
         <f>IF('K1'!E4="", "", 'K1'!E4)</f>
-        <v/>
-      </c>
-      <c r="G7" s="21" t="str">
+        <v>3.6516203703703703E-2</v>
+      </c>
+      <c r="G7" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H7" s="23" t="str">
+        <v>3.6516203703703703E-2</v>
+      </c>
+      <c r="H7" s="23">
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I7" s="23" t="str">
+        <v>13</v>
+      </c>
+      <c r="I7" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>18</v>
       </c>
       <c r="J7" s="19" t="str">
         <f>IF('K1'!H4="", "", 'K1'!H4)</f>
@@ -13088,11 +13123,11 @@
       </c>
       <c r="N7" s="27">
         <f>IF('K1'!K4="", "", 'K1'!K4)</f>
-        <v>8.6689814814814806E-3</v>
+        <v>4.5185185185185182E-2</v>
       </c>
       <c r="O7" s="28">
         <f t="shared" si="6"/>
-        <v>8.6689814814814806E-3</v>
+        <v>4.5185185185185182E-2</v>
       </c>
       <c r="P7" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13124,21 +13159,21 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F8" s="19" t="str">
+      <c r="F8" s="19">
         <f>IF('K1'!E8="", "", 'K1'!E8)</f>
-        <v/>
-      </c>
-      <c r="G8" s="21" t="str">
+        <v>3.1296296296296301E-2</v>
+      </c>
+      <c r="G8" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H8" s="23" t="str">
+        <v>3.1296296296296301E-2</v>
+      </c>
+      <c r="H8" s="23">
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I8" s="23" t="str">
+        <v>24</v>
+      </c>
+      <c r="I8" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>11</v>
       </c>
       <c r="J8" s="19" t="str">
         <f>IF('K1'!H8="", "", 'K1'!H8)</f>
@@ -13158,11 +13193,11 @@
       </c>
       <c r="N8" s="27">
         <f>IF('K1'!K8="", "", 'K1'!K8)</f>
-        <v>8.5532407407407415E-3</v>
+        <v>3.9849537037037044E-2</v>
       </c>
       <c r="O8" s="28">
         <f t="shared" si="6"/>
-        <v>8.5532407407407415E-3</v>
+        <v>3.9849537037037044E-2</v>
       </c>
       <c r="P8" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13194,21 +13229,21 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="F9" s="19" t="str">
+      <c r="F9" s="19">
         <f>IF('K1'!E9="", "", 'K1'!E9)</f>
-        <v/>
-      </c>
-      <c r="G9" s="21" t="str">
+        <v>3.3611111111111112E-2</v>
+      </c>
+      <c r="G9" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H9" s="23" t="str">
+        <v>3.3611111111111112E-2</v>
+      </c>
+      <c r="H9" s="23">
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I9" s="23" t="str">
+        <v>15</v>
+      </c>
+      <c r="I9" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>16</v>
       </c>
       <c r="J9" s="19" t="str">
         <f>IF('K1'!H9="", "", 'K1'!H9)</f>
@@ -13228,11 +13263,11 @@
       </c>
       <c r="N9" s="27">
         <f>IF('K1'!K9="", "", 'K1'!K9)</f>
-        <v>1.0439814814814813E-2</v>
+        <v>4.4050925925925924E-2</v>
       </c>
       <c r="O9" s="28">
         <f t="shared" si="6"/>
-        <v>1.0439814814814813E-2</v>
+        <v>4.4050925925925924E-2</v>
       </c>
       <c r="P9" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13264,21 +13299,21 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="F10" s="19" t="str">
+      <c r="F10" s="19">
         <f>IF('K1'!E10="", "", 'K1'!E10)</f>
-        <v/>
-      </c>
-      <c r="G10" s="21" t="str">
+        <v>3.8460648148148147E-2</v>
+      </c>
+      <c r="G10" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H10" s="23" t="str">
+        <v>3.8460648148148147E-2</v>
+      </c>
+      <c r="H10" s="23">
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I10" s="23" t="str">
+        <v>12</v>
+      </c>
+      <c r="I10" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>19</v>
       </c>
       <c r="J10" s="19" t="str">
         <f>IF('K1'!H10="", "", 'K1'!H10)</f>
@@ -13298,11 +13333,11 @@
       </c>
       <c r="N10" s="27">
         <f>IF('K1'!K10="", "", 'K1'!K10)</f>
-        <v>1.0266203703703703E-2</v>
+        <v>4.8726851851851848E-2</v>
       </c>
       <c r="O10" s="28">
         <f t="shared" si="6"/>
-        <v>1.0266203703703703E-2</v>
+        <v>4.8726851851851848E-2</v>
       </c>
       <c r="P10" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13334,21 +13369,21 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="F11" s="19" t="str">
+      <c r="F11" s="19">
         <f>IF('K1'!E11="", "", 'K1'!E11)</f>
-        <v/>
-      </c>
-      <c r="G11" s="21" t="str">
+        <v>3.3437500000000002E-2</v>
+      </c>
+      <c r="G11" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H11" s="23" t="str">
+        <v>3.3437500000000002E-2</v>
+      </c>
+      <c r="H11" s="23">
         <f>IF(A11="","",IFERROR(VLOOKUP(I11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I11" s="23" t="str">
+        <v>18</v>
+      </c>
+      <c r="I11" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>14</v>
       </c>
       <c r="J11" s="19" t="str">
         <f>IF('K1'!H11="", "", 'K1'!H11)</f>
@@ -13368,11 +13403,11 @@
       </c>
       <c r="N11" s="27">
         <f>IF('K1'!K11="", "", 'K1'!K11)</f>
-        <v>8.8773148148148153E-3</v>
+        <v>4.2314814814814819E-2</v>
       </c>
       <c r="O11" s="28">
         <f t="shared" si="6"/>
-        <v>8.8773148148148153E-3</v>
+        <v>4.2314814814814819E-2</v>
       </c>
       <c r="P11" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13404,21 +13439,21 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="F12" s="19" t="str">
+      <c r="F12" s="19">
         <f>IF('K1'!E12="", "", 'K1'!E12)</f>
-        <v/>
-      </c>
-      <c r="G12" s="21" t="str">
+        <v>2.9699074074074072E-2</v>
+      </c>
+      <c r="G12" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H12" s="23" t="str">
+        <v>2.9699074074074072E-2</v>
+      </c>
+      <c r="H12" s="23">
         <f>IF(A12="","",IFERROR(VLOOKUP(I12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I12" s="23" t="str">
+        <v>40</v>
+      </c>
+      <c r="I12" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="J12" s="19" t="str">
         <f>IF('K1'!H12="", "", 'K1'!H12)</f>
@@ -13438,11 +13473,11 @@
       </c>
       <c r="N12" s="27">
         <f>IF('K1'!K12="", "", 'K1'!K12)</f>
-        <v>9.0393518518518522E-3</v>
+        <v>3.8738425925925926E-2</v>
       </c>
       <c r="O12" s="28">
         <f t="shared" si="6"/>
-        <v>9.0393518518518522E-3</v>
+        <v>3.8738425925925926E-2</v>
       </c>
       <c r="P12" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13476,11 +13511,11 @@
       </c>
       <c r="F13" s="19" t="str">
         <f>IF('K1'!E13="", "", 'K1'!E13)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G13" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H13" s="23" t="str">
         <f>IF(A13="","",IFERROR(VLOOKUP(I13,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13506,13 +13541,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="27" t="str">
         <f>IF('K1'!K13="", "", 'K1'!K13)</f>
-        <v>8.5416666666666679E-3</v>
-      </c>
-      <c r="O13" s="28">
+        <v>-</v>
+      </c>
+      <c r="O13" s="28" t="str">
         <f t="shared" si="6"/>
-        <v>8.5416666666666679E-3</v>
+        <v>-</v>
       </c>
       <c r="P13" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13544,21 +13579,21 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F14" s="19" t="str">
+      <c r="F14" s="19">
         <f>IF('K1'!E14="", "", 'K1'!E14)</f>
-        <v/>
-      </c>
-      <c r="G14" s="21" t="str">
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="G14" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H14" s="23" t="str">
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="H14" s="23">
         <f>IF(A14="","",IFERROR(VLOOKUP(I14,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I14" s="23" t="str">
+        <v>14</v>
+      </c>
+      <c r="I14" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>17</v>
       </c>
       <c r="J14" s="19" t="str">
         <f>IF('K1'!H14="", "", 'K1'!H14)</f>
@@ -13578,11 +13613,11 @@
       </c>
       <c r="N14" s="27">
         <f>IF('K1'!K14="", "", 'K1'!K14)</f>
-        <v>8.7037037037037031E-3</v>
+        <v>4.3703703703703703E-2</v>
       </c>
       <c r="O14" s="28">
         <f t="shared" si="6"/>
-        <v>8.7037037037037031E-3</v>
+        <v>4.3703703703703703E-2</v>
       </c>
       <c r="P14" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13614,21 +13649,21 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F15" s="19" t="str">
+      <c r="F15" s="19">
         <f>IF('K1'!E15="", "", 'K1'!E15)</f>
-        <v/>
-      </c>
-      <c r="G15" s="21" t="str">
+        <v>3.0972222222222224E-2</v>
+      </c>
+      <c r="G15" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H15" s="23" t="str">
+        <v>3.0972222222222224E-2</v>
+      </c>
+      <c r="H15" s="23">
         <f>IF(A15="","",IFERROR(VLOOKUP(I15,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I15" s="23" t="str">
+        <v>26</v>
+      </c>
+      <c r="I15" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>10</v>
       </c>
       <c r="J15" s="19" t="str">
         <f>IF('K1'!H15="", "", 'K1'!H15)</f>
@@ -13648,11 +13683,11 @@
       </c>
       <c r="N15" s="27">
         <f>IF('K1'!K15="", "", 'K1'!K15)</f>
-        <v>8.0671296296296307E-3</v>
+        <v>3.9039351851851853E-2</v>
       </c>
       <c r="O15" s="28">
         <f t="shared" si="6"/>
-        <v>8.0671296296296307E-3</v>
+        <v>3.9039351851851853E-2</v>
       </c>
       <c r="P15" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13684,21 +13719,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F16" s="19" t="str">
+      <c r="F16" s="19">
         <f>IF('K1'!E16="", "", 'K1'!E16)</f>
-        <v/>
-      </c>
-      <c r="G16" s="21" t="str">
+        <v>2.8900462962962961E-2</v>
+      </c>
+      <c r="G16" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H16" s="23" t="str">
+        <v>2.8900462962962961E-2</v>
+      </c>
+      <c r="H16" s="23">
         <f>IF(A16="","",IFERROR(VLOOKUP(I16,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I16" s="23" t="str">
+        <v>80</v>
+      </c>
+      <c r="I16" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="J16" s="19" t="str">
         <f>IF('K1'!H16="", "", 'K1'!H16)</f>
@@ -13754,21 +13789,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F17" s="19" t="str">
+      <c r="F17" s="19">
         <f>IF('K1'!E17="", "", 'K1'!E17)</f>
-        <v/>
-      </c>
-      <c r="G17" s="21" t="str">
+        <v>2.9131944444444446E-2</v>
+      </c>
+      <c r="G17" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H17" s="23" t="str">
+        <v>2.9131944444444446E-2</v>
+      </c>
+      <c r="H17" s="23">
         <f>IF(A17="","",IFERROR(VLOOKUP(I17,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I17" s="23" t="str">
+        <v>50</v>
+      </c>
+      <c r="I17" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="J17" s="19" t="str">
         <f>IF('K1'!H17="", "", 'K1'!H17)</f>
@@ -13824,21 +13859,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F18" s="19" t="str">
+      <c r="F18" s="19">
         <f>IF('K1'!E18="", "", 'K1'!E18)</f>
-        <v/>
-      </c>
-      <c r="G18" s="21" t="str">
+        <v>3.2384259259259258E-2</v>
+      </c>
+      <c r="G18" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H18" s="23" t="str">
+        <v>3.2384259259259258E-2</v>
+      </c>
+      <c r="H18" s="23">
         <f>IF(A18="","",IFERROR(VLOOKUP(I18,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I18" s="23" t="str">
+        <v>20</v>
+      </c>
+      <c r="I18" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>13</v>
       </c>
       <c r="J18" s="19" t="str">
         <f>IF('K1'!H18="", "", 'K1'!H18)</f>
@@ -13896,11 +13931,11 @@
       </c>
       <c r="F19" s="19" t="str">
         <f>IF('K1'!E19="", "", 'K1'!E19)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G19" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H19" s="23" t="str">
         <f>IF(A19="","",IFERROR(VLOOKUP(I19,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -19914,21 +19949,21 @@
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="F105" s="19" t="str">
+      <c r="F105" s="19">
         <f>IF('K2'!E4="", "", 'K2'!E4)</f>
-        <v/>
-      </c>
-      <c r="G105" s="21" t="str">
+        <v>3.3541666666666664E-2</v>
+      </c>
+      <c r="G105" s="21">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H105" s="23" t="str">
+        <v>3.3541666666666664E-2</v>
+      </c>
+      <c r="H105" s="23">
         <f>IF(A105="","",IFERROR(VLOOKUP(I105,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I105" s="23" t="str">
+        <v>16</v>
+      </c>
+      <c r="I105" s="23">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>15</v>
       </c>
       <c r="J105" s="19" t="str">
         <f>IF('K2'!H4="", "", 'K2'!H4)</f>
@@ -19948,11 +19983,11 @@
       </c>
       <c r="N105" s="27">
         <f>IF('K2'!K4="", "", 'K2'!K4)</f>
-        <v>8.1712962962962963E-3</v>
+        <v>4.1712962962962959E-2</v>
       </c>
       <c r="O105" s="28">
         <f t="shared" si="15"/>
-        <v>8.1712962962962963E-3</v>
+        <v>4.1712962962962959E-2</v>
       </c>
       <c r="P105" s="23" t="str">
         <f t="shared" si="17"/>
@@ -19984,21 +20019,21 @@
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="F106" s="19" t="str">
+      <c r="F106" s="19">
         <f>IF('K1'!E5="", "", 'K1'!E5)</f>
-        <v/>
-      </c>
-      <c r="G106" s="21" t="str">
+        <v>3.078703703703704E-2</v>
+      </c>
+      <c r="G106" s="21">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H106" s="23" t="str">
+        <v>3.078703703703704E-2</v>
+      </c>
+      <c r="H106" s="23">
         <f>IF(A106="","",IFERROR(VLOOKUP(I106,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I106" s="23" t="str">
+        <v>29</v>
+      </c>
+      <c r="I106" s="23">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>9</v>
       </c>
       <c r="J106" s="19" t="str">
         <f>IF('K1'!H5="", "", 'K1'!H5)</f>
@@ -20018,11 +20053,11 @@
       </c>
       <c r="N106" s="27">
         <f>IF('K1'!K5="", "", 'K1'!K5)</f>
-        <v>8.1249999999999985E-3</v>
+        <v>3.8912037037037037E-2</v>
       </c>
       <c r="O106" s="28">
         <f t="shared" si="15"/>
-        <v>8.1249999999999985E-3</v>
+        <v>3.8912037037037037E-2</v>
       </c>
       <c r="P106" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20054,21 +20089,21 @@
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="F107" s="19" t="str">
+      <c r="F107" s="19">
         <f>IF('K2'!E6="", "", 'K2'!E6)</f>
-        <v/>
-      </c>
-      <c r="G107" s="21" t="str">
+        <v>2.8912037037037038E-2</v>
+      </c>
+      <c r="G107" s="21">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H107" s="23" t="str">
+        <v>2.8912037037037038E-2</v>
+      </c>
+      <c r="H107" s="23">
         <f>IF(A107="","",IFERROR(VLOOKUP(I107,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I107" s="23" t="str">
+        <v>60</v>
+      </c>
+      <c r="I107" s="23">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="J107" s="19" t="str">
         <f>IF('K2'!H6="", "", 'K2'!H6)</f>
@@ -20088,11 +20123,11 @@
       </c>
       <c r="N107" s="27">
         <f>IF('K2'!K6="", "", 'K2'!K6)</f>
-        <v>7.9745370370370369E-3</v>
+        <v>3.6886574074074072E-2</v>
       </c>
       <c r="O107" s="28">
         <f t="shared" si="15"/>
-        <v>7.9745370370370369E-3</v>
+        <v>3.6886574074074072E-2</v>
       </c>
       <c r="P107" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20126,11 +20161,11 @@
       </c>
       <c r="F108" s="19" t="str">
         <f>IF('K2'!E8="", "", 'K2'!E8)</f>
-        <v/>
+        <v>DNF</v>
       </c>
       <c r="G108" s="21" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>DNF</v>
       </c>
       <c r="H108" s="23" t="str">
         <f>IF(A108="","",IFERROR(VLOOKUP(I108,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -20156,13 +20191,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N108" s="27">
+      <c r="N108" s="27" t="str">
         <f>IF('K2'!K8="", "", 'K2'!K8)</f>
-        <v>8.1712962962962963E-3</v>
-      </c>
-      <c r="O108" s="28">
+        <v>-</v>
+      </c>
+      <c r="O108" s="28" t="str">
         <f t="shared" si="15"/>
-        <v>8.1712962962962963E-3</v>
+        <v>-</v>
       </c>
       <c r="P108" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20194,21 +20229,21 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="F109" s="19" t="str">
+      <c r="F109" s="19">
         <f>IF('K2'!E9="", "", 'K2'!E9)</f>
-        <v/>
-      </c>
-      <c r="G109" s="21" t="str">
+        <v>3.0081018518518521E-2</v>
+      </c>
+      <c r="G109" s="21">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H109" s="23" t="str">
+        <v>3.0081018518518521E-2</v>
+      </c>
+      <c r="H109" s="23">
         <f>IF(A109="","",IFERROR(VLOOKUP(I109,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I109" s="23" t="str">
+        <v>36</v>
+      </c>
+      <c r="I109" s="23">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="J109" s="19" t="str">
         <f>IF('K2'!H9="", "", 'K2'!H9)</f>
@@ -20228,11 +20263,11 @@
       </c>
       <c r="N109" s="27">
         <f>IF('K2'!K9="", "", 'K2'!K9)</f>
-        <v>8.0555555555555554E-3</v>
+        <v>3.8136574074074073E-2</v>
       </c>
       <c r="O109" s="28">
         <f t="shared" si="15"/>
-        <v>8.0555555555555554E-3</v>
+        <v>3.8136574074074073E-2</v>
       </c>
       <c r="P109" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20264,21 +20299,21 @@
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="F110" s="19" t="str">
+      <c r="F110" s="19">
         <f>IF('K2'!E10="", "", 'K2'!E10)</f>
-        <v/>
-      </c>
-      <c r="G110" s="21" t="str">
+        <v>2.9525462962962962E-2</v>
+      </c>
+      <c r="G110" s="21">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H110" s="23" t="str">
+        <v>2.9525462962962962E-2</v>
+      </c>
+      <c r="H110" s="23">
         <f>IF(A110="","",IFERROR(VLOOKUP(I110,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I110" s="23" t="str">
+        <v>45</v>
+      </c>
+      <c r="I110" s="23">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="J110" s="19" t="str">
         <f>IF('K2'!H10="", "", 'K2'!H10)</f>
@@ -20298,11 +20333,11 @@
       </c>
       <c r="N110" s="27">
         <f>IF('K2'!K10="", "", 'K2'!K10)</f>
-        <v>8.2060185185185187E-3</v>
+        <v>3.7731481481481477E-2</v>
       </c>
       <c r="O110" s="28">
         <f t="shared" si="15"/>
-        <v>8.2060185185185187E-3</v>
+        <v>3.7731481481481477E-2</v>
       </c>
       <c r="P110" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20334,21 +20369,21 @@
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="F111" s="19" t="str">
+      <c r="F111" s="19">
         <f>IF('K2'!E11="", "", 'K2'!E11)</f>
-        <v/>
-      </c>
-      <c r="G111" s="21" t="str">
+        <v>3.0405092592592591E-2</v>
+      </c>
+      <c r="G111" s="21">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H111" s="23" t="str">
+        <v>3.0405092592592591E-2</v>
+      </c>
+      <c r="H111" s="23">
         <f>IF(A111="","",IFERROR(VLOOKUP(I111,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I111" s="23" t="str">
+        <v>32</v>
+      </c>
+      <c r="I111" s="23">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>8</v>
       </c>
       <c r="J111" s="19" t="str">
         <f>IF('K2'!H11="", "", 'K2'!H11)</f>
@@ -20368,11 +20403,11 @@
       </c>
       <c r="N111" s="27">
         <f>IF('K2'!K11="", "", 'K2'!K11)</f>
-        <v>8.2407407407407412E-3</v>
+        <v>3.8645833333333331E-2</v>
       </c>
       <c r="O111" s="28">
         <f t="shared" si="15"/>
-        <v>8.2407407407407412E-3</v>
+        <v>3.8645833333333331E-2</v>
       </c>
       <c r="P111" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20386,39 +20421,39 @@
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="str">
         <f>IF('K2'!A12="", "",'K2'!A12)</f>
-        <v/>
+        <v>Stensvold, Trym</v>
       </c>
       <c r="B112" s="19" t="str">
         <f>IF('K2'!B12="", "",'K2'!B12)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C112" s="20" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="D112" s="23" t="str">
         <f>IF(A112="","",IFERROR(VLOOKUP(E112,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E112" s="23" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F112" s="19" t="str">
+        <v>-</v>
+      </c>
+      <c r="F112" s="19">
         <f>IF('K2'!E12="", "", 'K2'!E12)</f>
-        <v/>
-      </c>
-      <c r="G112" s="21" t="str">
+        <v>3.1736111111111111E-2</v>
+      </c>
+      <c r="G112" s="21">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H112" s="23" t="str">
+        <v>3.1736111111111111E-2</v>
+      </c>
+      <c r="H112" s="23">
         <f>IF(A112="","",IFERROR(VLOOKUP(I112,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="I112" s="23" t="str">
+        <v>22</v>
+      </c>
+      <c r="I112" s="23">
         <f t="shared" si="12"/>
-        <v/>
+        <v>12</v>
       </c>
       <c r="J112" s="19" t="str">
         <f>IF('K2'!H12="", "", 'K2'!H12)</f>
@@ -20430,27 +20465,27 @@
       </c>
       <c r="L112" s="23" t="str">
         <f>IF(A112="","",IFERROR(VLOOKUP(M112,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M112" s="23" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N112" s="27" t="str">
         <f>IF('K2'!K12="", "", 'K2'!K12)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="O112" s="28" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="P112" s="23" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q112" s="23" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
@@ -26846,11 +26881,11 @@
       </c>
       <c r="F204" s="19" t="str">
         <f>IF('K2'!E5="", "", 'K2'!E5)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G204" s="21" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H204" s="23" t="str">
         <f>IF(A204="","",IFERROR(VLOOKUP(I204,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -26876,13 +26911,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N204" s="27">
+      <c r="N204" s="27" t="str">
         <f>IF('K2'!K5="", "", 'K2'!K5)</f>
-        <v>9.0972222222222218E-3</v>
-      </c>
-      <c r="O204" s="28">
+        <v>-</v>
+      </c>
+      <c r="O204" s="28" t="str">
         <f t="shared" si="33"/>
-        <v>9.0972222222222218E-3</v>
+        <v>-</v>
       </c>
       <c r="P204" s="23" t="str">
         <f t="shared" si="35"/>
@@ -26916,11 +26951,11 @@
       </c>
       <c r="F205" s="19" t="str">
         <f>IF('K1'!E7="", "", 'K1'!E7)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G205" s="21" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H205" s="23" t="str">
         <f>IF(A205="","",IFERROR(VLOOKUP(I205,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -26946,13 +26981,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N205" s="27">
+      <c r="N205" s="27" t="str">
         <f>IF('K1'!K7="", "", 'K1'!K7)</f>
-        <v>8.6342592592592599E-3</v>
-      </c>
-      <c r="O205" s="28">
+        <v>-</v>
+      </c>
+      <c r="O205" s="28" t="str">
         <f t="shared" si="33"/>
-        <v>8.6342592592592599E-3</v>
+        <v>-</v>
       </c>
       <c r="P205" s="23" t="str">
         <f t="shared" si="35"/>
@@ -26986,11 +27021,11 @@
       </c>
       <c r="F206" s="19" t="str">
         <f>IF('K1'!E6="", "", 'K1'!E6)</f>
-        <v/>
+        <v>DNF</v>
       </c>
       <c r="G206" s="21" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>DNF</v>
       </c>
       <c r="H206" s="23" t="str">
         <f>IF(A206="","",IFERROR(VLOOKUP(I206,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -27016,13 +27051,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N206" s="27">
+      <c r="N206" s="27" t="str">
         <f>IF('K1'!K6="", "", 'K1'!K6)</f>
-        <v>8.4722222222222213E-3</v>
-      </c>
-      <c r="O206" s="28">
+        <v>-</v>
+      </c>
+      <c r="O206" s="28" t="str">
         <f t="shared" si="33"/>
-        <v>8.4722222222222213E-3</v>
+        <v>-</v>
       </c>
       <c r="P206" s="23" t="str">
         <f t="shared" si="35"/>
@@ -36413,15 +36448,15 @@
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="39" t="str">
         <f>IF(D1D2D3!A112="", "",D1D2D3!A112)</f>
-        <v/>
+        <v>Stensvold, Trym</v>
       </c>
       <c r="B112" s="41" t="str">
         <f>IF(D1D2D3!A112="", "",D1D2D3!P112)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C112" s="37" t="str">
         <f>IF(D1D2D3!A112="", "",D1D2D3!Q112)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -39891,8 +39926,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39998,14 +40033,16 @@
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>50</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="10" t="str">
+      <c r="E4" s="25">
+        <v>3.3541666666666664E-2</v>
+      </c>
+      <c r="F4" s="10">
         <f>IF(A4="", "", IFERROR(RANK(E4,$E$4:$E$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="G4" s="11" t="str">
+        <v>7</v>
+      </c>
+      <c r="G4" s="11">
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>36</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="10" t="str">
@@ -40018,7 +40055,7 @@
       </c>
       <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v>8.1712962962962963E-3</v>
+        <v>4.1712962962962959E-2</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -40044,7 +40081,9 @@
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>32</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="F5" s="10" t="str">
         <f t="shared" ref="F5:F68" si="1">IF(A5="", "", IFERROR(RANK(E5,$E$4:$E$300,1),"-"))</f>
         <v>-</v>
@@ -40062,9 +40101,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="26" t="str">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v>9.0972222222222218E-3</v>
+        <v>-</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -40090,14 +40129,16 @@
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="10" t="str">
+      <c r="E6" s="25">
+        <v>2.8912037037037038E-2</v>
+      </c>
+      <c r="F6" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G6" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11">
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="10" t="str">
@@ -40110,7 +40151,7 @@
       </c>
       <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v>7.9745370370370369E-3</v>
+        <v>3.6886574074074072E-2</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40136,14 +40177,16 @@
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="10" t="str">
+      <c r="E7" s="25">
+        <v>2.7291666666666662E-2</v>
+      </c>
+      <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G7" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="10" t="str">
@@ -40156,7 +40199,7 @@
       </c>
       <c r="K7" s="26">
         <f t="shared" si="3"/>
-        <v>7.4884259259259262E-3</v>
+        <v>3.4780092592592585E-2</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40182,7 +40225,9 @@
         <f>IF(A8="","", IFERROR(VLOOKUP(C8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>50</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>62</v>
+      </c>
       <c r="F8" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -40200,9 +40245,9 @@
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>8.1712962962962963E-3</v>
+        <v>-</v>
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40228,14 +40273,16 @@
         <f>IF(A9="","", IFERROR(VLOOKUP(C9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>60</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="10" t="str">
+      <c r="E9" s="25">
+        <v>3.0081018518518521E-2</v>
+      </c>
+      <c r="F9" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G9" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="G9" s="11">
         <f>IF(A9="","",IFERROR(VLOOKUP(F9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="10" t="str">
@@ -40248,7 +40295,7 @@
       </c>
       <c r="K9" s="26">
         <f t="shared" si="3"/>
-        <v>8.0555555555555554E-3</v>
+        <v>3.8136574074074073E-2</v>
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40274,14 +40321,16 @@
         <f>IF(A10="","", IFERROR(VLOOKUP(C10,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>40</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="10" t="str">
+      <c r="E10" s="25">
+        <v>2.9525462962962962E-2</v>
+      </c>
+      <c r="F10" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G10" s="11" t="str">
+        <v>3</v>
+      </c>
+      <c r="G10" s="11">
         <f>IF(A10="","",IFERROR(VLOOKUP(F10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="10" t="str">
@@ -40294,7 +40343,7 @@
       </c>
       <c r="K10" s="26">
         <f t="shared" si="3"/>
-        <v>8.2060185185185187E-3</v>
+        <v>3.7731481481481477E-2</v>
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40320,14 +40369,16 @@
         <f>IF(A11="","", IFERROR(VLOOKUP(C11,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>36</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="10" t="str">
+      <c r="E11" s="25">
+        <v>3.0405092592592591E-2</v>
+      </c>
+      <c r="F11" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G11" s="11" t="str">
+        <v>5</v>
+      </c>
+      <c r="G11" s="11">
         <f>IF(A11="","",IFERROR(VLOOKUP(F11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>45</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="10" t="str">
@@ -40340,7 +40391,7 @@
       </c>
       <c r="K11" s="26">
         <f t="shared" si="3"/>
-        <v>8.2407407407407412E-3</v>
+        <v>3.8645833333333331E-2</v>
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40352,45 +40403,51 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="C12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D12" s="11" t="str">
         <f>IF(A12="","", IFERROR(VLOOKUP(C12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="10" t="str">
+        <v>-</v>
+      </c>
+      <c r="E12" s="25">
+        <v>3.1736111111111111E-2</v>
+      </c>
+      <c r="F12" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G12" s="11" t="str">
+        <v>6</v>
+      </c>
+      <c r="G12" s="11">
         <f>IF(A12="","",IFERROR(VLOOKUP(F12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>40</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J12" s="12" t="str">
         <f>IF(A12="","",IFERROR(VLOOKUP(I12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K12" s="26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="L12" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M12" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -51080,11 +51137,11 @@
       </c>
       <c r="B4" s="25">
         <f>IF('K1'!A4="", "",'K1'!E4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>3.6516203703703703E-2</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K1'!A4="", "",'K1'!F4)</f>
-        <v>-</v>
+        <v>11</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="25"/>
@@ -51104,11 +51161,11 @@
       </c>
       <c r="B5" s="25">
         <f>IF('K1'!A5="", "",'K1'!E5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>3.078703703703704E-2</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K1'!A5="", "",'K1'!F5)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="25"/>
@@ -51126,9 +51183,9 @@
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
         <v>Granvold, Simen</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="25" t="str">
         <f>IF('K1'!A6="", "",'K1'!E6)</f>
-        <v>0</v>
+        <v>DNF</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K1'!A6="", "",'K1'!F6)</f>
@@ -51150,9 +51207,9 @@
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
         <v>Grobakken, Rune Hermundstad</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="25" t="str">
         <f>IF('K1'!A7="", "",'K1'!E7)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K1'!A7="", "",'K1'!F7)</f>
@@ -51176,11 +51233,11 @@
       </c>
       <c r="B8" s="25">
         <f>IF('K1'!A8="", "",'K1'!E8)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="37" t="str">
+        <v>3.1296296296296301E-2</v>
+      </c>
+      <c r="C8" s="37">
         <f>IF('K1'!A8="", "",'K1'!F8)</f>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="25"/>
@@ -51200,11 +51257,11 @@
       </c>
       <c r="B9" s="25">
         <f>IF('K1'!A9="", "",'K1'!E9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="37" t="str">
+        <v>3.3611111111111112E-2</v>
+      </c>
+      <c r="C9" s="37">
         <f>IF('K1'!A9="", "",'K1'!F9)</f>
-        <v>-</v>
+        <v>9</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="25"/>
@@ -51224,11 +51281,11 @@
       </c>
       <c r="B10" s="25">
         <f>IF('K1'!A10="", "",'K1'!E10)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="37" t="str">
+        <v>3.8460648148148147E-2</v>
+      </c>
+      <c r="C10" s="37">
         <f>IF('K1'!A10="", "",'K1'!F10)</f>
-        <v>-</v>
+        <v>12</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="25"/>
@@ -51248,11 +51305,11 @@
       </c>
       <c r="B11" s="25">
         <f>IF('K1'!A11="", "",'K1'!E11)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="37" t="str">
+        <v>3.3437500000000002E-2</v>
+      </c>
+      <c r="C11" s="37">
         <f>IF('K1'!A11="", "",'K1'!F11)</f>
-        <v>-</v>
+        <v>8</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="25"/>
@@ -51272,11 +51329,11 @@
       </c>
       <c r="B12" s="25">
         <f>IF('K1'!A12="", "",'K1'!E12)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="37" t="str">
+        <v>2.9699074074074072E-2</v>
+      </c>
+      <c r="C12" s="37">
         <f>IF('K1'!A12="", "",'K1'!F12)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="25"/>
@@ -51294,9 +51351,9 @@
         <f>IF('K1'!A13="", "",'K1'!A13)</f>
         <v>Seegard, Eirik</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="25" t="str">
         <f>IF('K1'!A13="", "",'K1'!E13)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C13" s="37" t="str">
         <f>IF('K1'!A13="", "",'K1'!F13)</f>
@@ -51320,11 +51377,11 @@
       </c>
       <c r="B14" s="25">
         <f>IF('K1'!A14="", "",'K1'!E14)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="37" t="str">
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="C14" s="37">
         <f>IF('K1'!A14="", "",'K1'!F14)</f>
-        <v>-</v>
+        <v>10</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="25"/>
@@ -51344,11 +51401,11 @@
       </c>
       <c r="B15" s="25">
         <f>IF('K1'!A15="", "",'K1'!E15)</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="37" t="str">
+        <v>3.0972222222222224E-2</v>
+      </c>
+      <c r="C15" s="37">
         <f>IF('K1'!A15="", "",'K1'!F15)</f>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="25"/>
@@ -51368,11 +51425,11 @@
       </c>
       <c r="B16" s="25">
         <f>IF('K1'!A16="", "",'K1'!E16)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="37" t="str">
+        <v>2.8900462962962961E-2</v>
+      </c>
+      <c r="C16" s="37">
         <f>IF('K1'!A16="", "",'K1'!F16)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="25"/>
@@ -51392,11 +51449,11 @@
       </c>
       <c r="B17" s="25">
         <f>IF('K1'!A17="", "",'K1'!E17)</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="37" t="str">
+        <v>2.9131944444444446E-2</v>
+      </c>
+      <c r="C17" s="37">
         <f>IF('K1'!A17="", "",'K1'!F17)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="25"/>
@@ -51416,11 +51473,11 @@
       </c>
       <c r="B18" s="25">
         <f>IF('K1'!A18="", "",'K1'!E18)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="37" t="str">
+        <v>3.2384259259259258E-2</v>
+      </c>
+      <c r="C18" s="37">
         <f>IF('K1'!A18="", "",'K1'!F18)</f>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="25"/>
@@ -51438,9 +51495,9 @@
         <f>IF('K1'!A19="", "",'K1'!A19)</f>
         <v>Stensvold, Trym</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="25" t="str">
         <f>IF('K1'!A19="", "",'K1'!E19)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C19" s="37" t="str">
         <f>IF('K1'!A19="", "",'K1'!F19)</f>
@@ -56188,15 +56245,15 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF('K2'!A12="", "",'K2'!A12)</f>
-        <v/>
+        <v>Stensvold, Trym</v>
       </c>
       <c r="B12" s="36" t="str">
         <f>IF('K2'!A12="", "",'K2'!B12)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C12" s="37" t="str">
         <f>IF('K2'!A12="", "",'K2'!C12)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="36"/>
@@ -58459,11 +58516,11 @@
       </c>
       <c r="B4" s="25">
         <f>IF('K2'!A4="", "",'K2'!E4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>3.3541666666666664E-2</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K2'!A4="", "",'K2'!F4)</f>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="25"/>
@@ -58481,9 +58538,9 @@
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
         <v>Brenna, Vidar</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="25" t="str">
         <f>IF('K2'!A5="", "",'K2'!E5)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K2'!A5="", "",'K2'!F5)</f>
@@ -58507,11 +58564,11 @@
       </c>
       <c r="B6" s="25">
         <f>IF('K2'!A6="", "",'K2'!E6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>2.8912037037037038E-2</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K2'!A6="", "",'K2'!F6)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="25"/>
@@ -58531,11 +58588,11 @@
       </c>
       <c r="B7" s="25">
         <f>IF('K2'!A7="", "",'K2'!E7)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="str">
+        <v>2.7291666666666662E-2</v>
+      </c>
+      <c r="C7" s="37">
         <f>IF('K2'!A7="", "",'K2'!F7)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="25"/>
@@ -58553,9 +58610,9 @@
         <f>IF('K2'!A8="", "",'K2'!A8)</f>
         <v>Seegaard, Kristoffer</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="25" t="str">
         <f>IF('K2'!A8="", "",'K2'!E8)</f>
-        <v>0</v>
+        <v>DNF</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K2'!A8="", "",'K2'!F8)</f>
@@ -58579,11 +58636,11 @@
       </c>
       <c r="B9" s="25">
         <f>IF('K2'!A9="", "",'K2'!E9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="37" t="str">
+        <v>3.0081018518518521E-2</v>
+      </c>
+      <c r="C9" s="37">
         <f>IF('K2'!A9="", "",'K2'!F9)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="25"/>
@@ -58603,11 +58660,11 @@
       </c>
       <c r="B10" s="25">
         <f>IF('K2'!A10="", "",'K2'!E10)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="37" t="str">
+        <v>2.9525462962962962E-2</v>
+      </c>
+      <c r="C10" s="37">
         <f>IF('K2'!A10="", "",'K2'!F10)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="25"/>
@@ -58627,11 +58684,11 @@
       </c>
       <c r="B11" s="25">
         <f>IF('K2'!A11="", "",'K2'!E11)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="37" t="str">
+        <v>3.0405092592592591E-2</v>
+      </c>
+      <c r="C11" s="37">
         <f>IF('K2'!A11="", "",'K2'!F11)</f>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="25"/>
@@ -58647,15 +58704,15 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="str">
         <f>IF('K2'!A12="", "",'K2'!A12)</f>
-        <v/>
-      </c>
-      <c r="B12" s="25" t="str">
+        <v>Stensvold, Trym</v>
+      </c>
+      <c r="B12" s="25">
         <f>IF('K2'!A12="", "",'K2'!E12)</f>
-        <v/>
-      </c>
-      <c r="C12" s="37" t="str">
+        <v>3.1736111111111111E-2</v>
+      </c>
+      <c r="C12" s="37">
         <f>IF('K2'!A12="", "",'K2'!F12)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="25"/>
@@ -61108,15 +61165,15 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF('K2'!A12="", "",'K2'!A12)</f>
-        <v/>
-      </c>
-      <c r="B12" s="36" t="str">
+        <v>Stensvold, Trym</v>
+      </c>
+      <c r="B12" s="36">
         <f>IF('K2'!A12="", "",'K2'!H12)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C12" s="37" t="str">
         <f>IF('K2'!A12="", "",'K2'!I12)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="25"/>

--- a/gutter-jr.xlsx
+++ b/gutter-jr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="880" windowWidth="29380" windowHeight="19860" tabRatio="991" activeTab="12"/>
+    <workbookView xWindow="2560" yWindow="880" windowWidth="29380" windowHeight="19860" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
     <definedName name="solver_ver" localSheetId="11">2</definedName>
     <definedName name="solver_ver" localSheetId="13">2</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="64">
   <si>
     <t>Dag1</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>DNF</t>
+  </si>
+  <si>
+    <t>Bratbak, Emil Robert Book</t>
   </si>
 </sst>
 </file>
@@ -12739,7 +12742,7 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
+    <sheetView topLeftCell="A89" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -20491,39 +20494,39 @@
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="str">
         <f>IF('K2'!A13="", "",'K2'!A13)</f>
-        <v/>
+        <v>Bratbak, Emil Robert Book</v>
       </c>
       <c r="B113" s="19" t="str">
         <f>IF('K2'!B13="", "",'K2'!B13)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C113" s="20" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="D113" s="23" t="str">
         <f>IF(A113="","",IFERROR(VLOOKUP(E113,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E113" s="23" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F113" s="19" t="str">
         <f>IF('K2'!E13="", "", 'K2'!E13)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G113" s="21" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H113" s="23" t="str">
         <f>IF(A113="","",IFERROR(VLOOKUP(I113,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I113" s="23" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J113" s="19" t="str">
         <f>IF('K2'!H13="", "", 'K2'!H13)</f>
@@ -20535,27 +20538,27 @@
       </c>
       <c r="L113" s="23" t="str">
         <f>IF(A113="","",IFERROR(VLOOKUP(M113,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M113" s="23" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N113" s="27" t="str">
         <f>IF('K2'!K13="", "", 'K2'!K13)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="O113" s="28" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="P113" s="23" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q113" s="23" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
@@ -36462,15 +36465,15 @@
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="39" t="str">
         <f>IF(D1D2D3!A113="", "",D1D2D3!A113)</f>
-        <v/>
+        <v>Bratbak, Emil Robert Book</v>
       </c>
       <c r="B113" s="41" t="str">
         <f>IF(D1D2D3!A113="", "",D1D2D3!P113)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C113" s="37" t="str">
         <f>IF(D1D2D3!A113="", "",D1D2D3!Q113)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -39926,8 +39929,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40451,45 +40454,51 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="C13" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D13" s="11" t="str">
         <f>IF(A13="","", IFERROR(VLOOKUP(C13,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="E13" s="25"/>
+        <v>-</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="F13" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G13" s="11" t="str">
         <f>IF(A13="","",IFERROR(VLOOKUP(F13,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J13" s="12" t="str">
         <f>IF(A13="","",IFERROR(VLOOKUP(I13,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K13" s="26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="L13" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M13" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -56269,15 +56278,15 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF('K2'!A13="", "",'K2'!A13)</f>
-        <v/>
+        <v>Bratbak, Emil Robert Book</v>
       </c>
       <c r="B13" s="36" t="str">
         <f>IF('K2'!A13="", "",'K2'!B13)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C13" s="37" t="str">
         <f>IF('K2'!A13="", "",'K2'!C13)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="36"/>
@@ -58728,15 +58737,15 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="str">
         <f>IF('K2'!A13="", "",'K2'!A13)</f>
-        <v/>
+        <v>Bratbak, Emil Robert Book</v>
       </c>
       <c r="B13" s="25" t="str">
         <f>IF('K2'!A13="", "",'K2'!E13)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C13" s="37" t="str">
         <f>IF('K2'!A13="", "",'K2'!F13)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="25"/>
@@ -61189,15 +61198,15 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF('K2'!A13="", "",'K2'!A13)</f>
-        <v/>
-      </c>
-      <c r="B13" s="36" t="str">
+        <v>Bratbak, Emil Robert Book</v>
+      </c>
+      <c r="B13" s="36">
         <f>IF('K2'!A13="", "",'K2'!H13)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C13" s="37" t="str">
         <f>IF('K2'!A13="", "",'K2'!I13)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="25"/>

--- a/gutter-jr.xlsx
+++ b/gutter-jr.xlsx
@@ -145,7 +145,7 @@
     <definedName name="solver_ver" localSheetId="11">2</definedName>
     <definedName name="solver_ver" localSheetId="13">2</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="64">
   <si>
     <t>Dag1</t>
   </si>
@@ -956,7 +956,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1216,7 +1216,9 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="I7" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1264,7 +1266,9 @@
         <f>IF(A8="","",IFERROR(VLOOKUP(F8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>40</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="I8" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1273,9 +1277,9 @@
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>3.9849537037037044E-2</v>
+        <v>-</v>
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1312,7 +1316,9 @@
         <f>IF(A9="","",IFERROR(VLOOKUP(F9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>29</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="I9" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1321,9 +1327,9 @@
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>4.4050925925925924E-2</v>
+        <v>-</v>
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1648,7 +1654,9 @@
         <f>IF(A16="","",IFERROR(VLOOKUP(F16,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="H16" s="25"/>
+      <c r="H16" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="I16" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1696,7 +1704,9 @@
         <f>IF(A17="","",IFERROR(VLOOKUP(F17,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="H17" s="25"/>
+      <c r="H17" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="I17" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1792,7 +1802,9 @@
         <f>IF(A19="","",IFERROR(VLOOKUP(F19,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H19" s="25"/>
+      <c r="H19" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="I19" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -13180,11 +13192,11 @@
       </c>
       <c r="J8" s="19" t="str">
         <f>IF('K1'!H8="", "", 'K1'!H8)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K8" s="29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L8" s="23" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(M8,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13194,13 +13206,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="27" t="str">
         <f>IF('K1'!K8="", "", 'K1'!K8)</f>
-        <v>3.9849537037037044E-2</v>
-      </c>
-      <c r="O8" s="28">
+        <v>-</v>
+      </c>
+      <c r="O8" s="28" t="str">
         <f t="shared" si="6"/>
-        <v>3.9849537037037044E-2</v>
+        <v>-</v>
       </c>
       <c r="P8" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13250,11 +13262,11 @@
       </c>
       <c r="J9" s="19" t="str">
         <f>IF('K1'!H9="", "", 'K1'!H9)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K9" s="29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L9" s="23" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(M9,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13264,13 +13276,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="27" t="str">
         <f>IF('K1'!K9="", "", 'K1'!K9)</f>
-        <v>4.4050925925925924E-2</v>
-      </c>
-      <c r="O9" s="28">
+        <v>-</v>
+      </c>
+      <c r="O9" s="28" t="str">
         <f t="shared" si="6"/>
-        <v>4.4050925925925924E-2</v>
+        <v>-</v>
       </c>
       <c r="P9" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13740,11 +13752,11 @@
       </c>
       <c r="J16" s="19" t="str">
         <f>IF('K1'!H16="", "", 'K1'!H16)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K16" s="29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L16" s="23" t="str">
         <f>IF(A16="","",IFERROR(VLOOKUP(M16,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13810,11 +13822,11 @@
       </c>
       <c r="J17" s="19" t="str">
         <f>IF('K1'!H17="", "", 'K1'!H17)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K17" s="29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L17" s="23" t="str">
         <f>IF(A17="","",IFERROR(VLOOKUP(M17,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13950,11 +13962,11 @@
       </c>
       <c r="J19" s="19" t="str">
         <f>IF('K1'!H19="", "", 'K1'!H19)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K19" s="29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L19" s="23" t="str">
         <f>IF(A19="","",IFERROR(VLOOKUP(M19,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -19970,11 +19982,11 @@
       </c>
       <c r="J105" s="19" t="str">
         <f>IF('K2'!H4="", "", 'K2'!H4)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K105" s="29" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L105" s="23" t="str">
         <f>IF(A105="","",IFERROR(VLOOKUP(M105,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -19984,13 +19996,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N105" s="27">
+      <c r="N105" s="27" t="str">
         <f>IF('K2'!K4="", "", 'K2'!K4)</f>
-        <v>4.1712962962962959E-2</v>
-      </c>
-      <c r="O105" s="28">
+        <v>-</v>
+      </c>
+      <c r="O105" s="28" t="str">
         <f t="shared" si="15"/>
-        <v>4.1712962962962959E-2</v>
+        <v>-</v>
       </c>
       <c r="P105" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20180,11 +20192,11 @@
       </c>
       <c r="J108" s="19" t="str">
         <f>IF('K2'!H8="", "", 'K2'!H8)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K108" s="29" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L108" s="23" t="str">
         <f>IF(A108="","",IFERROR(VLOOKUP(M108,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -20390,11 +20402,11 @@
       </c>
       <c r="J111" s="19" t="str">
         <f>IF('K2'!H11="", "", 'K2'!H11)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K111" s="29" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L111" s="23" t="str">
         <f>IF(A111="","",IFERROR(VLOOKUP(M111,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -20404,13 +20416,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N111" s="27">
+      <c r="N111" s="27" t="str">
         <f>IF('K2'!K11="", "", 'K2'!K11)</f>
-        <v>3.8645833333333331E-2</v>
-      </c>
-      <c r="O111" s="28">
+        <v>-</v>
+      </c>
+      <c r="O111" s="28" t="str">
         <f t="shared" si="15"/>
-        <v>3.8645833333333331E-2</v>
+        <v>-</v>
       </c>
       <c r="P111" s="23" t="str">
         <f t="shared" si="17"/>
@@ -20460,11 +20472,11 @@
       </c>
       <c r="J112" s="19" t="str">
         <f>IF('K2'!H12="", "", 'K2'!H12)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K112" s="29" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L112" s="23" t="str">
         <f>IF(A112="","",IFERROR(VLOOKUP(M112,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -20530,11 +20542,11 @@
       </c>
       <c r="J113" s="19" t="str">
         <f>IF('K2'!H13="", "", 'K2'!H13)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K113" s="29" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L113" s="23" t="str">
         <f>IF(A113="","",IFERROR(VLOOKUP(M113,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -26900,11 +26912,11 @@
       </c>
       <c r="J204" s="19" t="str">
         <f>IF('K2'!H5="", "", 'K2'!H5)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K204" s="29" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L204" s="23" t="str">
         <f>IF(A204="","",IFERROR(VLOOKUP(M204,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -26970,11 +26982,11 @@
       </c>
       <c r="J205" s="19" t="str">
         <f>IF('K1'!H7="", "", 'K1'!H7)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K205" s="29" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L205" s="23" t="str">
         <f>IF(A205="","",IFERROR(VLOOKUP(M205,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -39930,7 +39942,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40047,7 +40059,9 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>36</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="I4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(H4,$H$4:$H$300,1),"-"))</f>
         <v>-</v>
@@ -40056,9 +40070,9 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="26" t="str">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v>4.1712962962962959E-2</v>
+        <v>-</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -40095,7 +40109,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="I5" s="10" t="str">
         <f t="shared" ref="I5:I68" si="2">IF(A5="","",IFERROR(RANK(H5,$H$4:$H$300,1),"-"))</f>
         <v>-</v>
@@ -40239,7 +40255,9 @@
         <f>IF(A8="","",IFERROR(VLOOKUP(F8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="I8" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -40383,7 +40401,9 @@
         <f>IF(A11="","",IFERROR(VLOOKUP(F11,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>45</v>
       </c>
-      <c r="H11" s="25"/>
+      <c r="H11" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="I11" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -40392,9 +40412,9 @@
         <f>IF(A11="","",IFERROR(VLOOKUP(I11,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>3.8645833333333331E-2</v>
+        <v>-</v>
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="4"/>
@@ -40431,7 +40451,9 @@
         <f>IF(A12="","",IFERROR(VLOOKUP(F12,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>40</v>
       </c>
-      <c r="H12" s="25"/>
+      <c r="H12" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="I12" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -40479,7 +40501,9 @@
         <f>IF(A13="","",IFERROR(VLOOKUP(F13,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="I13" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -53677,9 +53701,9 @@
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
         <v>Grobakken, Rune Hermundstad</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="36" t="str">
         <f>IF('K1'!A7="", "",'K1'!H7)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K1'!A7="", "",'K1'!I7)</f>
@@ -53701,9 +53725,9 @@
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
         <v>Haugnes, Mathias Bjerregård</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="36" t="str">
         <f>IF('K1'!A8="", "",'K1'!H8)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K1'!A8="", "",'K1'!I8)</f>
@@ -53725,9 +53749,9 @@
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
         <v>Kvale, Nils Henrik</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="36" t="str">
         <f>IF('K1'!A9="", "",'K1'!H9)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K1'!A9="", "",'K1'!I9)</f>
@@ -53893,9 +53917,9 @@
         <f>IF('K1'!A16="", "",'K1'!A16)</f>
         <v>Evensen, Ansgar</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="36" t="str">
         <f>IF('K1'!A16="", "",'K1'!H16)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C16" s="37" t="str">
         <f>IF('K1'!A16="", "",'K1'!I16)</f>
@@ -53917,9 +53941,9 @@
         <f>IF('K1'!A17="", "",'K1'!A17)</f>
         <v>Karsrud, Kristoffer Alm</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="36" t="str">
         <f>IF('K1'!A17="", "",'K1'!H17)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C17" s="37" t="str">
         <f>IF('K1'!A17="", "",'K1'!I17)</f>
@@ -53965,9 +53989,9 @@
         <f>IF('K1'!A19="", "",'K1'!A19)</f>
         <v>Stensvold, Trym</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="36" t="str">
         <f>IF('K1'!A19="", "",'K1'!H19)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C19" s="37" t="str">
         <f>IF('K1'!A19="", "",'K1'!I19)</f>
@@ -60984,9 +61008,9 @@
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
         <v>Bossum, Andreas</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="36" t="str">
         <f>IF('K2'!A4="", "",'K2'!H4)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K2'!A4="", "",'K2'!I4)</f>
@@ -61008,9 +61032,9 @@
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
         <v>Brenna, Vidar</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="36" t="str">
         <f>IF('K2'!A5="", "",'K2'!H5)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K2'!A5="", "",'K2'!I5)</f>
@@ -61080,9 +61104,9 @@
         <f>IF('K2'!A8="", "",'K2'!A8)</f>
         <v>Seegaard, Kristoffer</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="36" t="str">
         <f>IF('K2'!A8="", "",'K2'!H8)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K2'!A8="", "",'K2'!I8)</f>
@@ -61152,9 +61176,9 @@
         <f>IF('K2'!A11="", "",'K2'!A11)</f>
         <v>Jacobsen, Kristian</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="36" t="str">
         <f>IF('K2'!A11="", "",'K2'!H11)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF('K2'!A11="", "",'K2'!I11)</f>
@@ -61176,9 +61200,9 @@
         <f>IF('K2'!A12="", "",'K2'!A12)</f>
         <v>Stensvold, Trym</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="36" t="str">
         <f>IF('K2'!A12="", "",'K2'!H12)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C12" s="37" t="str">
         <f>IF('K2'!A12="", "",'K2'!I12)</f>
@@ -61200,9 +61224,9 @@
         <f>IF('K2'!A13="", "",'K2'!A13)</f>
         <v>Bratbak, Emil Robert Book</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="36" t="str">
         <f>IF('K2'!A13="", "",'K2'!H13)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C13" s="37" t="str">
         <f>IF('K2'!A13="", "",'K2'!I13)</f>

--- a/gutter-jr.xlsx
+++ b/gutter-jr.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anr/Dropbox/Documents/Torpa-IL/Synnfjell Arrangementer AS/TdS-2017/resultater/tds/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="880" windowWidth="29380" windowHeight="19860" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="2560" yWindow="900" windowWidth="29380" windowHeight="19860" tabRatio="991" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="64">
   <si>
     <t>Dag1</t>
   </si>
@@ -363,7 +363,7 @@
     <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -373,6 +373,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -956,7 +961,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1072,26 +1077,28 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>24</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="10" t="str">
+      <c r="H4" s="25">
+        <v>7.7002314814814815E-2</v>
+      </c>
+      <c r="I4" s="10">
         <f>IF(A4="","",IFERROR(RANK(H4,$H$4:$H$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="J4" s="12" t="str">
+        <v>7</v>
+      </c>
+      <c r="J4" s="12">
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>36</v>
       </c>
       <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v>4.5185185185185182E-2</v>
-      </c>
-      <c r="L4" s="10" t="str">
+        <v>0.1221875</v>
+      </c>
+      <c r="L4" s="10">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M4" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="M4" s="12">
         <f>IF(A4="","",IFERROR(IF(D4+G4+J4=0,"0",D4+G4+J4),"-"))</f>
-        <v>-</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1120,26 +1127,28 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>50</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="10" t="str">
+      <c r="H5" s="25">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I5" s="10">
         <f t="shared" ref="I5:I68" si="2">IF(A5="","",IFERROR(RANK(H5,$H$4:$H$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="J5" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12">
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v>3.8912037037037037E-2</v>
-      </c>
-      <c r="L5" s="10" t="str">
+        <v>0.1055787037037037</v>
+      </c>
+      <c r="L5" s="10">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M5" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="M5" s="12">
         <f t="shared" ref="M5:M68" si="5">IF(A5="","",IFERROR(IF(D5+G5+J5=0,"0",D5+G5+J5),"-"))</f>
-        <v>-</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1168,14 +1177,16 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="10" t="str">
+      <c r="H6" s="25">
+        <v>6.9525462962962969E-2</v>
+      </c>
+      <c r="I6" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J6" s="12" t="str">
+        <v>3</v>
+      </c>
+      <c r="J6" s="12">
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="K6" s="26" t="str">
         <f t="shared" si="3"/>
@@ -1366,26 +1377,28 @@
         <f>IF(A10="","",IFERROR(VLOOKUP(F10,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>22</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="10" t="str">
+      <c r="H10" s="25">
+        <v>7.4120370370370378E-2</v>
+      </c>
+      <c r="I10" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J10" s="12" t="str">
+        <v>6</v>
+      </c>
+      <c r="J10" s="12">
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>40</v>
       </c>
       <c r="K10" s="26">
         <f t="shared" si="3"/>
-        <v>4.8726851851851848E-2</v>
-      </c>
-      <c r="L10" s="10" t="str">
+        <v>0.12284722222222222</v>
+      </c>
+      <c r="L10" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M10" s="12" t="str">
+        <v>7</v>
+      </c>
+      <c r="M10" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1414,26 +1427,28 @@
         <f>IF(A11="","",IFERROR(VLOOKUP(F11,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>32</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="10" t="str">
+      <c r="H11" s="25">
+        <v>7.7361111111111117E-2</v>
+      </c>
+      <c r="I11" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J11" s="12" t="str">
+        <v>8</v>
+      </c>
+      <c r="J11" s="12">
         <f>IF(A11="","",IFERROR(VLOOKUP(I11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>32</v>
       </c>
       <c r="K11" s="26">
         <f t="shared" si="3"/>
-        <v>4.2314814814814819E-2</v>
-      </c>
-      <c r="L11" s="10" t="str">
+        <v>0.11967592592592594</v>
+      </c>
+      <c r="L11" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M11" s="12" t="str">
+        <v>5</v>
+      </c>
+      <c r="M11" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1462,26 +1477,28 @@
         <f>IF(A12="","",IFERROR(VLOOKUP(F12,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>60</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="10" t="str">
+      <c r="H12" s="25">
+        <v>7.2256944444444443E-2</v>
+      </c>
+      <c r="I12" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J12" s="12" t="str">
+        <v>5</v>
+      </c>
+      <c r="J12" s="12">
         <f>IF(A12="","",IFERROR(VLOOKUP(I12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>45</v>
       </c>
       <c r="K12" s="26">
         <f t="shared" si="3"/>
-        <v>3.8738425925925926E-2</v>
-      </c>
-      <c r="L12" s="10" t="str">
+        <v>0.11099537037037037</v>
+      </c>
+      <c r="L12" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M12" s="12" t="str">
+        <v>3</v>
+      </c>
+      <c r="M12" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1510,7 +1527,9 @@
         <f>IF(A13="","",IFERROR(VLOOKUP(F13,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="25" t="s">
+        <v>62</v>
+      </c>
       <c r="I13" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1558,26 +1577,28 @@
         <f>IF(A14="","",IFERROR(VLOOKUP(F14,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>26</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="10" t="str">
+      <c r="H14" s="25">
+        <v>7.8449074074074074E-2</v>
+      </c>
+      <c r="I14" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J14" s="12" t="str">
+        <v>9</v>
+      </c>
+      <c r="J14" s="12">
         <f>IF(A14="","",IFERROR(VLOOKUP(I14,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>29</v>
       </c>
       <c r="K14" s="26">
         <f t="shared" si="3"/>
-        <v>4.3703703703703703E-2</v>
-      </c>
-      <c r="L14" s="10" t="str">
+        <v>0.12215277777777778</v>
+      </c>
+      <c r="L14" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M14" s="12" t="str">
+        <v>6</v>
+      </c>
+      <c r="M14" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1606,26 +1627,28 @@
         <f>IF(A15="","",IFERROR(VLOOKUP(F15,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>45</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="10" t="str">
+      <c r="H15" s="25">
+        <v>7.0462962962962963E-2</v>
+      </c>
+      <c r="I15" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J15" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="J15" s="12">
         <f>IF(A15="","",IFERROR(VLOOKUP(I15,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="K15" s="26">
         <f t="shared" si="3"/>
-        <v>3.9039351851851853E-2</v>
-      </c>
-      <c r="L15" s="10" t="str">
+        <v>0.10950231481481482</v>
+      </c>
+      <c r="L15" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M15" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="M15" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1754,14 +1777,16 @@
         <f>IF(A18="","",IFERROR(VLOOKUP(F18,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>36</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="10" t="str">
+      <c r="H18" s="25">
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="I18" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J18" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="J18" s="12">
         <f>IF(A18="","",IFERROR(VLOOKUP(I18,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="K18" s="26" t="str">
         <f t="shared" si="3"/>
@@ -13050,37 +13075,37 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J6" s="19" t="str">
+      <c r="J6" s="19">
         <f>IF('K2'!H7="", "", 'K2'!H7)</f>
-        <v/>
-      </c>
-      <c r="K6" s="29" t="str">
+        <v>6.2881944444444449E-2</v>
+      </c>
+      <c r="K6" s="29">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L6" s="23" t="str">
+        <v>6.2881944444444449E-2</v>
+      </c>
+      <c r="L6" s="23">
         <f>IF(A6="","",IFERROR(VLOOKUP(M6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M6" s="23" t="str">
+        <v>100</v>
+      </c>
+      <c r="M6" s="23">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="N6" s="27">
         <f>IF('K2'!K7="", "", 'K2'!K7)</f>
-        <v>3.4780092592592585E-2</v>
+        <v>9.7662037037037033E-2</v>
       </c>
       <c r="O6" s="28">
         <f t="shared" si="6"/>
-        <v>3.4780092592592585E-2</v>
-      </c>
-      <c r="P6" s="23" t="str">
+        <v>9.7662037037037033E-2</v>
+      </c>
+      <c r="P6" s="23">
         <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="Q6" s="23" t="str">
+        <v>300</v>
+      </c>
+      <c r="Q6" s="23">
         <f t="shared" si="7"/>
-        <v>-</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -13120,37 +13145,37 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="J7" s="19" t="str">
+      <c r="J7" s="19">
         <f>IF('K1'!H4="", "", 'K1'!H4)</f>
-        <v/>
-      </c>
-      <c r="K7" s="29" t="str">
+        <v>7.7002314814814815E-2</v>
+      </c>
+      <c r="K7" s="29">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L7" s="23" t="str">
+        <v>7.7002314814814815E-2</v>
+      </c>
+      <c r="L7" s="23">
         <f>IF(A7="","",IFERROR(VLOOKUP(M7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M7" s="23" t="str">
+        <v>20</v>
+      </c>
+      <c r="M7" s="23">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>13</v>
       </c>
       <c r="N7" s="27">
         <f>IF('K1'!K4="", "", 'K1'!K4)</f>
-        <v>4.5185185185185182E-2</v>
+        <v>0.1221875</v>
       </c>
       <c r="O7" s="28">
         <f t="shared" si="6"/>
-        <v>4.5185185185185182E-2</v>
-      </c>
-      <c r="P7" s="23" t="str">
+        <v>0.1221875</v>
+      </c>
+      <c r="P7" s="23">
         <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="Q7" s="23" t="str">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="23">
         <f t="shared" si="7"/>
-        <v>-</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -13330,37 +13355,37 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="J10" s="19" t="str">
+      <c r="J10" s="19">
         <f>IF('K1'!H10="", "", 'K1'!H10)</f>
-        <v/>
-      </c>
-      <c r="K10" s="29" t="str">
+        <v>7.4120370370370378E-2</v>
+      </c>
+      <c r="K10" s="29">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L10" s="23" t="str">
+        <v>7.4120370370370378E-2</v>
+      </c>
+      <c r="L10" s="23">
         <f>IF(A10="","",IFERROR(VLOOKUP(M10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M10" s="23" t="str">
+        <v>22</v>
+      </c>
+      <c r="M10" s="23">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>12</v>
       </c>
       <c r="N10" s="27">
         <f>IF('K1'!K10="", "", 'K1'!K10)</f>
-        <v>4.8726851851851848E-2</v>
+        <v>0.12284722222222222</v>
       </c>
       <c r="O10" s="28">
         <f t="shared" si="6"/>
-        <v>4.8726851851851848E-2</v>
-      </c>
-      <c r="P10" s="23" t="str">
+        <v>0.12284722222222222</v>
+      </c>
+      <c r="P10" s="23">
         <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="Q10" s="23" t="str">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="23">
         <f t="shared" si="7"/>
-        <v>-</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -13400,37 +13425,37 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="J11" s="19" t="str">
+      <c r="J11" s="19">
         <f>IF('K1'!H11="", "", 'K1'!H11)</f>
-        <v/>
-      </c>
-      <c r="K11" s="29" t="str">
+        <v>7.7361111111111117E-2</v>
+      </c>
+      <c r="K11" s="29">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L11" s="23" t="str">
+        <v>7.7361111111111117E-2</v>
+      </c>
+      <c r="L11" s="23">
         <f>IF(A11="","",IFERROR(VLOOKUP(M11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M11" s="23" t="str">
+        <v>18</v>
+      </c>
+      <c r="M11" s="23">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>14</v>
       </c>
       <c r="N11" s="27">
         <f>IF('K1'!K11="", "", 'K1'!K11)</f>
-        <v>4.2314814814814819E-2</v>
+        <v>0.11967592592592594</v>
       </c>
       <c r="O11" s="28">
         <f t="shared" si="6"/>
-        <v>4.2314814814814819E-2</v>
-      </c>
-      <c r="P11" s="23" t="str">
+        <v>0.11967592592592594</v>
+      </c>
+      <c r="P11" s="23">
         <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="Q11" s="23" t="str">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="23">
         <f t="shared" si="7"/>
-        <v>-</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -13470,37 +13495,37 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="J12" s="19" t="str">
+      <c r="J12" s="19">
         <f>IF('K1'!H12="", "", 'K1'!H12)</f>
-        <v/>
-      </c>
-      <c r="K12" s="29" t="str">
+        <v>7.2256944444444443E-2</v>
+      </c>
+      <c r="K12" s="29">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L12" s="23" t="str">
+        <v>7.2256944444444443E-2</v>
+      </c>
+      <c r="L12" s="23">
         <f>IF(A12="","",IFERROR(VLOOKUP(M12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M12" s="23" t="str">
+        <v>24</v>
+      </c>
+      <c r="M12" s="23">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>11</v>
       </c>
       <c r="N12" s="27">
         <f>IF('K1'!K12="", "", 'K1'!K12)</f>
-        <v>3.8738425925925926E-2</v>
+        <v>0.11099537037037037</v>
       </c>
       <c r="O12" s="28">
         <f t="shared" si="6"/>
-        <v>3.8738425925925926E-2</v>
-      </c>
-      <c r="P12" s="23" t="str">
+        <v>0.11099537037037037</v>
+      </c>
+      <c r="P12" s="23">
         <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="Q12" s="23" t="str">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="23">
         <f t="shared" si="7"/>
-        <v>-</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -13542,11 +13567,11 @@
       </c>
       <c r="J13" s="19" t="str">
         <f>IF('K1'!H13="", "", 'K1'!H13)</f>
-        <v/>
+        <v>DNF</v>
       </c>
       <c r="K13" s="29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>DNF</v>
       </c>
       <c r="L13" s="23" t="str">
         <f>IF(A13="","",IFERROR(VLOOKUP(M13,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13610,37 +13635,37 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="J14" s="19" t="str">
+      <c r="J14" s="19">
         <f>IF('K1'!H14="", "", 'K1'!H14)</f>
-        <v/>
-      </c>
-      <c r="K14" s="29" t="str">
+        <v>7.8449074074074074E-2</v>
+      </c>
+      <c r="K14" s="29">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L14" s="23" t="str">
+        <v>7.8449074074074074E-2</v>
+      </c>
+      <c r="L14" s="23">
         <f>IF(A14="","",IFERROR(VLOOKUP(M14,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M14" s="23" t="str">
+        <v>16</v>
+      </c>
+      <c r="M14" s="23">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>15</v>
       </c>
       <c r="N14" s="27">
         <f>IF('K1'!K14="", "", 'K1'!K14)</f>
-        <v>4.3703703703703703E-2</v>
+        <v>0.12215277777777778</v>
       </c>
       <c r="O14" s="28">
         <f t="shared" si="6"/>
-        <v>4.3703703703703703E-2</v>
-      </c>
-      <c r="P14" s="23" t="str">
+        <v>0.12215277777777778</v>
+      </c>
+      <c r="P14" s="23">
         <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="Q14" s="23" t="str">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="23">
         <f t="shared" si="7"/>
-        <v>-</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -13680,37 +13705,37 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J15" s="19" t="str">
+      <c r="J15" s="19">
         <f>IF('K1'!H15="", "", 'K1'!H15)</f>
-        <v/>
-      </c>
-      <c r="K15" s="29" t="str">
+        <v>7.0462962962962963E-2</v>
+      </c>
+      <c r="K15" s="29">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L15" s="23" t="str">
+        <v>7.0462962962962963E-2</v>
+      </c>
+      <c r="L15" s="23">
         <f>IF(A15="","",IFERROR(VLOOKUP(M15,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M15" s="23" t="str">
+        <v>29</v>
+      </c>
+      <c r="M15" s="23">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>9</v>
       </c>
       <c r="N15" s="27">
         <f>IF('K1'!K15="", "", 'K1'!K15)</f>
-        <v>3.9039351851851853E-2</v>
+        <v>0.10950231481481482</v>
       </c>
       <c r="O15" s="28">
         <f t="shared" si="6"/>
-        <v>3.9039351851851853E-2</v>
-      </c>
-      <c r="P15" s="23" t="str">
+        <v>0.10950231481481482</v>
+      </c>
+      <c r="P15" s="23">
         <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="Q15" s="23" t="str">
+        <v>105</v>
+      </c>
+      <c r="Q15" s="23">
         <f t="shared" si="7"/>
-        <v>-</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -13890,21 +13915,21 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="J18" s="19" t="str">
+      <c r="J18" s="19">
         <f>IF('K1'!H18="", "", 'K1'!H18)</f>
-        <v/>
-      </c>
-      <c r="K18" s="29" t="str">
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="K18" s="29">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L18" s="23" t="str">
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="L18" s="23">
         <f>IF(A18="","",IFERROR(VLOOKUP(M18,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M18" s="23" t="str">
+        <v>40</v>
+      </c>
+      <c r="M18" s="23">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="N18" s="27" t="str">
         <f>IF('K1'!K18="", "", 'K1'!K18)</f>
@@ -20050,37 +20075,37 @@
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="J106" s="19" t="str">
+      <c r="J106" s="19">
         <f>IF('K1'!H5="", "", 'K1'!H5)</f>
-        <v/>
-      </c>
-      <c r="K106" s="29" t="str">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K106" s="29">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L106" s="23" t="str">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L106" s="23">
         <f>IF(A106="","",IFERROR(VLOOKUP(M106,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M106" s="23" t="str">
+        <v>50</v>
+      </c>
+      <c r="M106" s="23">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="N106" s="27">
         <f>IF('K1'!K5="", "", 'K1'!K5)</f>
-        <v>3.8912037037037037E-2</v>
+        <v>0.1055787037037037</v>
       </c>
       <c r="O106" s="28">
         <f t="shared" si="15"/>
-        <v>3.8912037037037037E-2</v>
-      </c>
-      <c r="P106" s="23" t="str">
+        <v>0.1055787037037037</v>
+      </c>
+      <c r="P106" s="23">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="Q106" s="23" t="str">
+        <v>124</v>
+      </c>
+      <c r="Q106" s="23">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
@@ -20120,37 +20145,37 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="J107" s="19" t="str">
+      <c r="J107" s="19">
         <f>IF('K2'!H6="", "", 'K2'!H6)</f>
-        <v/>
-      </c>
-      <c r="K107" s="29" t="str">
+        <v>6.8541666666666667E-2</v>
+      </c>
+      <c r="K107" s="29">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L107" s="23" t="str">
+        <v>6.8541666666666667E-2</v>
+      </c>
+      <c r="L107" s="23">
         <f>IF(A107="","",IFERROR(VLOOKUP(M107,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M107" s="23" t="str">
+        <v>45</v>
+      </c>
+      <c r="M107" s="23">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="N107" s="27">
         <f>IF('K2'!K6="", "", 'K2'!K6)</f>
-        <v>3.6886574074074072E-2</v>
+        <v>0.10542824074074074</v>
       </c>
       <c r="O107" s="28">
         <f t="shared" si="15"/>
-        <v>3.6886574074074072E-2</v>
-      </c>
-      <c r="P107" s="23" t="str">
+        <v>0.10542824074074074</v>
+      </c>
+      <c r="P107" s="23">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="Q107" s="23" t="str">
+        <v>185</v>
+      </c>
+      <c r="Q107" s="23">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
@@ -20260,37 +20285,37 @@
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="J109" s="19" t="str">
+      <c r="J109" s="19">
         <f>IF('K2'!H9="", "", 'K2'!H9)</f>
-        <v/>
-      </c>
-      <c r="K109" s="29" t="str">
+        <v>6.9594907407407411E-2</v>
+      </c>
+      <c r="K109" s="29">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L109" s="23" t="str">
+        <v>6.9594907407407411E-2</v>
+      </c>
+      <c r="L109" s="23">
         <f>IF(A109="","",IFERROR(VLOOKUP(M109,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M109" s="23" t="str">
+        <v>32</v>
+      </c>
+      <c r="M109" s="23">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>8</v>
       </c>
       <c r="N109" s="27">
         <f>IF('K2'!K9="", "", 'K2'!K9)</f>
-        <v>3.8136574074074073E-2</v>
+        <v>0.10773148148148148</v>
       </c>
       <c r="O109" s="28">
         <f t="shared" si="15"/>
-        <v>3.8136574074074073E-2</v>
-      </c>
-      <c r="P109" s="23" t="str">
+        <v>0.10773148148148148</v>
+      </c>
+      <c r="P109" s="23">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="Q109" s="23" t="str">
+        <v>128</v>
+      </c>
+      <c r="Q109" s="23">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
@@ -20330,37 +20355,37 @@
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="J110" s="19" t="str">
+      <c r="J110" s="19">
         <f>IF('K2'!H10="", "", 'K2'!H10)</f>
-        <v/>
-      </c>
-      <c r="K110" s="29" t="str">
+        <v>6.6377314814814806E-2</v>
+      </c>
+      <c r="K110" s="29">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L110" s="23" t="str">
+        <v>6.6377314814814806E-2</v>
+      </c>
+      <c r="L110" s="23">
         <f>IF(A110="","",IFERROR(VLOOKUP(M110,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M110" s="23" t="str">
+        <v>80</v>
+      </c>
+      <c r="M110" s="23">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="N110" s="27">
         <f>IF('K2'!K10="", "", 'K2'!K10)</f>
-        <v>3.7731481481481477E-2</v>
+        <v>0.10410879629629628</v>
       </c>
       <c r="O110" s="28">
         <f t="shared" si="15"/>
-        <v>3.7731481481481477E-2</v>
-      </c>
-      <c r="P110" s="23" t="str">
+        <v>0.10410879629629628</v>
+      </c>
+      <c r="P110" s="23">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="Q110" s="23" t="str">
+        <v>157</v>
+      </c>
+      <c r="Q110" s="23">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
@@ -20400,37 +20425,37 @@
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="J111" s="19" t="str">
+      <c r="J111" s="19">
         <f>IF('K2'!H11="", "", 'K2'!H11)</f>
-        <v>DNS</v>
-      </c>
-      <c r="K111" s="29" t="str">
+        <v>7.104166666666667E-2</v>
+      </c>
+      <c r="K111" s="29">
         <f t="shared" si="13"/>
-        <v>DNS</v>
-      </c>
-      <c r="L111" s="23" t="str">
+        <v>7.104166666666667E-2</v>
+      </c>
+      <c r="L111" s="23">
         <f>IF(A111="","",IFERROR(VLOOKUP(M111,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M111" s="23" t="str">
+        <v>26</v>
+      </c>
+      <c r="M111" s="23">
         <f t="shared" si="14"/>
-        <v>-</v>
-      </c>
-      <c r="N111" s="27" t="str">
+        <v>10</v>
+      </c>
+      <c r="N111" s="27">
         <f>IF('K2'!K11="", "", 'K2'!K11)</f>
-        <v>-</v>
-      </c>
-      <c r="O111" s="28" t="str">
+        <v>0.10968749999999999</v>
+      </c>
+      <c r="O111" s="28">
         <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="P111" s="23" t="str">
+        <v>0.10968749999999999</v>
+      </c>
+      <c r="P111" s="23">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="Q111" s="23" t="str">
+        <v>87</v>
+      </c>
+      <c r="Q111" s="23">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
@@ -20540,21 +20565,21 @@
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="J113" s="19" t="str">
+      <c r="J113" s="19">
         <f>IF('K2'!H13="", "", 'K2'!H13)</f>
-        <v>DNS</v>
-      </c>
-      <c r="K113" s="29" t="str">
+        <v>6.6620370370370371E-2</v>
+      </c>
+      <c r="K113" s="29">
         <f t="shared" si="13"/>
-        <v>DNS</v>
-      </c>
-      <c r="L113" s="23" t="str">
+        <v>6.6620370370370371E-2</v>
+      </c>
+      <c r="L113" s="23">
         <f>IF(A113="","",IFERROR(VLOOKUP(M113,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M113" s="23" t="str">
+        <v>60</v>
+      </c>
+      <c r="M113" s="23">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="N113" s="27" t="str">
         <f>IF('K2'!K13="", "", 'K2'!K13)</f>
@@ -27050,21 +27075,21 @@
         <f t="shared" si="30"/>
         <v>-</v>
       </c>
-      <c r="J206" s="19" t="str">
+      <c r="J206" s="19">
         <f>IF('K1'!H6="", "", 'K1'!H6)</f>
-        <v/>
-      </c>
-      <c r="K206" s="29" t="str">
+        <v>6.9525462962962969E-2</v>
+      </c>
+      <c r="K206" s="29">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="L206" s="23" t="str">
+        <v>6.9525462962962969E-2</v>
+      </c>
+      <c r="L206" s="23">
         <f>IF(A206="","",IFERROR(VLOOKUP(M206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M206" s="23" t="str">
+        <v>36</v>
+      </c>
+      <c r="M206" s="23">
         <f t="shared" si="32"/>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="N206" s="27" t="str">
         <f>IF('K1'!K6="", "", 'K1'!K6)</f>
@@ -33900,17 +33925,18 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
     <col min="14" max="16384" width="8.83203125" style="15"/>
   </cols>
@@ -33967,7 +33993,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF(D1D2D3!A5="", "",D1D2D3!A5)</f>
         <v/>
@@ -33991,7 +34017,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF(D1D2D3!A4="", "",D1D2D3!A4)</f>
         <v/>
@@ -34017,16 +34043,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
-        <f>IF(D1D2D3!A7="", "",D1D2D3!A7)</f>
-        <v>Dragerengen, Ivar</v>
-      </c>
-      <c r="B6" s="41" t="str">
-        <f>IF(D1D2D3!A7="", "",D1D2D3!P7)</f>
-        <v>-</v>
-      </c>
-      <c r="C6" s="37" t="str">
-        <f>IF(D1D2D3!A7="", "",D1D2D3!Q7)</f>
-        <v>-</v>
+        <f>IF(D1D2D3!A6="", "",D1D2D3!A6)</f>
+        <v>Moseby, Håvard</v>
+      </c>
+      <c r="B6" s="41">
+        <f>IF(D1D2D3!A6="", "",D1D2D3!P6)</f>
+        <v>300</v>
+      </c>
+      <c r="C6" s="37">
+        <f>IF(D1D2D3!A6="", "",D1D2D3!Q6)</f>
+        <v>1</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -34041,16 +34067,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
-        <f>IF(D1D2D3!A6="", "",D1D2D3!A6)</f>
-        <v>Moseby, Håvard</v>
-      </c>
-      <c r="B7" s="41" t="str">
-        <f>IF(D1D2D3!A6="", "",D1D2D3!P6)</f>
-        <v>-</v>
-      </c>
-      <c r="C7" s="37" t="str">
-        <f>IF(D1D2D3!A6="", "",D1D2D3!Q6)</f>
-        <v>-</v>
+        <f>IF(D1D2D3!A107="", "",D1D2D3!A107)</f>
+        <v>Flugstad, Fredrik Fuglerud</v>
+      </c>
+      <c r="B7" s="41">
+        <f>IF(D1D2D3!A107="", "",D1D2D3!P107)</f>
+        <v>185</v>
+      </c>
+      <c r="C7" s="37">
+        <f>IF(D1D2D3!A107="", "",D1D2D3!Q107)</f>
+        <v>2</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="25"/>
@@ -34063,7 +34089,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF(D1D2D3!A8="", "",D1D2D3!A8)</f>
         <v>Haugnes, Mathias Bjerregård</v>
@@ -34087,7 +34113,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF(D1D2D3!A9="", "",D1D2D3!A9)</f>
         <v>Kvale, Nils Henrik</v>
@@ -34113,16 +34139,16 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
-        <f>IF(D1D2D3!A10="", "",D1D2D3!A10)</f>
-        <v>Lindmoen, Petter</v>
-      </c>
-      <c r="B10" s="41" t="str">
-        <f>IF(D1D2D3!A10="", "",D1D2D3!P10)</f>
-        <v>-</v>
-      </c>
-      <c r="C10" s="37" t="str">
-        <f>IF(D1D2D3!A10="", "",D1D2D3!Q10)</f>
-        <v>-</v>
+        <f>IF(D1D2D3!A110="", "",D1D2D3!A110)</f>
+        <v>Vesterås, Marius Viken</v>
+      </c>
+      <c r="B10" s="41">
+        <f>IF(D1D2D3!A110="", "",D1D2D3!P110)</f>
+        <v>157</v>
+      </c>
+      <c r="C10" s="37">
+        <f>IF(D1D2D3!A110="", "",D1D2D3!Q110)</f>
+        <v>3</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="25"/>
@@ -34137,16 +34163,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
-        <f>IF(D1D2D3!A11="", "",D1D2D3!A11)</f>
-        <v>Ramstad, Morten</v>
-      </c>
-      <c r="B11" s="41" t="str">
-        <f>IF(D1D2D3!A11="", "",D1D2D3!P11)</f>
-        <v>-</v>
-      </c>
-      <c r="C11" s="37" t="str">
-        <f>IF(D1D2D3!A11="", "",D1D2D3!Q11)</f>
-        <v>-</v>
+        <f>IF(D1D2D3!A109="", "",D1D2D3!A109)</f>
+        <v>Stangjordet, Thomas</v>
+      </c>
+      <c r="B11" s="41">
+        <f>IF(D1D2D3!A109="", "",D1D2D3!P109)</f>
+        <v>128</v>
+      </c>
+      <c r="C11" s="37">
+        <f>IF(D1D2D3!A109="", "",D1D2D3!Q109)</f>
+        <v>4</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="25"/>
@@ -34161,16 +34187,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
-        <f>IF(D1D2D3!A12="", "",D1D2D3!A12)</f>
-        <v>Riste, Markus Moen</v>
-      </c>
-      <c r="B12" s="41" t="str">
-        <f>IF(D1D2D3!A12="", "",D1D2D3!P12)</f>
-        <v>-</v>
-      </c>
-      <c r="C12" s="37" t="str">
-        <f>IF(D1D2D3!A12="", "",D1D2D3!Q12)</f>
-        <v>-</v>
+        <f>IF(D1D2D3!A106="", "",D1D2D3!A106)</f>
+        <v>Eriksen, Christian Opsahl</v>
+      </c>
+      <c r="B12" s="41">
+        <f>IF(D1D2D3!A106="", "",D1D2D3!P106)</f>
+        <v>124</v>
+      </c>
+      <c r="C12" s="37">
+        <f>IF(D1D2D3!A106="", "",D1D2D3!Q106)</f>
+        <v>5</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="25"/>
@@ -34183,7 +34209,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF(D1D2D3!A13="", "",D1D2D3!A13)</f>
         <v>Seegard, Eirik</v>
@@ -34209,16 +34235,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="str">
-        <f>IF(D1D2D3!A14="", "",D1D2D3!A14)</f>
-        <v>Steinsrud, Bendik Lae</v>
-      </c>
-      <c r="B14" s="41" t="str">
-        <f>IF(D1D2D3!A14="", "",D1D2D3!P14)</f>
-        <v>-</v>
-      </c>
-      <c r="C14" s="37" t="str">
-        <f>IF(D1D2D3!A14="", "",D1D2D3!Q14)</f>
-        <v>-</v>
+        <f>IF(D1D2D3!A15="", "",D1D2D3!A15)</f>
+        <v>Sørumshagen, Arngrim</v>
+      </c>
+      <c r="B14" s="41">
+        <f>IF(D1D2D3!A15="", "",D1D2D3!P15)</f>
+        <v>105</v>
+      </c>
+      <c r="C14" s="37">
+        <f>IF(D1D2D3!A15="", "",D1D2D3!Q15)</f>
+        <v>6</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="25"/>
@@ -34233,16 +34259,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="str">
-        <f>IF(D1D2D3!A15="", "",D1D2D3!A15)</f>
-        <v>Sørumshagen, Arngrim</v>
-      </c>
-      <c r="B15" s="41" t="str">
-        <f>IF(D1D2D3!A15="", "",D1D2D3!P15)</f>
-        <v>-</v>
-      </c>
-      <c r="C15" s="37" t="str">
-        <f>IF(D1D2D3!A15="", "",D1D2D3!Q15)</f>
-        <v>-</v>
+        <f>IF(D1D2D3!A111="", "",D1D2D3!A111)</f>
+        <v>Jacobsen, Kristian</v>
+      </c>
+      <c r="B15" s="41">
+        <f>IF(D1D2D3!A111="", "",D1D2D3!P111)</f>
+        <v>87</v>
+      </c>
+      <c r="C15" s="37">
+        <f>IF(D1D2D3!A111="", "",D1D2D3!Q111)</f>
+        <v>7</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="25"/>
@@ -34255,7 +34281,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="str">
         <f>IF(D1D2D3!A16="", "",D1D2D3!A16)</f>
         <v>Evensen, Ansgar</v>
@@ -34279,7 +34305,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="str">
         <f>IF(D1D2D3!A17="", "",D1D2D3!A17)</f>
         <v>Karsrud, Kristoffer Alm</v>
@@ -34303,7 +34329,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="str">
         <f>IF(D1D2D3!A18="", "",D1D2D3!A18)</f>
         <v>Nyhagen, Håkon</v>
@@ -34327,7 +34353,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="str">
         <f>IF(D1D2D3!A19="", "",D1D2D3!A19)</f>
         <v>Stensvold, Trym</v>
@@ -34351,7 +34377,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="str">
         <f>IF(D1D2D3!A20="", "",D1D2D3!A20)</f>
         <v/>
@@ -34375,7 +34401,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="str">
         <f>IF(D1D2D3!A21="", "",D1D2D3!A21)</f>
         <v/>
@@ -34399,7 +34425,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="str">
         <f>IF(D1D2D3!A22="", "",D1D2D3!A22)</f>
         <v/>
@@ -34423,7 +34449,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="str">
         <f>IF(D1D2D3!A23="", "",D1D2D3!A23)</f>
         <v/>
@@ -34447,7 +34473,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="str">
         <f>IF(D1D2D3!A24="", "",D1D2D3!A24)</f>
         <v/>
@@ -34471,7 +34497,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="str">
         <f>IF(D1D2D3!A25="", "",D1D2D3!A25)</f>
         <v/>
@@ -34495,7 +34521,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="str">
         <f>IF(D1D2D3!A26="", "",D1D2D3!A26)</f>
         <v/>
@@ -34519,7 +34545,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="str">
         <f>IF(D1D2D3!A27="", "",D1D2D3!A27)</f>
         <v/>
@@ -34543,7 +34569,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="str">
         <f>IF(D1D2D3!A28="", "",D1D2D3!A28)</f>
         <v/>
@@ -34567,7 +34593,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="str">
         <f>IF(D1D2D3!A29="", "",D1D2D3!A29)</f>
         <v/>
@@ -34591,7 +34617,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="str">
         <f>IF(D1D2D3!A30="", "",D1D2D3!A30)</f>
         <v/>
@@ -34615,7 +34641,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="str">
         <f>IF(D1D2D3!A31="", "",D1D2D3!A31)</f>
         <v/>
@@ -34639,7 +34665,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="str">
         <f>IF(D1D2D3!A32="", "",D1D2D3!A32)</f>
         <v/>
@@ -34663,7 +34689,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="str">
         <f>IF(D1D2D3!A33="", "",D1D2D3!A33)</f>
         <v/>
@@ -34687,7 +34713,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="str">
         <f>IF(D1D2D3!A34="", "",D1D2D3!A34)</f>
         <v/>
@@ -34711,7 +34737,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="str">
         <f>IF(D1D2D3!A35="", "",D1D2D3!A35)</f>
         <v/>
@@ -34735,7 +34761,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="str">
         <f>IF(D1D2D3!A36="", "",D1D2D3!A36)</f>
         <v/>
@@ -34759,7 +34785,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="str">
         <f>IF(D1D2D3!A37="", "",D1D2D3!A37)</f>
         <v/>
@@ -34783,7 +34809,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="str">
         <f>IF(D1D2D3!A38="", "",D1D2D3!A38)</f>
         <v/>
@@ -34807,7 +34833,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="str">
         <f>IF(D1D2D3!A39="", "",D1D2D3!A39)</f>
         <v/>
@@ -34831,7 +34857,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="str">
         <f>IF(D1D2D3!A40="", "",D1D2D3!A40)</f>
         <v/>
@@ -34855,7 +34881,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="str">
         <f>IF(D1D2D3!A41="", "",D1D2D3!A41)</f>
         <v/>
@@ -34879,7 +34905,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="str">
         <f>IF(D1D2D3!A42="", "",D1D2D3!A42)</f>
         <v/>
@@ -34903,7 +34929,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="str">
         <f>IF(D1D2D3!A43="", "",D1D2D3!A43)</f>
         <v/>
@@ -34927,7 +34953,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="str">
         <f>IF(D1D2D3!A44="", "",D1D2D3!A44)</f>
         <v/>
@@ -34951,7 +34977,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="str">
         <f>IF(D1D2D3!A45="", "",D1D2D3!A45)</f>
         <v/>
@@ -34975,7 +35001,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="str">
         <f>IF(D1D2D3!A46="", "",D1D2D3!A46)</f>
         <v/>
@@ -34999,7 +35025,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="str">
         <f>IF(D1D2D3!A47="", "",D1D2D3!A47)</f>
         <v/>
@@ -35023,7 +35049,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="str">
         <f>IF(D1D2D3!A48="", "",D1D2D3!A48)</f>
         <v/>
@@ -35047,7 +35073,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="str">
         <f>IF(D1D2D3!A49="", "",D1D2D3!A49)</f>
         <v/>
@@ -35071,7 +35097,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="str">
         <f>IF(D1D2D3!A50="", "",D1D2D3!A50)</f>
         <v/>
@@ -35095,7 +35121,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="str">
         <f>IF(D1D2D3!A51="", "",D1D2D3!A51)</f>
         <v/>
@@ -35119,7 +35145,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="str">
         <f>IF(D1D2D3!A52="", "",D1D2D3!A52)</f>
         <v/>
@@ -35143,7 +35169,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="str">
         <f>IF(D1D2D3!A53="", "",D1D2D3!A53)</f>
         <v/>
@@ -35167,7 +35193,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="str">
         <f>IF(D1D2D3!A54="", "",D1D2D3!A54)</f>
         <v/>
@@ -35191,7 +35217,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="str">
         <f>IF(D1D2D3!A55="", "",D1D2D3!A55)</f>
         <v/>
@@ -35215,7 +35241,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="str">
         <f>IF(D1D2D3!A56="", "",D1D2D3!A56)</f>
         <v/>
@@ -35239,7 +35265,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="str">
         <f>IF(D1D2D3!A57="", "",D1D2D3!A57)</f>
         <v/>
@@ -35263,7 +35289,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="str">
         <f>IF(D1D2D3!A58="", "",D1D2D3!A58)</f>
         <v/>
@@ -35287,7 +35313,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="str">
         <f>IF(D1D2D3!A59="", "",D1D2D3!A59)</f>
         <v/>
@@ -35311,7 +35337,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="str">
         <f>IF(D1D2D3!A60="", "",D1D2D3!A60)</f>
         <v/>
@@ -35335,7 +35361,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="str">
         <f>IF(D1D2D3!A61="", "",D1D2D3!A61)</f>
         <v/>
@@ -35359,7 +35385,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="str">
         <f>IF(D1D2D3!A62="", "",D1D2D3!A62)</f>
         <v/>
@@ -35383,7 +35409,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="str">
         <f>IF(D1D2D3!A63="", "",D1D2D3!A63)</f>
         <v/>
@@ -35407,7 +35433,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="str">
         <f>IF(D1D2D3!A64="", "",D1D2D3!A64)</f>
         <v/>
@@ -35431,7 +35457,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="str">
         <f>IF(D1D2D3!A65="", "",D1D2D3!A65)</f>
         <v/>
@@ -35455,7 +35481,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="str">
         <f>IF(D1D2D3!A66="", "",D1D2D3!A66)</f>
         <v/>
@@ -35479,7 +35505,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="str">
         <f>IF(D1D2D3!A67="", "",D1D2D3!A67)</f>
         <v/>
@@ -35503,7 +35529,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="str">
         <f>IF(D1D2D3!A68="", "",D1D2D3!A68)</f>
         <v/>
@@ -35527,7 +35553,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="str">
         <f>IF(D1D2D3!A69="", "",D1D2D3!A69)</f>
         <v/>
@@ -35551,7 +35577,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="str">
         <f>IF(D1D2D3!A70="", "",D1D2D3!A70)</f>
         <v/>
@@ -35575,7 +35601,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="str">
         <f>IF(D1D2D3!A71="", "",D1D2D3!A71)</f>
         <v/>
@@ -35599,7 +35625,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="str">
         <f>IF(D1D2D3!A72="", "",D1D2D3!A72)</f>
         <v/>
@@ -35623,7 +35649,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="str">
         <f>IF(D1D2D3!A73="", "",D1D2D3!A73)</f>
         <v/>
@@ -35647,7 +35673,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="12"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="str">
         <f>IF(D1D2D3!A74="", "",D1D2D3!A74)</f>
         <v/>
@@ -35671,7 +35697,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="str">
         <f>IF(D1D2D3!A75="", "",D1D2D3!A75)</f>
         <v/>
@@ -35695,7 +35721,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="str">
         <f>IF(D1D2D3!A76="", "",D1D2D3!A76)</f>
         <v/>
@@ -35719,7 +35745,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="str">
         <f>IF(D1D2D3!A77="", "",D1D2D3!A77)</f>
         <v/>
@@ -35743,7 +35769,7 @@
       <c r="L77" s="10"/>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="str">
         <f>IF(D1D2D3!A78="", "",D1D2D3!A78)</f>
         <v/>
@@ -35767,7 +35793,7 @@
       <c r="L78" s="10"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="str">
         <f>IF(D1D2D3!A79="", "",D1D2D3!A79)</f>
         <v/>
@@ -35791,7 +35817,7 @@
       <c r="L79" s="10"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="str">
         <f>IF(D1D2D3!A80="", "",D1D2D3!A80)</f>
         <v/>
@@ -35815,7 +35841,7 @@
       <c r="L80" s="10"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="str">
         <f>IF(D1D2D3!A81="", "",D1D2D3!A81)</f>
         <v/>
@@ -35839,7 +35865,7 @@
       <c r="L81" s="10"/>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="str">
         <f>IF(D1D2D3!A82="", "",D1D2D3!A82)</f>
         <v/>
@@ -35863,7 +35889,7 @@
       <c r="L82" s="10"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="str">
         <f>IF(D1D2D3!A83="", "",D1D2D3!A83)</f>
         <v/>
@@ -35887,7 +35913,7 @@
       <c r="L83" s="10"/>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="str">
         <f>IF(D1D2D3!A84="", "",D1D2D3!A84)</f>
         <v/>
@@ -35911,7 +35937,7 @@
       <c r="L84" s="10"/>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="str">
         <f>IF(D1D2D3!A85="", "",D1D2D3!A85)</f>
         <v/>
@@ -35935,7 +35961,7 @@
       <c r="L85" s="10"/>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="str">
         <f>IF(D1D2D3!A86="", "",D1D2D3!A86)</f>
         <v/>
@@ -35959,7 +35985,7 @@
       <c r="L86" s="10"/>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="str">
         <f>IF(D1D2D3!A87="", "",D1D2D3!A87)</f>
         <v/>
@@ -35983,7 +36009,7 @@
       <c r="L87" s="10"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="str">
         <f>IF(D1D2D3!A88="", "",D1D2D3!A88)</f>
         <v/>
@@ -36007,7 +36033,7 @@
       <c r="L88" s="10"/>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="str">
         <f>IF(D1D2D3!A89="", "",D1D2D3!A89)</f>
         <v/>
@@ -36031,7 +36057,7 @@
       <c r="L89" s="10"/>
       <c r="M89" s="12"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="str">
         <f>IF(D1D2D3!A90="", "",D1D2D3!A90)</f>
         <v/>
@@ -36055,7 +36081,7 @@
       <c r="L90" s="10"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="str">
         <f>IF(D1D2D3!A91="", "",D1D2D3!A91)</f>
         <v/>
@@ -36079,7 +36105,7 @@
       <c r="L91" s="10"/>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="str">
         <f>IF(D1D2D3!A92="", "",D1D2D3!A92)</f>
         <v/>
@@ -36103,7 +36129,7 @@
       <c r="L92" s="10"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="str">
         <f>IF(D1D2D3!A93="", "",D1D2D3!A93)</f>
         <v/>
@@ -36127,7 +36153,7 @@
       <c r="L93" s="10"/>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="str">
         <f>IF(D1D2D3!A94="", "",D1D2D3!A94)</f>
         <v/>
@@ -36151,7 +36177,7 @@
       <c r="L94" s="10"/>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="str">
         <f>IF(D1D2D3!A95="", "",D1D2D3!A95)</f>
         <v/>
@@ -36175,7 +36201,7 @@
       <c r="L95" s="10"/>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="str">
         <f>IF(D1D2D3!A96="", "",D1D2D3!A96)</f>
         <v/>
@@ -36199,7 +36225,7 @@
       <c r="L96" s="10"/>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="str">
         <f>IF(D1D2D3!A97="", "",D1D2D3!A97)</f>
         <v/>
@@ -36223,7 +36249,7 @@
       <c r="L97" s="10"/>
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="str">
         <f>IF(D1D2D3!A98="", "",D1D2D3!A98)</f>
         <v/>
@@ -36247,7 +36273,7 @@
       <c r="L98" s="10"/>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="str">
         <f>IF(D1D2D3!A99="", "",D1D2D3!A99)</f>
         <v/>
@@ -36271,7 +36297,7 @@
       <c r="L99" s="10"/>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="str">
         <f>IF(D1D2D3!A100="", "",D1D2D3!A100)</f>
         <v/>
@@ -36295,7 +36321,7 @@
       <c r="L100" s="10"/>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="str">
         <f>IF(D1D2D3!A101="", "",D1D2D3!A101)</f>
         <v/>
@@ -36319,7 +36345,7 @@
       <c r="L101" s="10"/>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="str">
         <f>IF(D1D2D3!A102="", "",D1D2D3!A102)</f>
         <v/>
@@ -36334,7 +36360,7 @@
       </c>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="39" t="str">
         <f>IF(D1D2D3!A103="", "",D1D2D3!A103)</f>
         <v/>
@@ -36348,7 +36374,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="39" t="str">
         <f>IF(D1D2D3!A104="", "",D1D2D3!A104)</f>
         <v/>
@@ -36362,7 +36388,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="39" t="str">
         <f>IF(D1D2D3!A105="", "",D1D2D3!A105)</f>
         <v>Bossum, Andreas</v>
@@ -36378,33 +36404,33 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="39" t="str">
-        <f>IF(D1D2D3!A106="", "",D1D2D3!A106)</f>
-        <v>Eriksen, Christian Opsahl</v>
-      </c>
-      <c r="B106" s="41" t="str">
-        <f>IF(D1D2D3!A106="", "",D1D2D3!P106)</f>
-        <v>-</v>
-      </c>
-      <c r="C106" s="37" t="str">
-        <f>IF(D1D2D3!A106="", "",D1D2D3!Q106)</f>
-        <v>-</v>
+        <f>IF(D1D2D3!A12="", "",D1D2D3!A12)</f>
+        <v>Riste, Markus Moen</v>
+      </c>
+      <c r="B106" s="41">
+        <f>IF(D1D2D3!A12="", "",D1D2D3!P12)</f>
+        <v>78</v>
+      </c>
+      <c r="C106" s="37">
+        <f>IF(D1D2D3!A12="", "",D1D2D3!Q12)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="39" t="str">
-        <f>IF(D1D2D3!A107="", "",D1D2D3!A107)</f>
-        <v>Flugstad, Fredrik Fuglerud</v>
-      </c>
-      <c r="B107" s="41" t="str">
-        <f>IF(D1D2D3!A107="", "",D1D2D3!P107)</f>
-        <v>-</v>
-      </c>
-      <c r="C107" s="37" t="str">
-        <f>IF(D1D2D3!A107="", "",D1D2D3!Q107)</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+        <f>IF(D1D2D3!A7="", "",D1D2D3!A7)</f>
+        <v>Dragerengen, Ivar</v>
+      </c>
+      <c r="B107" s="41">
+        <f>IF(D1D2D3!A7="", "",D1D2D3!P7)</f>
+        <v>51</v>
+      </c>
+      <c r="C107" s="37">
+        <f>IF(D1D2D3!A7="", "",D1D2D3!Q7)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="39" t="str">
         <f>IF(D1D2D3!A108="", "",D1D2D3!A108)</f>
         <v>Seegaard, Kristoffer</v>
@@ -36420,47 +36446,47 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="39" t="str">
-        <f>IF(D1D2D3!A109="", "",D1D2D3!A109)</f>
-        <v>Stangjordet, Thomas</v>
-      </c>
-      <c r="B109" s="41" t="str">
-        <f>IF(D1D2D3!A109="", "",D1D2D3!P109)</f>
-        <v>-</v>
-      </c>
-      <c r="C109" s="37" t="str">
-        <f>IF(D1D2D3!A109="", "",D1D2D3!Q109)</f>
-        <v>-</v>
+        <f>IF(D1D2D3!A11="", "",D1D2D3!A11)</f>
+        <v>Ramstad, Morten</v>
+      </c>
+      <c r="B109" s="41">
+        <f>IF(D1D2D3!A11="", "",D1D2D3!P11)</f>
+        <v>51</v>
+      </c>
+      <c r="C109" s="37">
+        <f>IF(D1D2D3!A11="", "",D1D2D3!Q11)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="39" t="str">
-        <f>IF(D1D2D3!A110="", "",D1D2D3!A110)</f>
-        <v>Vesterås, Marius Viken</v>
-      </c>
-      <c r="B110" s="41" t="str">
-        <f>IF(D1D2D3!A110="", "",D1D2D3!P110)</f>
-        <v>-</v>
-      </c>
-      <c r="C110" s="37" t="str">
-        <f>IF(D1D2D3!A110="", "",D1D2D3!Q110)</f>
-        <v>-</v>
+        <f>IF(D1D2D3!A10="", "",D1D2D3!A10)</f>
+        <v>Lindmoen, Petter</v>
+      </c>
+      <c r="B110" s="41">
+        <f>IF(D1D2D3!A10="", "",D1D2D3!P10)</f>
+        <v>46</v>
+      </c>
+      <c r="C110" s="37">
+        <f>IF(D1D2D3!A10="", "",D1D2D3!Q10)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="39" t="str">
-        <f>IF(D1D2D3!A111="", "",D1D2D3!A111)</f>
-        <v>Jacobsen, Kristian</v>
-      </c>
-      <c r="B111" s="41" t="str">
-        <f>IF(D1D2D3!A111="", "",D1D2D3!P111)</f>
-        <v>-</v>
-      </c>
-      <c r="C111" s="37" t="str">
-        <f>IF(D1D2D3!A111="", "",D1D2D3!Q111)</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+        <f>IF(D1D2D3!A14="", "",D1D2D3!A14)</f>
+        <v>Steinsrud, Bendik Lae</v>
+      </c>
+      <c r="B111" s="41">
+        <f>IF(D1D2D3!A14="", "",D1D2D3!P14)</f>
+        <v>46</v>
+      </c>
+      <c r="C111" s="37">
+        <f>IF(D1D2D3!A14="", "",D1D2D3!Q14)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="39" t="str">
         <f>IF(D1D2D3!A112="", "",D1D2D3!A112)</f>
         <v>Stensvold, Trym</v>
@@ -36474,7 +36500,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="39" t="str">
         <f>IF(D1D2D3!A113="", "",D1D2D3!A113)</f>
         <v>Bratbak, Emil Robert Book</v>
@@ -36488,7 +36514,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="39" t="str">
         <f>IF(D1D2D3!A114="", "",D1D2D3!A114)</f>
         <v/>
@@ -36502,7 +36528,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="39" t="str">
         <f>IF(D1D2D3!A115="", "",D1D2D3!A115)</f>
         <v/>
@@ -36516,7 +36542,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="39" t="str">
         <f>IF(D1D2D3!A116="", "",D1D2D3!A116)</f>
         <v/>
@@ -36530,7 +36556,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="39" t="str">
         <f>IF(D1D2D3!A117="", "",D1D2D3!A117)</f>
         <v/>
@@ -36544,7 +36570,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="39" t="str">
         <f>IF(D1D2D3!A118="", "",D1D2D3!A118)</f>
         <v/>
@@ -36558,7 +36584,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="39" t="str">
         <f>IF(D1D2D3!A119="", "",D1D2D3!A119)</f>
         <v/>
@@ -36572,7 +36598,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="39" t="str">
         <f>IF(D1D2D3!A120="", "",D1D2D3!A120)</f>
         <v/>
@@ -36586,7 +36612,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="39" t="str">
         <f>IF(D1D2D3!A121="", "",D1D2D3!A121)</f>
         <v/>
@@ -36600,7 +36626,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="39" t="str">
         <f>IF(D1D2D3!A122="", "",D1D2D3!A122)</f>
         <v/>
@@ -36614,7 +36640,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="39" t="str">
         <f>IF(D1D2D3!A123="", "",D1D2D3!A123)</f>
         <v/>
@@ -36628,7 +36654,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="39" t="str">
         <f>IF(D1D2D3!A124="", "",D1D2D3!A124)</f>
         <v/>
@@ -36642,7 +36668,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="39" t="str">
         <f>IF(D1D2D3!A125="", "",D1D2D3!A125)</f>
         <v/>
@@ -36656,7 +36682,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="39" t="str">
         <f>IF(D1D2D3!A126="", "",D1D2D3!A126)</f>
         <v/>
@@ -36670,7 +36696,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="39" t="str">
         <f>IF(D1D2D3!A127="", "",D1D2D3!A127)</f>
         <v/>
@@ -36684,7 +36710,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="39" t="str">
         <f>IF(D1D2D3!A128="", "",D1D2D3!A128)</f>
         <v/>
@@ -36698,7 +36724,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="39" t="str">
         <f>IF(D1D2D3!A129="", "",D1D2D3!A129)</f>
         <v/>
@@ -36712,7 +36738,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="39" t="str">
         <f>IF(D1D2D3!A130="", "",D1D2D3!A130)</f>
         <v/>
@@ -36726,7 +36752,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="39" t="str">
         <f>IF(D1D2D3!A131="", "",D1D2D3!A131)</f>
         <v/>
@@ -36740,7 +36766,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="39" t="str">
         <f>IF(D1D2D3!A132="", "",D1D2D3!A132)</f>
         <v/>
@@ -36754,7 +36780,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="39" t="str">
         <f>IF(D1D2D3!A133="", "",D1D2D3!A133)</f>
         <v/>
@@ -36768,7 +36794,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="39" t="str">
         <f>IF(D1D2D3!A134="", "",D1D2D3!A134)</f>
         <v/>
@@ -36782,7 +36808,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="39" t="str">
         <f>IF(D1D2D3!A135="", "",D1D2D3!A135)</f>
         <v/>
@@ -36796,7 +36822,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="39" t="str">
         <f>IF(D1D2D3!A136="", "",D1D2D3!A136)</f>
         <v/>
@@ -36810,7 +36836,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="39" t="str">
         <f>IF(D1D2D3!A137="", "",D1D2D3!A137)</f>
         <v/>
@@ -36824,7 +36850,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="39" t="str">
         <f>IF(D1D2D3!A138="", "",D1D2D3!A138)</f>
         <v/>
@@ -36838,7 +36864,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="39" t="str">
         <f>IF(D1D2D3!A139="", "",D1D2D3!A139)</f>
         <v/>
@@ -36852,7 +36878,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="39" t="str">
         <f>IF(D1D2D3!A140="", "",D1D2D3!A140)</f>
         <v/>
@@ -36866,7 +36892,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="39" t="str">
         <f>IF(D1D2D3!A141="", "",D1D2D3!A141)</f>
         <v/>
@@ -36880,7 +36906,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="39" t="str">
         <f>IF(D1D2D3!A142="", "",D1D2D3!A142)</f>
         <v/>
@@ -36894,7 +36920,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="39" t="str">
         <f>IF(D1D2D3!A143="", "",D1D2D3!A143)</f>
         <v/>
@@ -36908,7 +36934,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="39" t="str">
         <f>IF(D1D2D3!A144="", "",D1D2D3!A144)</f>
         <v/>
@@ -36922,7 +36948,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="39" t="str">
         <f>IF(D1D2D3!A145="", "",D1D2D3!A145)</f>
         <v/>
@@ -36936,7 +36962,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="39" t="str">
         <f>IF(D1D2D3!A146="", "",D1D2D3!A146)</f>
         <v/>
@@ -36950,7 +36976,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="39" t="str">
         <f>IF(D1D2D3!A147="", "",D1D2D3!A147)</f>
         <v/>
@@ -36964,7 +36990,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="39" t="str">
         <f>IF(D1D2D3!A148="", "",D1D2D3!A148)</f>
         <v/>
@@ -36978,7 +37004,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="39" t="str">
         <f>IF(D1D2D3!A149="", "",D1D2D3!A149)</f>
         <v/>
@@ -36992,7 +37018,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="39" t="str">
         <f>IF(D1D2D3!A150="", "",D1D2D3!A150)</f>
         <v/>
@@ -37006,7 +37032,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="39" t="str">
         <f>IF(D1D2D3!A151="", "",D1D2D3!A151)</f>
         <v/>
@@ -37020,7 +37046,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="39" t="str">
         <f>IF(D1D2D3!A152="", "",D1D2D3!A152)</f>
         <v/>
@@ -37034,7 +37060,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="39" t="str">
         <f>IF(D1D2D3!A153="", "",D1D2D3!A153)</f>
         <v/>
@@ -37048,7 +37074,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="39" t="str">
         <f>IF(D1D2D3!A154="", "",D1D2D3!A154)</f>
         <v/>
@@ -37062,7 +37088,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="39" t="str">
         <f>IF(D1D2D3!A155="", "",D1D2D3!A155)</f>
         <v/>
@@ -37076,7 +37102,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="39" t="str">
         <f>IF(D1D2D3!A156="", "",D1D2D3!A156)</f>
         <v/>
@@ -37090,7 +37116,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="39" t="str">
         <f>IF(D1D2D3!A157="", "",D1D2D3!A157)</f>
         <v/>
@@ -37104,7 +37130,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="39" t="str">
         <f>IF(D1D2D3!A158="", "",D1D2D3!A158)</f>
         <v/>
@@ -37118,7 +37144,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="39" t="str">
         <f>IF(D1D2D3!A159="", "",D1D2D3!A159)</f>
         <v/>
@@ -37132,7 +37158,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="39" t="str">
         <f>IF(D1D2D3!A160="", "",D1D2D3!A160)</f>
         <v/>
@@ -37146,7 +37172,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="39" t="str">
         <f>IF(D1D2D3!A161="", "",D1D2D3!A161)</f>
         <v/>
@@ -37160,7 +37186,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="39" t="str">
         <f>IF(D1D2D3!A162="", "",D1D2D3!A162)</f>
         <v/>
@@ -37174,7 +37200,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="39" t="str">
         <f>IF(D1D2D3!A163="", "",D1D2D3!A163)</f>
         <v/>
@@ -37188,7 +37214,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="39" t="str">
         <f>IF(D1D2D3!A164="", "",D1D2D3!A164)</f>
         <v/>
@@ -37202,7 +37228,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="39" t="str">
         <f>IF(D1D2D3!A165="", "",D1D2D3!A165)</f>
         <v/>
@@ -37216,7 +37242,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="39" t="str">
         <f>IF(D1D2D3!A166="", "",D1D2D3!A166)</f>
         <v/>
@@ -37230,7 +37256,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="39" t="str">
         <f>IF(D1D2D3!A167="", "",D1D2D3!A167)</f>
         <v/>
@@ -37244,7 +37270,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="39" t="str">
         <f>IF(D1D2D3!A168="", "",D1D2D3!A168)</f>
         <v/>
@@ -37258,7 +37284,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="39" t="str">
         <f>IF(D1D2D3!A169="", "",D1D2D3!A169)</f>
         <v/>
@@ -37272,7 +37298,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="39" t="str">
         <f>IF(D1D2D3!A170="", "",D1D2D3!A170)</f>
         <v/>
@@ -37286,7 +37312,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="39" t="str">
         <f>IF(D1D2D3!A171="", "",D1D2D3!A171)</f>
         <v/>
@@ -37300,7 +37326,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="39" t="str">
         <f>IF(D1D2D3!A172="", "",D1D2D3!A172)</f>
         <v/>
@@ -37314,7 +37340,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="39" t="str">
         <f>IF(D1D2D3!A173="", "",D1D2D3!A173)</f>
         <v/>
@@ -37328,7 +37354,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="39" t="str">
         <f>IF(D1D2D3!A174="", "",D1D2D3!A174)</f>
         <v/>
@@ -37342,7 +37368,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="39" t="str">
         <f>IF(D1D2D3!A175="", "",D1D2D3!A175)</f>
         <v/>
@@ -37356,7 +37382,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="39" t="str">
         <f>IF(D1D2D3!A176="", "",D1D2D3!A176)</f>
         <v/>
@@ -37370,7 +37396,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="39" t="str">
         <f>IF(D1D2D3!A177="", "",D1D2D3!A177)</f>
         <v/>
@@ -37384,7 +37410,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="39" t="str">
         <f>IF(D1D2D3!A178="", "",D1D2D3!A178)</f>
         <v/>
@@ -37398,7 +37424,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="39" t="str">
         <f>IF(D1D2D3!A179="", "",D1D2D3!A179)</f>
         <v/>
@@ -37412,7 +37438,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="39" t="str">
         <f>IF(D1D2D3!A180="", "",D1D2D3!A180)</f>
         <v/>
@@ -37426,7 +37452,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="39" t="str">
         <f>IF(D1D2D3!A181="", "",D1D2D3!A181)</f>
         <v/>
@@ -37440,7 +37466,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="39" t="str">
         <f>IF(D1D2D3!A182="", "",D1D2D3!A182)</f>
         <v/>
@@ -37454,7 +37480,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="39" t="str">
         <f>IF(D1D2D3!A183="", "",D1D2D3!A183)</f>
         <v/>
@@ -37468,7 +37494,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="39" t="str">
         <f>IF(D1D2D3!A184="", "",D1D2D3!A184)</f>
         <v/>
@@ -37482,7 +37508,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="39" t="str">
         <f>IF(D1D2D3!A185="", "",D1D2D3!A185)</f>
         <v/>
@@ -37496,7 +37522,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="39" t="str">
         <f>IF(D1D2D3!A186="", "",D1D2D3!A186)</f>
         <v/>
@@ -37510,7 +37536,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="39" t="str">
         <f>IF(D1D2D3!A187="", "",D1D2D3!A187)</f>
         <v/>
@@ -37524,7 +37550,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="39" t="str">
         <f>IF(D1D2D3!A188="", "",D1D2D3!A188)</f>
         <v/>
@@ -37538,7 +37564,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="39" t="str">
         <f>IF(D1D2D3!A189="", "",D1D2D3!A189)</f>
         <v/>
@@ -37552,7 +37578,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="39" t="str">
         <f>IF(D1D2D3!A190="", "",D1D2D3!A190)</f>
         <v/>
@@ -37566,7 +37592,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="39" t="str">
         <f>IF(D1D2D3!A191="", "",D1D2D3!A191)</f>
         <v/>
@@ -37580,7 +37606,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="39" t="str">
         <f>IF(D1D2D3!A192="", "",D1D2D3!A192)</f>
         <v/>
@@ -37594,7 +37620,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="39" t="str">
         <f>IF(D1D2D3!A193="", "",D1D2D3!A193)</f>
         <v/>
@@ -37608,7 +37634,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="39" t="str">
         <f>IF(D1D2D3!A194="", "",D1D2D3!A194)</f>
         <v/>
@@ -37622,7 +37648,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="39" t="str">
         <f>IF(D1D2D3!A195="", "",D1D2D3!A195)</f>
         <v/>
@@ -37636,7 +37662,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="39" t="str">
         <f>IF(D1D2D3!A196="", "",D1D2D3!A196)</f>
         <v/>
@@ -37650,7 +37676,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="39" t="str">
         <f>IF(D1D2D3!A197="", "",D1D2D3!A197)</f>
         <v/>
@@ -37664,7 +37690,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="39" t="str">
         <f>IF(D1D2D3!A198="", "",D1D2D3!A198)</f>
         <v/>
@@ -37678,7 +37704,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="39" t="str">
         <f>IF(D1D2D3!A199="", "",D1D2D3!A199)</f>
         <v/>
@@ -37692,7 +37718,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="39" t="str">
         <f>IF(D1D2D3!A200="", "",D1D2D3!A200)</f>
         <v/>
@@ -37706,7 +37732,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="39" t="str">
         <f>IF(D1D2D3!A201="", "",D1D2D3!A201)</f>
         <v/>
@@ -37720,7 +37746,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="39" t="str">
         <f>IF(D1D2D3!A202="", "",D1D2D3!A202)</f>
         <v/>
@@ -37734,7 +37760,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="39" t="str">
         <f>IF(D1D2D3!A203="", "",D1D2D3!A203)</f>
         <v/>
@@ -37748,7 +37774,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="39" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!A205)</f>
         <v>Grobakken, Rune Hermundstad</v>
@@ -37762,7 +37788,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="39" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!A206)</f>
         <v>Granvold, Simen</v>
@@ -37776,7 +37802,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="39" t="str">
         <f>IF(D1D2D3!A207="", "",D1D2D3!A207)</f>
         <v/>
@@ -37790,7 +37816,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="39" t="str">
         <f>IF(D1D2D3!A208="", "",D1D2D3!A208)</f>
         <v/>
@@ -37804,7 +37830,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="39" t="str">
         <f>IF(D1D2D3!A209="", "",D1D2D3!A209)</f>
         <v/>
@@ -37818,7 +37844,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="39" t="str">
         <f>IF(D1D2D3!A210="", "",D1D2D3!A210)</f>
         <v/>
@@ -37832,7 +37858,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="39" t="str">
         <f>IF(D1D2D3!A211="", "",D1D2D3!A211)</f>
         <v/>
@@ -37846,7 +37872,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="39" t="str">
         <f>IF(D1D2D3!A212="", "",D1D2D3!A212)</f>
         <v/>
@@ -37860,7 +37886,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="39" t="str">
         <f>IF(D1D2D3!A213="", "",D1D2D3!A213)</f>
         <v/>
@@ -37874,7 +37900,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="39" t="str">
         <f>IF(D1D2D3!A214="", "",D1D2D3!A214)</f>
         <v/>
@@ -37888,7 +37914,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="39" t="str">
         <f>IF(D1D2D3!A215="", "",D1D2D3!A215)</f>
         <v/>
@@ -37902,7 +37928,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="39" t="str">
         <f>IF(D1D2D3!A216="", "",D1D2D3!A216)</f>
         <v/>
@@ -37916,7 +37942,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="39" t="str">
         <f>IF(D1D2D3!A217="", "",D1D2D3!A217)</f>
         <v/>
@@ -37930,7 +37956,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="39" t="str">
         <f>IF(D1D2D3!A218="", "",D1D2D3!A218)</f>
         <v/>
@@ -37944,7 +37970,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="39" t="str">
         <f>IF(D1D2D3!A219="", "",D1D2D3!A219)</f>
         <v/>
@@ -37958,7 +37984,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="39" t="str">
         <f>IF(D1D2D3!A220="", "",D1D2D3!A220)</f>
         <v/>
@@ -37972,7 +37998,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="39" t="str">
         <f>IF(D1D2D3!A221="", "",D1D2D3!A221)</f>
         <v/>
@@ -37986,7 +38012,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="39" t="str">
         <f>IF(D1D2D3!A222="", "",D1D2D3!A222)</f>
         <v/>
@@ -38000,7 +38026,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="39" t="str">
         <f>IF(D1D2D3!A223="", "",D1D2D3!A223)</f>
         <v/>
@@ -38014,7 +38040,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="39" t="str">
         <f>IF(D1D2D3!A224="", "",D1D2D3!A224)</f>
         <v/>
@@ -38028,7 +38054,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="39" t="str">
         <f>IF(D1D2D3!A225="", "",D1D2D3!A225)</f>
         <v/>
@@ -38042,7 +38068,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="39" t="str">
         <f>IF(D1D2D3!A226="", "",D1D2D3!A226)</f>
         <v/>
@@ -38056,7 +38082,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="39" t="str">
         <f>IF(D1D2D3!A227="", "",D1D2D3!A227)</f>
         <v/>
@@ -38070,7 +38096,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="39" t="str">
         <f>IF(D1D2D3!A228="", "",D1D2D3!A228)</f>
         <v/>
@@ -38084,7 +38110,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="39" t="str">
         <f>IF(D1D2D3!A229="", "",D1D2D3!A229)</f>
         <v/>
@@ -38098,7 +38124,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="39" t="str">
         <f>IF(D1D2D3!A230="", "",D1D2D3!A230)</f>
         <v/>
@@ -38112,7 +38138,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="39" t="str">
         <f>IF(D1D2D3!A231="", "",D1D2D3!A231)</f>
         <v/>
@@ -38126,7 +38152,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="39" t="str">
         <f>IF(D1D2D3!A232="", "",D1D2D3!A232)</f>
         <v/>
@@ -38140,7 +38166,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="39" t="str">
         <f>IF(D1D2D3!A233="", "",D1D2D3!A233)</f>
         <v/>
@@ -38154,7 +38180,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="39" t="str">
         <f>IF(D1D2D3!A234="", "",D1D2D3!A234)</f>
         <v/>
@@ -38168,7 +38194,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="39" t="str">
         <f>IF(D1D2D3!A235="", "",D1D2D3!A235)</f>
         <v/>
@@ -38182,7 +38208,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="39" t="str">
         <f>IF(D1D2D3!A236="", "",D1D2D3!A236)</f>
         <v/>
@@ -38196,7 +38222,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="39" t="str">
         <f>IF(D1D2D3!A237="", "",D1D2D3!A237)</f>
         <v/>
@@ -38210,7 +38236,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="39" t="str">
         <f>IF(D1D2D3!A238="", "",D1D2D3!A238)</f>
         <v/>
@@ -38224,7 +38250,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="39" t="str">
         <f>IF(D1D2D3!A239="", "",D1D2D3!A239)</f>
         <v/>
@@ -38238,7 +38264,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="39" t="str">
         <f>IF(D1D2D3!A240="", "",D1D2D3!A240)</f>
         <v/>
@@ -38252,7 +38278,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="39" t="str">
         <f>IF(D1D2D3!A241="", "",D1D2D3!A241)</f>
         <v/>
@@ -38266,7 +38292,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="39" t="str">
         <f>IF(D1D2D3!A242="", "",D1D2D3!A242)</f>
         <v/>
@@ -38280,7 +38306,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="39" t="str">
         <f>IF(D1D2D3!A243="", "",D1D2D3!A243)</f>
         <v/>
@@ -38294,7 +38320,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="39" t="str">
         <f>IF(D1D2D3!A244="", "",D1D2D3!A244)</f>
         <v/>
@@ -38308,7 +38334,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="39" t="str">
         <f>IF(D1D2D3!A245="", "",D1D2D3!A245)</f>
         <v/>
@@ -38322,7 +38348,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="39" t="str">
         <f>IF(D1D2D3!A246="", "",D1D2D3!A246)</f>
         <v/>
@@ -38336,7 +38362,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="39" t="str">
         <f>IF(D1D2D3!A247="", "",D1D2D3!A247)</f>
         <v/>
@@ -38350,7 +38376,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="39" t="str">
         <f>IF(D1D2D3!A248="", "",D1D2D3!A248)</f>
         <v/>
@@ -38364,7 +38390,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="39" t="str">
         <f>IF(D1D2D3!A249="", "",D1D2D3!A249)</f>
         <v/>
@@ -38378,7 +38404,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="39" t="str">
         <f>IF(D1D2D3!A250="", "",D1D2D3!A250)</f>
         <v/>
@@ -38392,7 +38418,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="39" t="str">
         <f>IF(D1D2D3!A251="", "",D1D2D3!A251)</f>
         <v/>
@@ -38406,7 +38432,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="39" t="str">
         <f>IF(D1D2D3!A252="", "",D1D2D3!A252)</f>
         <v/>
@@ -38420,7 +38446,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="39" t="str">
         <f>IF(D1D2D3!A253="", "",D1D2D3!A253)</f>
         <v/>
@@ -38434,7 +38460,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="39" t="str">
         <f>IF(D1D2D3!A254="", "",D1D2D3!A254)</f>
         <v/>
@@ -38448,7 +38474,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="39" t="str">
         <f>IF(D1D2D3!A255="", "",D1D2D3!A255)</f>
         <v/>
@@ -38462,7 +38488,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="39" t="str">
         <f>IF(D1D2D3!A256="", "",D1D2D3!A256)</f>
         <v/>
@@ -38476,7 +38502,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="39" t="str">
         <f>IF(D1D2D3!A257="", "",D1D2D3!A257)</f>
         <v/>
@@ -38490,7 +38516,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="39" t="str">
         <f>IF(D1D2D3!A258="", "",D1D2D3!A258)</f>
         <v/>
@@ -38504,7 +38530,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="39" t="str">
         <f>IF(D1D2D3!A259="", "",D1D2D3!A259)</f>
         <v/>
@@ -38518,7 +38544,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="39" t="str">
         <f>IF(D1D2D3!A260="", "",D1D2D3!A260)</f>
         <v/>
@@ -38532,7 +38558,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="39" t="str">
         <f>IF(D1D2D3!A261="", "",D1D2D3!A261)</f>
         <v/>
@@ -38546,7 +38572,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="39" t="str">
         <f>IF(D1D2D3!A262="", "",D1D2D3!A262)</f>
         <v/>
@@ -38560,7 +38586,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="39" t="str">
         <f>IF(D1D2D3!A263="", "",D1D2D3!A263)</f>
         <v/>
@@ -38574,7 +38600,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="39" t="str">
         <f>IF(D1D2D3!A264="", "",D1D2D3!A264)</f>
         <v/>
@@ -38588,7 +38614,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="39" t="str">
         <f>IF(D1D2D3!A265="", "",D1D2D3!A265)</f>
         <v/>
@@ -38602,7 +38628,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="39" t="str">
         <f>IF(D1D2D3!A266="", "",D1D2D3!A266)</f>
         <v/>
@@ -38616,7 +38642,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="39" t="str">
         <f>IF(D1D2D3!A267="", "",D1D2D3!A267)</f>
         <v/>
@@ -38630,7 +38656,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="39" t="str">
         <f>IF(D1D2D3!A268="", "",D1D2D3!A268)</f>
         <v/>
@@ -38644,7 +38670,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="39" t="str">
         <f>IF(D1D2D3!A269="", "",D1D2D3!A269)</f>
         <v/>
@@ -38658,7 +38684,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="39" t="str">
         <f>IF(D1D2D3!A270="", "",D1D2D3!A270)</f>
         <v/>
@@ -38672,7 +38698,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="39" t="str">
         <f>IF(D1D2D3!A271="", "",D1D2D3!A271)</f>
         <v/>
@@ -38686,7 +38712,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="39" t="str">
         <f>IF(D1D2D3!A272="", "",D1D2D3!A272)</f>
         <v/>
@@ -38700,7 +38726,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="39" t="str">
         <f>IF(D1D2D3!A273="", "",D1D2D3!A273)</f>
         <v/>
@@ -38714,7 +38740,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="39" t="str">
         <f>IF(D1D2D3!A274="", "",D1D2D3!A274)</f>
         <v/>
@@ -38728,7 +38754,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="39" t="str">
         <f>IF(D1D2D3!A275="", "",D1D2D3!A275)</f>
         <v/>
@@ -38742,7 +38768,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="39" t="str">
         <f>IF(D1D2D3!A276="", "",D1D2D3!A276)</f>
         <v/>
@@ -38756,7 +38782,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="39" t="str">
         <f>IF(D1D2D3!A277="", "",D1D2D3!A277)</f>
         <v/>
@@ -38770,7 +38796,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="39" t="str">
         <f>IF(D1D2D3!A278="", "",D1D2D3!A278)</f>
         <v/>
@@ -38784,7 +38810,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="39" t="str">
         <f>IF(D1D2D3!A279="", "",D1D2D3!A279)</f>
         <v/>
@@ -38798,7 +38824,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="39" t="str">
         <f>IF(D1D2D3!A280="", "",D1D2D3!A280)</f>
         <v/>
@@ -38812,7 +38838,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="39" t="str">
         <f>IF(D1D2D3!A281="", "",D1D2D3!A281)</f>
         <v/>
@@ -38826,7 +38852,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="39" t="str">
         <f>IF(D1D2D3!A282="", "",D1D2D3!A282)</f>
         <v/>
@@ -38840,7 +38866,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="39" t="str">
         <f>IF(D1D2D3!A283="", "",D1D2D3!A283)</f>
         <v/>
@@ -38854,7 +38880,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="39" t="str">
         <f>IF(D1D2D3!A284="", "",D1D2D3!A284)</f>
         <v/>
@@ -38868,7 +38894,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="39" t="str">
         <f>IF(D1D2D3!A285="", "",D1D2D3!A285)</f>
         <v/>
@@ -38882,7 +38908,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="39" t="str">
         <f>IF(D1D2D3!A286="", "",D1D2D3!A286)</f>
         <v/>
@@ -38896,7 +38922,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="39" t="str">
         <f>IF(D1D2D3!A287="", "",D1D2D3!A287)</f>
         <v/>
@@ -38910,7 +38936,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="39" t="str">
         <f>IF(D1D2D3!A288="", "",D1D2D3!A288)</f>
         <v/>
@@ -38924,7 +38950,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="39" t="str">
         <f>IF(D1D2D3!A289="", "",D1D2D3!A289)</f>
         <v/>
@@ -38938,7 +38964,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="39" t="str">
         <f>IF(D1D2D3!A290="", "",D1D2D3!A290)</f>
         <v/>
@@ -38952,7 +38978,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="39" t="str">
         <f>IF(D1D2D3!A291="", "",D1D2D3!A291)</f>
         <v/>
@@ -38966,7 +38992,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="39" t="str">
         <f>IF(D1D2D3!A292="", "",D1D2D3!A292)</f>
         <v/>
@@ -38980,7 +39006,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="39" t="str">
         <f>IF(D1D2D3!A293="", "",D1D2D3!A293)</f>
         <v/>
@@ -38994,7 +39020,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="39" t="str">
         <f>IF(D1D2D3!A294="", "",D1D2D3!A294)</f>
         <v/>
@@ -39008,7 +39034,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="39" t="str">
         <f>IF(D1D2D3!A295="", "",D1D2D3!A295)</f>
         <v/>
@@ -39022,7 +39048,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="39" t="str">
         <f>IF(D1D2D3!A296="", "",D1D2D3!A296)</f>
         <v/>
@@ -39036,7 +39062,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="39" t="str">
         <f>IF(D1D2D3!A297="", "",D1D2D3!A297)</f>
         <v/>
@@ -39050,7 +39076,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="39" t="str">
         <f>IF(D1D2D3!A298="", "",D1D2D3!A298)</f>
         <v/>
@@ -39064,7 +39090,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="39" t="str">
         <f>IF(D1D2D3!A299="", "",D1D2D3!A299)</f>
         <v/>
@@ -39078,7 +39104,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="39" t="str">
         <f>IF(D1D2D3!A300="", "",D1D2D3!A300)</f>
         <v/>
@@ -39092,7 +39118,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="39" t="str">
         <f>IF(D1D2D3!A301="", "",D1D2D3!A301)</f>
         <v/>
@@ -39106,7 +39132,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="39" t="str">
         <f>IF(D1D2D3!A302="", "",D1D2D3!A302)</f>
         <v/>
@@ -39120,7 +39146,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="39" t="str">
         <f>IF(D1D2D3!A303="", "",D1D2D3!A303)</f>
         <v/>
@@ -39134,7 +39160,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="39" t="str">
         <f>IF(D1D2D3!A204="", "",D1D2D3!A204)</f>
         <v>Brenna, Vidar</v>
@@ -39149,14 +39175,29 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
+  <sheetProtection sort="0" autoFilter="0"/>
   <autoFilter ref="A3:C303">
-    <sortState ref="A4:C303">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+        <filter val="11"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="6"/>
+        <filter val="7"/>
+        <filter val="8"/>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A6:C111">
       <sortCondition ref="C3:C303"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -39941,8 +39982,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40159,26 +40200,28 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="10" t="str">
+      <c r="H6" s="25">
+        <v>6.8541666666666667E-2</v>
+      </c>
+      <c r="I6" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J6" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="J6" s="12">
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v>3.6886574074074072E-2</v>
-      </c>
-      <c r="L6" s="10" t="str">
+        <v>0.10542824074074074</v>
+      </c>
+      <c r="L6" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M6" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="M6" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -40207,26 +40250,28 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="10" t="str">
+      <c r="H7" s="25">
+        <v>6.2881944444444449E-2</v>
+      </c>
+      <c r="I7" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J7" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12">
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="K7" s="26">
         <f t="shared" si="3"/>
-        <v>3.4780092592592585E-2</v>
-      </c>
-      <c r="L7" s="10" t="str">
+        <v>9.7662037037037033E-2</v>
+      </c>
+      <c r="L7" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M7" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="M7" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -40305,26 +40350,28 @@
         <f>IF(A9="","",IFERROR(VLOOKUP(F9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>50</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="10" t="str">
+      <c r="H9" s="25">
+        <v>6.9594907407407411E-2</v>
+      </c>
+      <c r="I9" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J9" s="12" t="str">
+        <v>5</v>
+      </c>
+      <c r="J9" s="12">
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>45</v>
       </c>
       <c r="K9" s="26">
         <f t="shared" si="3"/>
-        <v>3.8136574074074073E-2</v>
-      </c>
-      <c r="L9" s="10" t="str">
+        <v>0.10773148148148148</v>
+      </c>
+      <c r="L9" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M9" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="M9" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -40353,26 +40400,28 @@
         <f>IF(A10="","",IFERROR(VLOOKUP(F10,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>60</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="10" t="str">
+      <c r="H10" s="25">
+        <v>6.6377314814814806E-2</v>
+      </c>
+      <c r="I10" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J10" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="J10" s="12">
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="K10" s="26">
         <f t="shared" si="3"/>
-        <v>3.7731481481481477E-2</v>
-      </c>
-      <c r="L10" s="10" t="str">
+        <v>0.10410879629629628</v>
+      </c>
+      <c r="L10" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M10" s="12" t="str">
+        <v>3</v>
+      </c>
+      <c r="M10" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -40401,28 +40450,28 @@
         <f>IF(A11="","",IFERROR(VLOOKUP(F11,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>45</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="10" t="str">
+      <c r="H11" s="25">
+        <v>7.104166666666667E-2</v>
+      </c>
+      <c r="I11" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J11" s="12" t="str">
+        <v>6</v>
+      </c>
+      <c r="J11" s="12">
         <f>IF(A11="","",IFERROR(VLOOKUP(I11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="K11" s="26" t="str">
+        <v>40</v>
+      </c>
+      <c r="K11" s="26">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="L11" s="10" t="str">
+        <v>0.10968749999999999</v>
+      </c>
+      <c r="L11" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M11" s="12" t="str">
+        <v>5</v>
+      </c>
+      <c r="M11" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -40501,16 +40550,16 @@
         <f>IF(A13="","",IFERROR(VLOOKUP(F13,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="25">
+        <v>6.6620370370370371E-2</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J13" s="12">
+        <f>IF(A13="","",IFERROR(VLOOKUP(I13,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>60</v>
-      </c>
-      <c r="I13" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J13" s="12" t="str">
-        <f>IF(A13="","",IFERROR(VLOOKUP(I13,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
       </c>
       <c r="K13" s="26" t="str">
         <f t="shared" si="3"/>
@@ -53556,11 +53605,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet6" filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53626,16 +53675,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
-        <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Dragerengen, Ivar</v>
+        <f>IF('K1'!A5="", "",'K1'!A5)</f>
+        <v>Eriksen, Christian Opsahl</v>
       </c>
       <c r="B4" s="36">
-        <f>IF('K1'!A4="", "",'K1'!H4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
-        <f>IF('K1'!A4="", "",'K1'!I4)</f>
-        <v>-</v>
+        <f>IF('K1'!A5="", "",'K1'!H5)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C4" s="37">
+        <f>IF('K1'!A5="", "",'K1'!I5)</f>
+        <v>1</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -53650,16 +53699,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
-        <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Eriksen, Christian Opsahl</v>
+        <f>IF('K1'!A18="", "",'K1'!A18)</f>
+        <v>Nyhagen, Håkon</v>
       </c>
       <c r="B5" s="36">
-        <f>IF('K1'!A5="", "",'K1'!H5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
-        <f>IF('K1'!A5="", "",'K1'!I5)</f>
-        <v>-</v>
+        <f>IF('K1'!A18="", "",'K1'!H18)</f>
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="C5" s="37">
+        <f>IF('K1'!A18="", "",'K1'!I18)</f>
+        <v>2</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>
@@ -53679,11 +53728,11 @@
       </c>
       <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!H6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>6.9525462962962969E-2</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K1'!A6="", "",'K1'!I6)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -53696,7 +53745,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
         <v>Grobakken, Rune Hermundstad</v>
@@ -53720,7 +53769,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
         <v>Haugnes, Mathias Bjerregård</v>
@@ -53744,7 +53793,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
         <v>Kvale, Nils Henrik</v>
@@ -53770,16 +53819,16 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
-        <f>IF('K1'!A10="", "",'K1'!A10)</f>
-        <v>Lindmoen, Petter</v>
+        <f>IF('K1'!A15="", "",'K1'!A15)</f>
+        <v>Sørumshagen, Arngrim</v>
       </c>
       <c r="B10" s="36">
-        <f>IF('K1'!A10="", "",'K1'!H10)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="37" t="str">
-        <f>IF('K1'!A10="", "",'K1'!I10)</f>
-        <v>-</v>
+        <f>IF('K1'!A15="", "",'K1'!H15)</f>
+        <v>7.0462962962962963E-2</v>
+      </c>
+      <c r="C10" s="37">
+        <f>IF('K1'!A15="", "",'K1'!I15)</f>
+        <v>4</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="25"/>
@@ -53794,16 +53843,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
-        <f>IF('K1'!A11="", "",'K1'!A11)</f>
-        <v>Ramstad, Morten</v>
+        <f>IF('K1'!A12="", "",'K1'!A12)</f>
+        <v>Riste, Markus Moen</v>
       </c>
       <c r="B11" s="36">
-        <f>IF('K1'!A11="", "",'K1'!H11)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="37" t="str">
-        <f>IF('K1'!A11="", "",'K1'!I11)</f>
-        <v>-</v>
+        <f>IF('K1'!A12="", "",'K1'!H12)</f>
+        <v>7.2256944444444443E-2</v>
+      </c>
+      <c r="C11" s="37">
+        <f>IF('K1'!A12="", "",'K1'!I12)</f>
+        <v>5</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="25"/>
@@ -53818,16 +53867,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
-        <f>IF('K1'!A12="", "",'K1'!A12)</f>
-        <v>Riste, Markus Moen</v>
+        <f>IF('K1'!A10="", "",'K1'!A10)</f>
+        <v>Lindmoen, Petter</v>
       </c>
       <c r="B12" s="36">
-        <f>IF('K1'!A12="", "",'K1'!H12)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="37" t="str">
-        <f>IF('K1'!A12="", "",'K1'!I12)</f>
-        <v>-</v>
+        <f>IF('K1'!A10="", "",'K1'!H10)</f>
+        <v>7.4120370370370378E-2</v>
+      </c>
+      <c r="C12" s="37">
+        <f>IF('K1'!A10="", "",'K1'!I10)</f>
+        <v>6</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="25"/>
@@ -53840,14 +53889,14 @@
       <c r="L12" s="10"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF('K1'!A13="", "",'K1'!A13)</f>
         <v>Seegard, Eirik</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="36" t="str">
         <f>IF('K1'!A13="", "",'K1'!H13)</f>
-        <v>0</v>
+        <v>DNF</v>
       </c>
       <c r="C13" s="37" t="str">
         <f>IF('K1'!A13="", "",'K1'!I13)</f>
@@ -53866,16 +53915,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="str">
-        <f>IF('K1'!A14="", "",'K1'!A14)</f>
-        <v>Steinsrud, Bendik Lae</v>
+        <f>IF('K1'!A4="", "",'K1'!A4)</f>
+        <v>Dragerengen, Ivar</v>
       </c>
       <c r="B14" s="36">
-        <f>IF('K1'!A14="", "",'K1'!H14)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="37" t="str">
-        <f>IF('K1'!A14="", "",'K1'!I14)</f>
-        <v>-</v>
+        <f>IF('K1'!A4="", "",'K1'!H4)</f>
+        <v>7.7002314814814815E-2</v>
+      </c>
+      <c r="C14" s="37">
+        <f>IF('K1'!A4="", "",'K1'!I4)</f>
+        <v>7</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="25"/>
@@ -53890,16 +53939,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="str">
-        <f>IF('K1'!A15="", "",'K1'!A15)</f>
-        <v>Sørumshagen, Arngrim</v>
+        <f>IF('K1'!A11="", "",'K1'!A11)</f>
+        <v>Ramstad, Morten</v>
       </c>
       <c r="B15" s="36">
-        <f>IF('K1'!A15="", "",'K1'!H15)</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="37" t="str">
-        <f>IF('K1'!A15="", "",'K1'!I15)</f>
-        <v>-</v>
+        <f>IF('K1'!A11="", "",'K1'!H11)</f>
+        <v>7.7361111111111117E-2</v>
+      </c>
+      <c r="C15" s="37">
+        <f>IF('K1'!A11="", "",'K1'!I11)</f>
+        <v>8</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="25"/>
@@ -53912,7 +53961,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="str">
         <f>IF('K1'!A16="", "",'K1'!A16)</f>
         <v>Evensen, Ansgar</v>
@@ -53936,7 +53985,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="str">
         <f>IF('K1'!A17="", "",'K1'!A17)</f>
         <v>Karsrud, Kristoffer Alm</v>
@@ -53962,16 +54011,16 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="str">
-        <f>IF('K1'!A18="", "",'K1'!A18)</f>
-        <v>Nyhagen, Håkon</v>
+        <f>IF('K1'!A14="", "",'K1'!A14)</f>
+        <v>Steinsrud, Bendik Lae</v>
       </c>
       <c r="B18" s="36">
-        <f>IF('K1'!A18="", "",'K1'!H18)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="37" t="str">
-        <f>IF('K1'!A18="", "",'K1'!I18)</f>
-        <v>-</v>
+        <f>IF('K1'!A14="", "",'K1'!H14)</f>
+        <v>7.8449074074074074E-2</v>
+      </c>
+      <c r="C18" s="37">
+        <f>IF('K1'!A14="", "",'K1'!I14)</f>
+        <v>9</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="25"/>
@@ -53984,7 +54033,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="str">
         <f>IF('K1'!A19="", "",'K1'!A19)</f>
         <v>Stensvold, Trym</v>
@@ -54008,7 +54057,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="str">
         <f>IF('K1'!A20="", "",'K1'!A20)</f>
         <v/>
@@ -54032,7 +54081,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="str">
         <f>IF('K1'!A21="", "",'K1'!A21)</f>
         <v/>
@@ -54056,7 +54105,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="str">
         <f>IF('K1'!A22="", "",'K1'!A22)</f>
         <v/>
@@ -54080,7 +54129,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="str">
         <f>IF('K1'!A23="", "",'K1'!A23)</f>
         <v/>
@@ -54104,7 +54153,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="str">
         <f>IF('K1'!A24="", "",'K1'!A24)</f>
         <v/>
@@ -54128,7 +54177,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="str">
         <f>IF('K1'!A25="", "",'K1'!A25)</f>
         <v/>
@@ -54152,7 +54201,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="str">
         <f>IF('K1'!A26="", "",'K1'!A26)</f>
         <v/>
@@ -54176,7 +54225,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="str">
         <f>IF('K1'!A27="", "",'K1'!A27)</f>
         <v/>
@@ -54200,7 +54249,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="str">
         <f>IF('K1'!A28="", "",'K1'!A28)</f>
         <v/>
@@ -54224,7 +54273,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="str">
         <f>IF('K1'!A29="", "",'K1'!A29)</f>
         <v/>
@@ -54248,7 +54297,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="str">
         <f>IF('K1'!A30="", "",'K1'!A30)</f>
         <v/>
@@ -54272,7 +54321,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="str">
         <f>IF('K1'!A31="", "",'K1'!A31)</f>
         <v/>
@@ -54296,7 +54345,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="str">
         <f>IF('K1'!A32="", "",'K1'!A32)</f>
         <v/>
@@ -54320,7 +54369,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="str">
         <f>IF('K1'!A33="", "",'K1'!A33)</f>
         <v/>
@@ -54344,7 +54393,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="str">
         <f>IF('K1'!A34="", "",'K1'!A34)</f>
         <v/>
@@ -54368,7 +54417,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="str">
         <f>IF('K1'!A35="", "",'K1'!A35)</f>
         <v/>
@@ -54392,7 +54441,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="str">
         <f>IF('K1'!A36="", "",'K1'!A36)</f>
         <v/>
@@ -54416,7 +54465,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="str">
         <f>IF('K1'!A37="", "",'K1'!A37)</f>
         <v/>
@@ -54440,7 +54489,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="str">
         <f>IF('K1'!A38="", "",'K1'!A38)</f>
         <v/>
@@ -54464,7 +54513,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="str">
         <f>IF('K1'!A39="", "",'K1'!A39)</f>
         <v/>
@@ -54488,7 +54537,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="str">
         <f>IF('K1'!A40="", "",'K1'!A40)</f>
         <v/>
@@ -54512,7 +54561,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="str">
         <f>IF('K1'!A41="", "",'K1'!A41)</f>
         <v/>
@@ -54536,7 +54585,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="str">
         <f>IF('K1'!A42="", "",'K1'!A42)</f>
         <v/>
@@ -54560,7 +54609,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="str">
         <f>IF('K1'!A43="", "",'K1'!A43)</f>
         <v/>
@@ -54584,7 +54633,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="str">
         <f>IF('K1'!A44="", "",'K1'!A44)</f>
         <v/>
@@ -54608,7 +54657,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="str">
         <f>IF('K1'!A45="", "",'K1'!A45)</f>
         <v/>
@@ -54632,7 +54681,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="str">
         <f>IF('K1'!A46="", "",'K1'!A46)</f>
         <v/>
@@ -54656,7 +54705,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="str">
         <f>IF('K1'!A47="", "",'K1'!A47)</f>
         <v/>
@@ -54680,7 +54729,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="str">
         <f>IF('K1'!A48="", "",'K1'!A48)</f>
         <v/>
@@ -54704,7 +54753,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="str">
         <f>IF('K1'!A49="", "",'K1'!A49)</f>
         <v/>
@@ -54728,7 +54777,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="str">
         <f>IF('K1'!A50="", "",'K1'!A50)</f>
         <v/>
@@ -54752,7 +54801,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="str">
         <f>IF('K1'!A51="", "",'K1'!A51)</f>
         <v/>
@@ -54776,7 +54825,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="str">
         <f>IF('K1'!A52="", "",'K1'!A52)</f>
         <v/>
@@ -54800,7 +54849,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="str">
         <f>IF('K1'!A53="", "",'K1'!A53)</f>
         <v/>
@@ -54824,7 +54873,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="str">
         <f>IF('K1'!A54="", "",'K1'!A54)</f>
         <v/>
@@ -54848,7 +54897,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="str">
         <f>IF('K1'!A55="", "",'K1'!A55)</f>
         <v/>
@@ -54872,7 +54921,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="str">
         <f>IF('K1'!A56="", "",'K1'!A56)</f>
         <v/>
@@ -54896,7 +54945,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="str">
         <f>IF('K1'!A57="", "",'K1'!A57)</f>
         <v/>
@@ -54920,7 +54969,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="str">
         <f>IF('K1'!A58="", "",'K1'!A58)</f>
         <v/>
@@ -54944,7 +54993,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="str">
         <f>IF('K1'!A59="", "",'K1'!A59)</f>
         <v/>
@@ -54968,7 +55017,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="str">
         <f>IF('K1'!A60="", "",'K1'!A60)</f>
         <v/>
@@ -54992,7 +55041,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="str">
         <f>IF('K1'!A61="", "",'K1'!A61)</f>
         <v/>
@@ -55016,7 +55065,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="str">
         <f>IF('K1'!A62="", "",'K1'!A62)</f>
         <v/>
@@ -55040,7 +55089,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="str">
         <f>IF('K1'!A63="", "",'K1'!A63)</f>
         <v/>
@@ -55064,7 +55113,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="str">
         <f>IF('K1'!A64="", "",'K1'!A64)</f>
         <v/>
@@ -55088,7 +55137,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="str">
         <f>IF('K1'!A65="", "",'K1'!A65)</f>
         <v/>
@@ -55112,7 +55161,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="str">
         <f>IF('K1'!A66="", "",'K1'!A66)</f>
         <v/>
@@ -55136,7 +55185,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="str">
         <f>IF('K1'!A67="", "",'K1'!A67)</f>
         <v/>
@@ -55160,7 +55209,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="str">
         <f>IF('K1'!A68="", "",'K1'!A68)</f>
         <v/>
@@ -55184,7 +55233,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="str">
         <f>IF('K1'!A69="", "",'K1'!A69)</f>
         <v/>
@@ -55208,7 +55257,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="str">
         <f>IF('K1'!A70="", "",'K1'!A70)</f>
         <v/>
@@ -55232,7 +55281,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="str">
         <f>IF('K1'!A71="", "",'K1'!A71)</f>
         <v/>
@@ -55256,7 +55305,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="str">
         <f>IF('K1'!A72="", "",'K1'!A72)</f>
         <v/>
@@ -55280,7 +55329,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="str">
         <f>IF('K1'!A73="", "",'K1'!A73)</f>
         <v/>
@@ -55304,7 +55353,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="12"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="str">
         <f>IF('K1'!A74="", "",'K1'!A74)</f>
         <v/>
@@ -55328,7 +55377,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="str">
         <f>IF('K1'!A75="", "",'K1'!A75)</f>
         <v/>
@@ -55352,7 +55401,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="str">
         <f>IF('K1'!A76="", "",'K1'!A76)</f>
         <v/>
@@ -55376,7 +55425,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="str">
         <f>IF('K1'!A77="", "",'K1'!A77)</f>
         <v/>
@@ -55400,7 +55449,7 @@
       <c r="L77" s="10"/>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="str">
         <f>IF('K1'!A78="", "",'K1'!A78)</f>
         <v/>
@@ -55424,7 +55473,7 @@
       <c r="L78" s="10"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="str">
         <f>IF('K1'!A79="", "",'K1'!A79)</f>
         <v/>
@@ -55448,7 +55497,7 @@
       <c r="L79" s="10"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="str">
         <f>IF('K1'!A80="", "",'K1'!A80)</f>
         <v/>
@@ -55472,7 +55521,7 @@
       <c r="L80" s="10"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="str">
         <f>IF('K1'!A81="", "",'K1'!A81)</f>
         <v/>
@@ -55496,7 +55545,7 @@
       <c r="L81" s="10"/>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="str">
         <f>IF('K1'!A82="", "",'K1'!A82)</f>
         <v/>
@@ -55520,7 +55569,7 @@
       <c r="L82" s="10"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="str">
         <f>IF('K1'!A83="", "",'K1'!A83)</f>
         <v/>
@@ -55544,7 +55593,7 @@
       <c r="L83" s="10"/>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="str">
         <f>IF('K1'!A84="", "",'K1'!A84)</f>
         <v/>
@@ -55568,7 +55617,7 @@
       <c r="L84" s="10"/>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="str">
         <f>IF('K1'!A85="", "",'K1'!A85)</f>
         <v/>
@@ -55592,7 +55641,7 @@
       <c r="L85" s="10"/>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="str">
         <f>IF('K1'!A86="", "",'K1'!A86)</f>
         <v/>
@@ -55616,7 +55665,7 @@
       <c r="L86" s="10"/>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="str">
         <f>IF('K1'!A87="", "",'K1'!A87)</f>
         <v/>
@@ -55640,7 +55689,7 @@
       <c r="L87" s="10"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="str">
         <f>IF('K1'!A88="", "",'K1'!A88)</f>
         <v/>
@@ -55664,7 +55713,7 @@
       <c r="L88" s="10"/>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="str">
         <f>IF('K1'!A89="", "",'K1'!A89)</f>
         <v/>
@@ -55688,7 +55737,7 @@
       <c r="L89" s="10"/>
       <c r="M89" s="12"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="str">
         <f>IF('K1'!A90="", "",'K1'!A90)</f>
         <v/>
@@ -55712,7 +55761,7 @@
       <c r="L90" s="10"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="str">
         <f>IF('K1'!A91="", "",'K1'!A91)</f>
         <v/>
@@ -55736,7 +55785,7 @@
       <c r="L91" s="10"/>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="str">
         <f>IF('K1'!A92="", "",'K1'!A92)</f>
         <v/>
@@ -55760,7 +55809,7 @@
       <c r="L92" s="10"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="str">
         <f>IF('K1'!A93="", "",'K1'!A93)</f>
         <v/>
@@ -55784,7 +55833,7 @@
       <c r="L93" s="10"/>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="str">
         <f>IF('K1'!A94="", "",'K1'!A94)</f>
         <v/>
@@ -55808,7 +55857,7 @@
       <c r="L94" s="10"/>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="str">
         <f>IF('K1'!A95="", "",'K1'!A95)</f>
         <v/>
@@ -55832,7 +55881,7 @@
       <c r="L95" s="10"/>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="str">
         <f>IF('K1'!A96="", "",'K1'!A96)</f>
         <v/>
@@ -55856,7 +55905,7 @@
       <c r="L96" s="10"/>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="str">
         <f>IF('K1'!A97="", "",'K1'!A97)</f>
         <v/>
@@ -55880,7 +55929,7 @@
       <c r="L97" s="10"/>
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="str">
         <f>IF('K1'!A98="", "",'K1'!A98)</f>
         <v/>
@@ -55904,7 +55953,7 @@
       <c r="L98" s="10"/>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="str">
         <f>IF('K1'!A99="", "",'K1'!A99)</f>
         <v/>
@@ -55928,7 +55977,7 @@
       <c r="L99" s="10"/>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="str">
         <f>IF('K1'!A100="", "",'K1'!A100)</f>
         <v/>
@@ -55952,7 +56001,7 @@
       <c r="L100" s="10"/>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="str">
         <f>IF('K1'!A101="", "",'K1'!A101)</f>
         <v/>
@@ -55976,7 +56025,7 @@
       <c r="L101" s="10"/>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="str">
         <f>IF('K1'!A102="", "",'K1'!A102)</f>
         <v/>
@@ -55991,7 +56040,7 @@
       </c>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="39" t="str">
         <f>IF('K1'!A103="", "",'K1'!A103)</f>
         <v/>
@@ -56006,10 +56055,28 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
-  <autoFilter ref="A3:C103"/>
+  <sheetProtection sort="0" autoFilter="0"/>
+  <autoFilter ref="A3:C103">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="6"/>
+        <filter val="7"/>
+        <filter val="8"/>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A4:C18">
+      <sortCondition ref="C3:C103"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -60935,11 +61002,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet9" filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61003,7 +61070,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
         <v>Bossum, Andreas</v>
@@ -61027,7 +61094,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
         <v>Brenna, Vidar</v>
@@ -61053,16 +61120,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
-        <f>IF('K2'!A6="", "",'K2'!A6)</f>
-        <v>Flugstad, Fredrik Fuglerud</v>
+        <f>IF('K2'!A7="", "",'K2'!A7)</f>
+        <v>Moseby, Håvard</v>
       </c>
       <c r="B6" s="36">
-        <f>IF('K2'!A6="", "",'K2'!H6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
-        <f>IF('K2'!A6="", "",'K2'!I6)</f>
-        <v>-</v>
+        <f>IF('K2'!A7="", "",'K2'!H7)</f>
+        <v>6.2881944444444449E-2</v>
+      </c>
+      <c r="C6" s="37">
+        <f>IF('K2'!A7="", "",'K2'!I7)</f>
+        <v>1</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -61077,16 +61144,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
-        <f>IF('K2'!A7="", "",'K2'!A7)</f>
-        <v>Moseby, Håvard</v>
+        <f>IF('K2'!A10="", "",'K2'!A10)</f>
+        <v>Vesterås, Marius Viken</v>
       </c>
       <c r="B7" s="36">
-        <f>IF('K2'!A7="", "",'K2'!H7)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="str">
-        <f>IF('K2'!A7="", "",'K2'!I7)</f>
-        <v>-</v>
+        <f>IF('K2'!A10="", "",'K2'!H10)</f>
+        <v>6.6377314814814806E-2</v>
+      </c>
+      <c r="C7" s="37">
+        <f>IF('K2'!A10="", "",'K2'!I10)</f>
+        <v>2</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="25"/>
@@ -61099,7 +61166,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K2'!A8="", "",'K2'!A8)</f>
         <v>Seegaard, Kristoffer</v>
@@ -61125,16 +61192,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
-        <f>IF('K2'!A9="", "",'K2'!A9)</f>
-        <v>Stangjordet, Thomas</v>
+        <f>IF('K2'!A13="", "",'K2'!A13)</f>
+        <v>Bratbak, Emil Robert Book</v>
       </c>
       <c r="B9" s="36">
-        <f>IF('K2'!A9="", "",'K2'!H9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="37" t="str">
-        <f>IF('K2'!A9="", "",'K2'!I9)</f>
-        <v>-</v>
+        <f>IF('K2'!A13="", "",'K2'!H13)</f>
+        <v>6.6620370370370371E-2</v>
+      </c>
+      <c r="C9" s="37">
+        <f>IF('K2'!A13="", "",'K2'!I13)</f>
+        <v>3</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="25"/>
@@ -61149,16 +61216,16 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
-        <f>IF('K2'!A10="", "",'K2'!A10)</f>
-        <v>Vesterås, Marius Viken</v>
+        <f>IF('K2'!A6="", "",'K2'!A6)</f>
+        <v>Flugstad, Fredrik Fuglerud</v>
       </c>
       <c r="B10" s="36">
-        <f>IF('K2'!A10="", "",'K2'!H10)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="37" t="str">
-        <f>IF('K2'!A10="", "",'K2'!I10)</f>
-        <v>-</v>
+        <f>IF('K2'!A6="", "",'K2'!H6)</f>
+        <v>6.8541666666666667E-2</v>
+      </c>
+      <c r="C10" s="37">
+        <f>IF('K2'!A6="", "",'K2'!I6)</f>
+        <v>4</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="25"/>
@@ -61173,16 +61240,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
-        <f>IF('K2'!A11="", "",'K2'!A11)</f>
-        <v>Jacobsen, Kristian</v>
-      </c>
-      <c r="B11" s="36" t="str">
-        <f>IF('K2'!A11="", "",'K2'!H11)</f>
-        <v>DNS</v>
-      </c>
-      <c r="C11" s="37" t="str">
-        <f>IF('K2'!A11="", "",'K2'!I11)</f>
-        <v>-</v>
+        <f>IF('K2'!A9="", "",'K2'!A9)</f>
+        <v>Stangjordet, Thomas</v>
+      </c>
+      <c r="B11" s="36">
+        <f>IF('K2'!A9="", "",'K2'!H9)</f>
+        <v>6.9594907407407411E-2</v>
+      </c>
+      <c r="C11" s="37">
+        <f>IF('K2'!A9="", "",'K2'!I9)</f>
+        <v>5</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="25"/>
@@ -61195,7 +61262,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF('K2'!A12="", "",'K2'!A12)</f>
         <v>Stensvold, Trym</v>
@@ -61221,16 +61288,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
-        <f>IF('K2'!A13="", "",'K2'!A13)</f>
-        <v>Bratbak, Emil Robert Book</v>
-      </c>
-      <c r="B13" s="36" t="str">
-        <f>IF('K2'!A13="", "",'K2'!H13)</f>
-        <v>DNS</v>
-      </c>
-      <c r="C13" s="37" t="str">
-        <f>IF('K2'!A13="", "",'K2'!I13)</f>
-        <v>-</v>
+        <f>IF('K2'!A11="", "",'K2'!A11)</f>
+        <v>Jacobsen, Kristian</v>
+      </c>
+      <c r="B13" s="36">
+        <f>IF('K2'!A11="", "",'K2'!H11)</f>
+        <v>7.104166666666667E-2</v>
+      </c>
+      <c r="C13" s="37">
+        <f>IF('K2'!A11="", "",'K2'!I11)</f>
+        <v>6</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="25"/>
@@ -61243,7 +61310,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="str">
         <f>IF('K2'!A14="", "",'K2'!A14)</f>
         <v/>
@@ -61267,7 +61334,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="str">
         <f>IF('K2'!A15="", "",'K2'!A15)</f>
         <v/>
@@ -61291,7 +61358,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="str">
         <f>IF('K2'!A16="", "",'K2'!A16)</f>
         <v/>
@@ -61315,7 +61382,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="str">
         <f>IF('K2'!A17="", "",'K2'!A17)</f>
         <v/>
@@ -61339,7 +61406,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="str">
         <f>IF('K2'!A18="", "",'K2'!A18)</f>
         <v/>
@@ -61363,7 +61430,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="str">
         <f>IF('K2'!A19="", "",'K2'!A19)</f>
         <v/>
@@ -61387,7 +61454,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="str">
         <f>IF('K2'!A20="", "",'K2'!A20)</f>
         <v/>
@@ -61411,7 +61478,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="str">
         <f>IF('K2'!A21="", "",'K2'!A21)</f>
         <v/>
@@ -61435,7 +61502,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="str">
         <f>IF('K2'!A22="", "",'K2'!A22)</f>
         <v/>
@@ -61459,7 +61526,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="str">
         <f>IF('K2'!A23="", "",'K2'!A23)</f>
         <v/>
@@ -61483,7 +61550,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="str">
         <f>IF('K2'!A24="", "",'K2'!A24)</f>
         <v/>
@@ -61507,7 +61574,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="str">
         <f>IF('K2'!A25="", "",'K2'!A25)</f>
         <v/>
@@ -61531,7 +61598,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="str">
         <f>IF('K2'!A26="", "",'K2'!A26)</f>
         <v/>
@@ -61555,7 +61622,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="str">
         <f>IF('K2'!A27="", "",'K2'!A27)</f>
         <v/>
@@ -61579,7 +61646,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="str">
         <f>IF('K2'!A28="", "",'K2'!A28)</f>
         <v/>
@@ -61603,7 +61670,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="str">
         <f>IF('K2'!A29="", "",'K2'!A29)</f>
         <v/>
@@ -61627,7 +61694,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="str">
         <f>IF('K2'!A30="", "",'K2'!A30)</f>
         <v/>
@@ -61651,7 +61718,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="str">
         <f>IF('K2'!A31="", "",'K2'!A31)</f>
         <v/>
@@ -61675,7 +61742,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="str">
         <f>IF('K2'!A32="", "",'K2'!A32)</f>
         <v/>
@@ -61699,7 +61766,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="str">
         <f>IF('K2'!A33="", "",'K2'!A33)</f>
         <v/>
@@ -61723,7 +61790,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="str">
         <f>IF('K2'!A34="", "",'K2'!A34)</f>
         <v/>
@@ -61747,7 +61814,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="str">
         <f>IF('K2'!A35="", "",'K2'!A35)</f>
         <v/>
@@ -61771,7 +61838,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="str">
         <f>IF('K2'!A36="", "",'K2'!A36)</f>
         <v/>
@@ -61795,7 +61862,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="str">
         <f>IF('K2'!A37="", "",'K2'!A37)</f>
         <v/>
@@ -61819,7 +61886,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="str">
         <f>IF('K2'!A38="", "",'K2'!A38)</f>
         <v/>
@@ -61843,7 +61910,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="str">
         <f>IF('K2'!A39="", "",'K2'!A39)</f>
         <v/>
@@ -61867,7 +61934,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="str">
         <f>IF('K2'!A40="", "",'K2'!A40)</f>
         <v/>
@@ -61891,7 +61958,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="str">
         <f>IF('K2'!A41="", "",'K2'!A41)</f>
         <v/>
@@ -61915,7 +61982,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="str">
         <f>IF('K2'!A42="", "",'K2'!A42)</f>
         <v/>
@@ -61939,7 +62006,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="str">
         <f>IF('K2'!A43="", "",'K2'!A43)</f>
         <v/>
@@ -61963,7 +62030,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="str">
         <f>IF('K2'!A44="", "",'K2'!A44)</f>
         <v/>
@@ -61987,7 +62054,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="str">
         <f>IF('K2'!A45="", "",'K2'!A45)</f>
         <v/>
@@ -62011,7 +62078,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="str">
         <f>IF('K2'!A46="", "",'K2'!A46)</f>
         <v/>
@@ -62035,7 +62102,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="str">
         <f>IF('K2'!A47="", "",'K2'!A47)</f>
         <v/>
@@ -62059,7 +62126,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="str">
         <f>IF('K2'!A48="", "",'K2'!A48)</f>
         <v/>
@@ -62083,7 +62150,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="str">
         <f>IF('K2'!A49="", "",'K2'!A49)</f>
         <v/>
@@ -62107,7 +62174,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="str">
         <f>IF('K2'!A50="", "",'K2'!A50)</f>
         <v/>
@@ -62131,7 +62198,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="str">
         <f>IF('K2'!A51="", "",'K2'!A51)</f>
         <v/>
@@ -62155,7 +62222,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="str">
         <f>IF('K2'!A52="", "",'K2'!A52)</f>
         <v/>
@@ -62179,7 +62246,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="str">
         <f>IF('K2'!A53="", "",'K2'!A53)</f>
         <v/>
@@ -62203,7 +62270,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="str">
         <f>IF('K2'!A54="", "",'K2'!A54)</f>
         <v/>
@@ -62227,7 +62294,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="str">
         <f>IF('K2'!A55="", "",'K2'!A55)</f>
         <v/>
@@ -62251,7 +62318,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="str">
         <f>IF('K2'!A56="", "",'K2'!A56)</f>
         <v/>
@@ -62275,7 +62342,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="str">
         <f>IF('K2'!A57="", "",'K2'!A57)</f>
         <v/>
@@ -62299,7 +62366,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="str">
         <f>IF('K2'!A58="", "",'K2'!A58)</f>
         <v/>
@@ -62323,7 +62390,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="str">
         <f>IF('K2'!A59="", "",'K2'!A59)</f>
         <v/>
@@ -62347,7 +62414,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="str">
         <f>IF('K2'!A60="", "",'K2'!A60)</f>
         <v/>
@@ -62371,7 +62438,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="str">
         <f>IF('K2'!A61="", "",'K2'!A61)</f>
         <v/>
@@ -62395,7 +62462,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="str">
         <f>IF('K2'!A62="", "",'K2'!A62)</f>
         <v/>
@@ -62419,7 +62486,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="str">
         <f>IF('K2'!A63="", "",'K2'!A63)</f>
         <v/>
@@ -62443,7 +62510,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="str">
         <f>IF('K2'!A64="", "",'K2'!A64)</f>
         <v/>
@@ -62467,7 +62534,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="str">
         <f>IF('K2'!A65="", "",'K2'!A65)</f>
         <v/>
@@ -62491,7 +62558,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="str">
         <f>IF('K2'!A66="", "",'K2'!A66)</f>
         <v/>
@@ -62515,7 +62582,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="str">
         <f>IF('K2'!A67="", "",'K2'!A67)</f>
         <v/>
@@ -62539,7 +62606,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="str">
         <f>IF('K2'!A68="", "",'K2'!A68)</f>
         <v/>
@@ -62563,7 +62630,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="str">
         <f>IF('K2'!A69="", "",'K2'!A69)</f>
         <v/>
@@ -62587,7 +62654,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="str">
         <f>IF('K2'!A70="", "",'K2'!A70)</f>
         <v/>
@@ -62611,7 +62678,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="str">
         <f>IF('K2'!A71="", "",'K2'!A71)</f>
         <v/>
@@ -62635,7 +62702,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="str">
         <f>IF('K2'!A72="", "",'K2'!A72)</f>
         <v/>
@@ -62659,7 +62726,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="str">
         <f>IF('K2'!A73="", "",'K2'!A73)</f>
         <v/>
@@ -62683,7 +62750,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="12"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="str">
         <f>IF('K2'!A74="", "",'K2'!A74)</f>
         <v/>
@@ -62707,7 +62774,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="str">
         <f>IF('K2'!A75="", "",'K2'!A75)</f>
         <v/>
@@ -62731,7 +62798,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="str">
         <f>IF('K2'!A76="", "",'K2'!A76)</f>
         <v/>
@@ -62755,7 +62822,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="str">
         <f>IF('K2'!A77="", "",'K2'!A77)</f>
         <v/>
@@ -62779,7 +62846,7 @@
       <c r="L77" s="10"/>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="str">
         <f>IF('K2'!A78="", "",'K2'!A78)</f>
         <v/>
@@ -62803,7 +62870,7 @@
       <c r="L78" s="10"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="str">
         <f>IF('K2'!A79="", "",'K2'!A79)</f>
         <v/>
@@ -62827,7 +62894,7 @@
       <c r="L79" s="10"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="str">
         <f>IF('K2'!A80="", "",'K2'!A80)</f>
         <v/>
@@ -62851,7 +62918,7 @@
       <c r="L80" s="10"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="str">
         <f>IF('K2'!A81="", "",'K2'!A81)</f>
         <v/>
@@ -62875,7 +62942,7 @@
       <c r="L81" s="10"/>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="str">
         <f>IF('K2'!A82="", "",'K2'!A82)</f>
         <v/>
@@ -62899,7 +62966,7 @@
       <c r="L82" s="10"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="str">
         <f>IF('K2'!A83="", "",'K2'!A83)</f>
         <v/>
@@ -62923,7 +62990,7 @@
       <c r="L83" s="10"/>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="str">
         <f>IF('K2'!A84="", "",'K2'!A84)</f>
         <v/>
@@ -62947,7 +63014,7 @@
       <c r="L84" s="10"/>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="str">
         <f>IF('K2'!A85="", "",'K2'!A85)</f>
         <v/>
@@ -62971,7 +63038,7 @@
       <c r="L85" s="10"/>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="str">
         <f>IF('K2'!A86="", "",'K2'!A86)</f>
         <v/>
@@ -62995,7 +63062,7 @@
       <c r="L86" s="10"/>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="str">
         <f>IF('K2'!A87="", "",'K2'!A87)</f>
         <v/>
@@ -63019,7 +63086,7 @@
       <c r="L87" s="10"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="str">
         <f>IF('K2'!A88="", "",'K2'!A88)</f>
         <v/>
@@ -63043,7 +63110,7 @@
       <c r="L88" s="10"/>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="str">
         <f>IF('K2'!A89="", "",'K2'!A89)</f>
         <v/>
@@ -63067,7 +63134,7 @@
       <c r="L89" s="10"/>
       <c r="M89" s="12"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="str">
         <f>IF('K2'!A90="", "",'K2'!A90)</f>
         <v/>
@@ -63091,7 +63158,7 @@
       <c r="L90" s="10"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="str">
         <f>IF('K2'!A91="", "",'K2'!A91)</f>
         <v/>
@@ -63115,7 +63182,7 @@
       <c r="L91" s="10"/>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="str">
         <f>IF('K2'!A92="", "",'K2'!A92)</f>
         <v/>
@@ -63139,7 +63206,7 @@
       <c r="L92" s="10"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="str">
         <f>IF('K2'!A93="", "",'K2'!A93)</f>
         <v/>
@@ -63163,7 +63230,7 @@
       <c r="L93" s="10"/>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="str">
         <f>IF('K2'!A94="", "",'K2'!A94)</f>
         <v/>
@@ -63187,7 +63254,7 @@
       <c r="L94" s="10"/>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="str">
         <f>IF('K2'!A95="", "",'K2'!A95)</f>
         <v/>
@@ -63211,7 +63278,7 @@
       <c r="L95" s="10"/>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="str">
         <f>IF('K2'!A96="", "",'K2'!A96)</f>
         <v/>
@@ -63235,7 +63302,7 @@
       <c r="L96" s="10"/>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="str">
         <f>IF('K2'!A97="", "",'K2'!A97)</f>
         <v/>
@@ -63259,7 +63326,7 @@
       <c r="L97" s="10"/>
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="str">
         <f>IF('K2'!A98="", "",'K2'!A98)</f>
         <v/>
@@ -63283,7 +63350,7 @@
       <c r="L98" s="10"/>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="str">
         <f>IF('K2'!A99="", "",'K2'!A99)</f>
         <v/>
@@ -63307,7 +63374,7 @@
       <c r="L99" s="10"/>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="str">
         <f>IF('K2'!A100="", "",'K2'!A100)</f>
         <v/>
@@ -63331,7 +63398,7 @@
       <c r="L100" s="10"/>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="str">
         <f>IF('K2'!A101="", "",'K2'!A101)</f>
         <v/>
@@ -63355,7 +63422,7 @@
       <c r="L101" s="10"/>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="str">
         <f>IF('K2'!A102="", "",'K2'!A102)</f>
         <v/>
@@ -63370,7 +63437,7 @@
       </c>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="39" t="str">
         <f>IF('K2'!A103="", "",'K2'!A103)</f>
         <v/>
@@ -63385,9 +63452,24 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
-  <autoFilter ref="A3:C103"/>
+  <sheetProtection sort="0" autoFilter="0"/>
+  <autoFilter ref="A3:C103">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="6"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A6:C13">
+      <sortCondition ref="C3:C103"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>